--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093B0A43-3766-7A43-9B67-8130CE0F0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA12EE2-EE88-4B26-A178-388EFA6C27CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -958,12 +948,15 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,14 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,15 +980,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,62 +1489,62 @@
   <dimension ref="A2:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B5" s="63" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="R5" s="63" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="R5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
-      <c r="X5" s="63" t="s">
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="68"/>
+      <c r="X5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="65"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="68"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="20">
-        <v>124.69</v>
+        <v>119.45</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1578,7 +1568,7 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1609,13 +1599,13 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="20">
         <f>C6*C7</f>
-        <v>8862.9651999999987</v>
+        <v>8490.5059999999994</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1639,7 +1629,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1661,7 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1672,7 @@
       <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="61">
         <v>44713</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1707,7 +1697,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1735,13 +1725,13 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="21">
         <f>C8-C11</f>
-        <v>8485.7361999999994</v>
+        <v>8113.2769999999991</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1761,7 +1751,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1779,7 +1769,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1790,19 +1780,19 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
-      <c r="R14" s="77" t="s">
+      <c r="R14" s="62" t="s">
         <v>143</v>
       </c>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1820,17 +1810,17 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1848,17 +1838,17 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="72"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1876,14 +1866,14 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="72"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1899,14 +1889,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1924,7 +1914,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1942,7 +1932,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1960,12 +1950,12 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="63" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1981,14 +1971,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="72"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2006,14 +1996,14 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="71">
         <v>1993</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="72"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2031,11 +2021,11 @@
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="G25" s="76">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="G25" s="61">
         <v>43221</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -2056,10 +2046,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2075,12 +2065,12 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2098,14 +2088,14 @@
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="76"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2127,7 +2117,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R29" s="31" t="s">
         <v>52</v>
       </c>
@@ -2135,66 +2125,71 @@
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="77">
         <f>C8/SUM('Financial Model'!M5:P5)</f>
-        <v>8.9379906938844655</v>
-      </c>
-      <c r="D32" s="69"/>
+        <v>8.5623786060189229</v>
+      </c>
+      <c r="D32" s="78"/>
       <c r="R32" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="77">
         <f>C6/'Financial Model'!P84</f>
-        <v>7.4209108022361665</v>
-      </c>
-      <c r="D33" s="69"/>
+        <v>7.1090528135945954</v>
+      </c>
+      <c r="D33" s="78"/>
       <c r="R33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="R34" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R35" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
@@ -2210,11 +2205,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{79BCDA43-1DBD-4865-999E-0DD05314FB66}"/>
@@ -2237,16 +2227,16 @@
       <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.1640625" style="1"/>
-    <col min="17" max="17" width="9.1640625" style="52"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="52"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="34" t="s">
         <v>153</v>
       </c>
@@ -2311,7 +2301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="33"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2351,7 +2341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
@@ -2382,7 +2372,7 @@
         <v>608.52499999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
@@ -2413,36 +2403,36 @@
         <v>254.85599999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="J5" s="40">
-        <f>J3+J4</f>
+        <f t="shared" ref="J5:P5" si="0">J3+J4</f>
         <v>226.14000000000001</v>
       </c>
       <c r="K5" s="40">
-        <f>K3+K4</f>
+        <f t="shared" si="0"/>
         <v>195.01900000000001</v>
       </c>
       <c r="L5" s="40">
-        <f>L3+L4</f>
+        <f t="shared" si="0"/>
         <v>218.79499999999999</v>
       </c>
       <c r="M5" s="40">
-        <f>M3+M4</f>
+        <f t="shared" si="0"/>
         <v>231.989</v>
       </c>
       <c r="N5" s="40">
-        <f>N3+N4</f>
+        <f t="shared" si="0"/>
         <v>217.57799999999997</v>
       </c>
       <c r="O5" s="40">
-        <f>O3+O4</f>
+        <f t="shared" si="0"/>
         <v>256.42599999999999</v>
       </c>
       <c r="P5" s="40">
-        <f>P3+P4</f>
+        <f t="shared" si="0"/>
         <v>285.613</v>
       </c>
       <c r="Q5" s="50"/>
@@ -2451,7 +2441,7 @@
         <v>863.38099999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>68</v>
       </c>
@@ -2482,7 +2472,7 @@
         <v>260.09799999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
         <v>69</v>
       </c>
@@ -2513,7 +2503,7 @@
         <v>62.373000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2522,7 +2512,7 @@
         <v>84.834000000000003</v>
       </c>
       <c r="K8" s="41">
-        <f t="shared" ref="K8" si="0">K6+K7</f>
+        <f t="shared" ref="K8" si="1">K6+K7</f>
         <v>71.665999999999997</v>
       </c>
       <c r="L8" s="41">
@@ -2530,7 +2520,7 @@
         <v>80.866</v>
       </c>
       <c r="M8" s="41">
-        <f t="shared" ref="M8" si="1">M6+M7</f>
+        <f t="shared" ref="M8" si="2">M6+M7</f>
         <v>87.421999999999997</v>
       </c>
       <c r="N8" s="41">
@@ -2551,7 +2541,7 @@
         <v>322.47099999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>141.30600000000001</v>
       </c>
       <c r="K9" s="40">
-        <f t="shared" ref="K9" si="2">K5-K8</f>
+        <f t="shared" ref="K9" si="3">K5-K8</f>
         <v>123.35300000000001</v>
       </c>
       <c r="L9" s="40">
@@ -2568,7 +2558,7 @@
         <v>137.92899999999997</v>
       </c>
       <c r="M9" s="40">
-        <f t="shared" ref="M9" si="3">M5-M8</f>
+        <f t="shared" ref="M9" si="4">M5-M8</f>
         <v>144.56700000000001</v>
       </c>
       <c r="N9" s="40">
@@ -2589,7 +2579,7 @@
         <v>540.91000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
         <v>71</v>
       </c>
@@ -2620,7 +2610,7 @@
         <v>515.00700000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>72</v>
       </c>
@@ -2647,40 +2637,40 @@
       </c>
       <c r="Q11" s="51"/>
       <c r="X11" s="41">
-        <f t="shared" ref="X11:X16" si="4">SUM(K11:N11)</f>
+        <f t="shared" ref="X11:X16" si="5">SUM(K11:N11)</f>
         <v>194.02600000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="41">
-        <f>J10+J11</f>
+        <f t="shared" ref="J12:P12" si="6">J10+J11</f>
         <v>135.53100000000001</v>
       </c>
       <c r="K12" s="41">
-        <f>K10+K11</f>
+        <f t="shared" si="6"/>
         <v>173.61500000000001</v>
       </c>
       <c r="L12" s="41">
-        <f>L10+L11</f>
+        <f t="shared" si="6"/>
         <v>231.614</v>
       </c>
       <c r="M12" s="41">
-        <f>M10+M11</f>
+        <f t="shared" si="6"/>
         <v>141.67699999999999</v>
       </c>
       <c r="N12" s="41">
-        <f>N10+N11</f>
+        <f t="shared" si="6"/>
         <v>162.12700000000001</v>
       </c>
       <c r="O12" s="41">
-        <f>O10+O11</f>
+        <f t="shared" si="6"/>
         <v>138.54500000000002</v>
       </c>
       <c r="P12" s="41">
-        <f>P10+P11</f>
+        <f t="shared" si="6"/>
         <v>152.55199999999999</v>
       </c>
       <c r="X12" s="41">
@@ -2688,7 +2678,7 @@
         <v>709.03300000000013</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2696,27 +2686,27 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="K13" s="40">
-        <f>K9-K12</f>
+        <f t="shared" ref="K13:P13" si="7">K9-K12</f>
         <v>-50.262</v>
       </c>
       <c r="L13" s="40">
-        <f>L9-L12</f>
+        <f t="shared" si="7"/>
         <v>-93.685000000000031</v>
       </c>
       <c r="M13" s="40">
-        <f>M9-M12</f>
+        <f t="shared" si="7"/>
         <v>2.8900000000000148</v>
       </c>
       <c r="N13" s="40">
-        <f>N9-N12</f>
+        <f t="shared" si="7"/>
         <v>-27.066000000000031</v>
       </c>
       <c r="O13" s="40">
-        <f>O9-O12</f>
+        <f t="shared" si="7"/>
         <v>17.19399999999996</v>
       </c>
       <c r="P13" s="40">
-        <f>P9-P12</f>
+        <f t="shared" si="7"/>
         <v>21.41100000000003</v>
       </c>
       <c r="Q13" s="53"/>
@@ -2725,7 +2715,7 @@
         <v>-168.12300000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,40 +2741,40 @@
         <v>47.026000000000003</v>
       </c>
       <c r="X14" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.748000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="41">
-        <f>J13+J14</f>
+        <f t="shared" ref="J15:P15" si="8">J13+J14</f>
         <v>9.0400000000000009</v>
       </c>
       <c r="K15" s="41">
-        <f>K13+K14</f>
+        <f t="shared" si="8"/>
         <v>-49.677</v>
       </c>
       <c r="L15" s="41">
-        <f>L13+L14</f>
+        <f t="shared" si="8"/>
         <v>-51.84400000000003</v>
       </c>
       <c r="M15" s="41">
-        <f>M13+M14</f>
+        <f t="shared" si="8"/>
         <v>-2.6399999999999855</v>
       </c>
       <c r="N15" s="41">
-        <f>N13+N14</f>
+        <f t="shared" si="8"/>
         <v>-37.214000000000027</v>
       </c>
       <c r="O15" s="41">
-        <f>O13+O14</f>
+        <f t="shared" si="8"/>
         <v>72.492999999999967</v>
       </c>
       <c r="P15" s="41">
-        <f>P13+P14</f>
+        <f t="shared" si="8"/>
         <v>68.43700000000004</v>
       </c>
       <c r="X15" s="41">
@@ -2792,7 +2782,7 @@
         <v>-141.37500000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -2818,40 +2808,40 @@
         <v>17.475000000000001</v>
       </c>
       <c r="X16" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-81.356999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="J17" s="40">
-        <f>J15-J16</f>
+        <f t="shared" ref="J17:P17" si="9">J15-J16</f>
         <v>25.834000000000003</v>
       </c>
       <c r="K17" s="40">
-        <f>K15-K16</f>
+        <f t="shared" si="9"/>
         <v>-47.917000000000002</v>
       </c>
       <c r="L17" s="40">
-        <f>L15-L16</f>
+        <f t="shared" si="9"/>
         <v>-47.117000000000033</v>
       </c>
       <c r="M17" s="40">
-        <f>M15-M16</f>
+        <f t="shared" si="9"/>
         <v>48.524000000000015</v>
       </c>
       <c r="N17" s="40">
-        <f>N15-N16</f>
+        <f t="shared" si="9"/>
         <v>-13.508000000000028</v>
       </c>
       <c r="O17" s="40">
-        <f>O15-O16</f>
+        <f t="shared" si="9"/>
         <v>54.830999999999968</v>
       </c>
       <c r="P17" s="40">
-        <f>P15-P16</f>
+        <f t="shared" si="9"/>
         <v>50.962000000000039</v>
       </c>
       <c r="Q17" s="53"/>
@@ -2860,36 +2850,36 @@
         <v>-60.018000000000058</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J18" s="44">
-        <f>J17/J19</f>
+        <f t="shared" ref="J18:P18" si="10">J17/J19</f>
         <v>0.40594603937836865</v>
       </c>
       <c r="K18" s="44">
-        <f>K17/K19</f>
+        <f t="shared" si="10"/>
         <v>-0.74828221625335745</v>
       </c>
       <c r="L18" s="44">
-        <f>L17/L19</f>
+        <f t="shared" si="10"/>
         <v>-0.72303041463339834</v>
       </c>
       <c r="M18" s="44">
-        <f>M17/M19</f>
+        <f t="shared" si="10"/>
         <v>0.73307952622673467</v>
       </c>
       <c r="N18" s="44">
-        <f>N17/N19</f>
+        <f t="shared" si="10"/>
         <v>-0.19489251190304469</v>
       </c>
       <c r="O18" s="44">
-        <f>O17/O19</f>
+        <f t="shared" si="10"/>
         <v>0.77281183932346675</v>
       </c>
       <c r="P18" s="44">
-        <f>P17/P19</f>
+        <f t="shared" si="10"/>
         <v>0.71737049549549603</v>
       </c>
       <c r="X18" s="44">
@@ -2897,7 +2887,7 @@
         <v>-0.86593565142115214</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +2924,7 @@
         <v>69.31</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2944,7 +2934,7 @@
         <v>-3.786150172459557E-2</v>
       </c>
       <c r="O21" s="43">
-        <f t="shared" ref="O21" si="5">O5/K5-1</f>
+        <f t="shared" ref="O21" si="11">O5/K5-1</f>
         <v>0.31487701198344764</v>
       </c>
       <c r="P21" s="43">
@@ -2953,7 +2943,7 @@
       </c>
       <c r="Q21" s="53"/>
     </row>
-    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
         <v>93</v>
       </c>
@@ -2963,7 +2953,7 @@
         <v>-0.16487284339176189</v>
       </c>
       <c r="O22" s="45">
-        <f t="shared" ref="O22:O23" si="6">O3/K3-1</f>
+        <f t="shared" ref="O22:O23" si="12">O3/K3-1</f>
         <v>0.25068495095325316</v>
       </c>
       <c r="P22" s="45">
@@ -2972,47 +2962,47 @@
       </c>
       <c r="Q22" s="54"/>
     </row>
-    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
         <v>94</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45">
-        <f t="shared" ref="N23:P23" si="7">N4/J4-1</f>
+        <f t="shared" ref="N23:P23" si="13">N4/J4-1</f>
         <v>0.38722512686452393</v>
       </c>
       <c r="O23" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.48194262279940125</v>
       </c>
       <c r="P23" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.3718894304771676</v>
       </c>
       <c r="Q23" s="54"/>
     </row>
-    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K24" s="43">
-        <f t="shared" ref="K24:M24" si="8">K5/J5-1</f>
+        <f t="shared" ref="K24:L24" si="14">K5/J5-1</f>
         <v>-0.13761828955514288</v>
       </c>
       <c r="L24" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.12191632610155922</v>
       </c>
       <c r="M24" s="43">
-        <f t="shared" ref="M24:N24" si="9">M5/L5-1</f>
+        <f t="shared" ref="M24" si="15">M5/L5-1</f>
         <v>6.0303023378047937E-2</v>
       </c>
       <c r="N24" s="43">
-        <f t="shared" ref="N24:O24" si="10">N5/M5-1</f>
+        <f t="shared" ref="N24" si="16">N5/M5-1</f>
         <v>-6.2119324623150396E-2</v>
       </c>
       <c r="O24" s="43">
-        <f t="shared" ref="O24:P24" si="11">O5/N5-1</f>
+        <f t="shared" ref="O24" si="17">O5/N5-1</f>
         <v>0.17854746343839922</v>
       </c>
       <c r="P24" s="43">
@@ -3024,28 +3014,28 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="45">
-        <f t="shared" ref="K25:M25" si="12">K3/J3-1</f>
+        <f t="shared" ref="K25:L25" si="18">K3/J3-1</f>
         <v>-0.19084977830871386</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.1103090441917578</v>
       </c>
       <c r="M25" s="45">
-        <f t="shared" ref="M25:N25" si="13">M3/L3-1</f>
+        <f t="shared" ref="M25" si="19">M3/L3-1</f>
         <v>5.9938501665313559E-2</v>
       </c>
       <c r="N25" s="45">
-        <f t="shared" ref="N25:O25" si="14">N3/M3-1</f>
+        <f t="shared" ref="N25" si="20">N3/M3-1</f>
         <v>-0.1230013932196643</v>
       </c>
       <c r="O25" s="45">
-        <f t="shared" ref="O25:P25" si="15">O3/N3-1</f>
+        <f t="shared" ref="O25" si="21">O3/N3-1</f>
         <v>0.21178193921971822</v>
       </c>
       <c r="P25" s="45">
@@ -3057,28 +3047,28 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
         <v>92</v>
       </c>
       <c r="K26" s="45">
-        <f t="shared" ref="K26:M26" si="16">K4/J4-1</f>
+        <f t="shared" ref="K26:L26" si="22">K4/J4-1</f>
         <v>4.053898200830397E-2</v>
       </c>
       <c r="L26" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.15212532096872522</v>
       </c>
       <c r="M26" s="45">
-        <f t="shared" ref="M26:N26" si="17">M4/L4-1</f>
+        <f t="shared" ref="M26" si="23">M4/L4-1</f>
         <v>6.1217290918419875E-2</v>
       </c>
       <c r="N26" s="45">
-        <f t="shared" ref="N26:O26" si="18">N4/M4-1</f>
+        <f t="shared" ref="N26" si="24">N4/M4-1</f>
         <v>9.0396760644244845E-2</v>
       </c>
       <c r="O26" s="45">
-        <f t="shared" ref="O26:P26" si="19">O4/N4-1</f>
+        <f t="shared" ref="O26" si="25">O4/N4-1</f>
         <v>0.1115853067106376</v>
       </c>
       <c r="P26" s="45">
@@ -3090,7 +3080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3102,65 +3092,65 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42">
-        <f t="shared" ref="J28:M28" si="20">J9/J5</f>
+        <f t="shared" ref="J28:M28" si="26">J9/J5</f>
         <v>0.62486070575749542</v>
       </c>
       <c r="K28" s="42">
-        <f t="shared" ref="K28:L28" si="21">K9/K5</f>
+        <f t="shared" ref="K28" si="27">K9/K5</f>
         <v>0.63251785723442333</v>
       </c>
       <c r="L28" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.63040288854864135</v>
       </c>
       <c r="M28" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.62316316721913545</v>
       </c>
       <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="22">N9/N5</f>
+        <f t="shared" ref="N28:O28" si="28">N9/N5</f>
         <v>0.62074750204524354</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.60734480902872556</v>
       </c>
       <c r="P28" s="42">
-        <f t="shared" ref="P28" si="23">P9/P5</f>
+        <f t="shared" ref="P28" si="29">P9/P5</f>
         <v>0.60908642113629285</v>
       </c>
       <c r="Q28" s="55"/>
       <c r="X28" s="42">
-        <f t="shared" ref="X28" si="24">X9/X5</f>
+        <f t="shared" ref="X28" si="30">X9/X5</f>
         <v>0.62650208888080705</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="42">
-        <f t="shared" ref="J29:M29" si="25">J13/J5</f>
+        <f t="shared" ref="J29:M29" si="31">J13/J5</f>
         <v>2.553727779251791E-2</v>
       </c>
       <c r="K29" s="42">
-        <f t="shared" ref="K29:L29" si="26">K13/K5</f>
+        <f t="shared" ref="K29" si="32">K13/K5</f>
         <v>-0.2577287341233418</v>
       </c>
       <c r="L29" s="42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.42818620169565136</v>
       </c>
       <c r="M29" s="42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.2457487208445292E-2</v>
       </c>
       <c r="N29" s="42">
-        <f t="shared" ref="N29:O29" si="27">N13/N5</f>
+        <f t="shared" ref="N29:O29" si="33">N13/N5</f>
         <v>-0.12439676805559401</v>
       </c>
       <c r="O29" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.7052482977545028E-2</v>
       </c>
       <c r="P29" s="42">
@@ -3172,32 +3162,32 @@
         <v>-0.19472631433862925</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J30" s="42">
-        <f t="shared" ref="J30:M30" si="28">J17/J5</f>
+        <f t="shared" ref="J30:M30" si="34">J17/J5</f>
         <v>0.11423896701158574</v>
       </c>
       <c r="K30" s="42">
-        <f t="shared" ref="K30:L30" si="29">K17/K5</f>
+        <f t="shared" ref="K30" si="35">K17/K5</f>
         <v>-0.24570426471266901</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.21534769990173466</v>
       </c>
       <c r="M30" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.20916508972408179</v>
       </c>
       <c r="N30" s="42">
-        <f t="shared" ref="N30:O30" si="30">N17/N5</f>
+        <f t="shared" ref="N30:O30" si="36">N17/N5</f>
         <v>-6.2083482705053032E-2</v>
       </c>
       <c r="O30" s="42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.21382777097486202</v>
       </c>
       <c r="P30" s="42">
@@ -3209,32 +3199,32 @@
         <v>-6.9515080827583717E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J31" s="42">
-        <f t="shared" ref="J31:M31" si="31">J16/J15</f>
+        <f t="shared" ref="J31:M31" si="37">J16/J15</f>
         <v>-1.8577433628318583</v>
       </c>
       <c r="K31" s="42">
-        <f t="shared" ref="K31:L31" si="32">K16/K15</f>
+        <f t="shared" ref="K31" si="38">K16/K15</f>
         <v>3.5428870503452302E-2</v>
       </c>
       <c r="L31" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>9.1177378288712238E-2</v>
       </c>
       <c r="M31" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>19.380303030303139</v>
       </c>
       <c r="N31" s="42">
-        <f t="shared" ref="N31:O31" si="33">N16/N15</f>
+        <f t="shared" ref="N31:O31" si="39">N16/N15</f>
         <v>0.63701832643628697</v>
       </c>
       <c r="O31" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.24363731670644073</v>
       </c>
       <c r="P31" s="42">
@@ -3246,39 +3236,39 @@
         <v>0.57546949602121988</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
       <c r="X32" s="42"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J33" s="42">
-        <f t="shared" ref="J33:P33" si="34">J11/J5</f>
+        <f t="shared" ref="J33:O33" si="40">J11/J5</f>
         <v>0.16807287521004688</v>
       </c>
       <c r="K33" s="42">
-        <f t="shared" ref="K33:L33" si="35">K11/K5</f>
+        <f t="shared" ref="K33" si="41">K11/K5</f>
         <v>0.24109445746311897</v>
       </c>
       <c r="L33" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.24658698781964852</v>
       </c>
       <c r="M33" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.18268969649423031</v>
       </c>
       <c r="N33" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.23290038514923386</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.1888108070164492</v>
       </c>
       <c r="P33" s="42">
@@ -3290,12 +3280,12 @@
         <v>0.22472813277104781</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="L34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
         <v>104</v>
       </c>
@@ -3303,7 +3293,7 @@
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3334,7 +3324,7 @@
         <v>32.79</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -3365,7 +3355,7 @@
         <v>8.8309999999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3396,7 +3386,7 @@
         <v>2.7450000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3427,7 +3417,7 @@
         <v>5.157</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
@@ -3458,7 +3448,7 @@
         <v>1536.3320000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
@@ -3489,7 +3479,7 @@
         <v>59.850999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3510,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3551,7 +3541,7 @@
         <v>6.1459999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
@@ -3582,17 +3572,17 @@
         <v>5.3140000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="L45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -3610,7 +3600,7 @@
       </c>
       <c r="Q48" s="53"/>
     </row>
-    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
@@ -3628,7 +3618,7 @@
       </c>
       <c r="Q49" s="53"/>
     </row>
-    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>106</v>
       </c>
@@ -3646,7 +3636,7 @@
       </c>
       <c r="Q50" s="53"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
@@ -3663,7 +3653,7 @@
         <v>379.67200000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>108</v>
       </c>
@@ -3680,7 +3670,7 @@
         <v>196.75399999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
@@ -3698,7 +3688,7 @@
       </c>
       <c r="Q53" s="53"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3715,7 +3705,7 @@
         <v>61.838999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
@@ -3736,7 +3726,7 @@
         <v>1169.7909999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
@@ -3753,7 +3743,7 @@
         <v>157.916</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
@@ -3770,7 +3760,7 @@
         <v>100.548</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3791,7 +3781,7 @@
         <v>58.937999999999995</v>
       </c>
     </row>
-    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
@@ -3809,7 +3799,7 @@
       </c>
       <c r="Q59" s="53"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -3826,7 +3816,7 @@
         <v>8.9920000000000009</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
@@ -3843,7 +3833,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +3850,7 @@
         <v>281.69099999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>119</v>
       </c>
@@ -3877,7 +3867,7 @@
         <v>100.982</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3898,12 +3888,12 @@
         <v>1932.0229999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K65" s="41"/>
       <c r="N65" s="41"/>
       <c r="P65" s="59"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>121</v>
       </c>
@@ -3920,7 +3910,7 @@
         <v>60.689</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
@@ -3937,7 +3927,7 @@
         <v>100.98</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>126</v>
       </c>
@@ -3954,7 +3944,7 @@
         <v>253.185</v>
       </c>
     </row>
-    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>123</v>
       </c>
@@ -3972,7 +3962,7 @@
       </c>
       <c r="Q69" s="53"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>124</v>
       </c>
@@ -3989,7 +3979,7 @@
         <v>6.7869999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>125</v>
       </c>
@@ -4010,7 +4000,7 @@
         <v>432.971</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>127</v>
       </c>
@@ -4027,7 +4017,7 @@
         <v>269.47699999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
@@ -4044,7 +4034,7 @@
         <v>7.6920000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
@@ -4061,7 +4051,7 @@
         <v>5.5170000000000003</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>141</v>
       </c>
@@ -4078,7 +4068,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>129</v>
       </c>
@@ -4095,7 +4085,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>130</v>
       </c>
@@ -4112,7 +4102,7 @@
         <v>4.5039999999999996</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
@@ -4133,10 +4123,10 @@
         <v>738.37199999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N79" s="41"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>132</v>
       </c>
@@ -4153,7 +4143,7 @@
         <v>1193.6510000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>133</v>
       </c>
@@ -4174,10 +4164,10 @@
         <v>1932.0230000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N82" s="41"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>134</v>
       </c>
@@ -4198,7 +4188,7 @@
         <v>1193.6509999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>135</v>
       </c>
@@ -4219,12 +4209,12 @@
         <v>16.802519707207203</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>137</v>
       </c>
@@ -4238,7 +4228,7 @@
       </c>
       <c r="Q87" s="53"/>
     </row>
-    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="36" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4237,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K89" s="39">
-        <f t="shared" ref="K89" si="36">K48+K49+K50</f>
+        <f t="shared" ref="K89" si="42">K48+K49+K50</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N89" s="39">
@@ -4260,7 +4250,7 @@
       </c>
       <c r="Q89" s="54"/>
     </row>
-    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="36" t="s">
         <v>6</v>
       </c>
@@ -4278,7 +4268,7 @@
       </c>
       <c r="Q90" s="54"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4277,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K91" s="41">
-        <f t="shared" ref="K91" si="37">K89-K90</f>
+        <f t="shared" ref="K91" si="43">K89-K90</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N91" s="41">
@@ -4299,7 +4289,7 @@
         <v>377.22899999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
@@ -4315,7 +4305,7 @@
       <c r="M93" s="1">
         <v>175.02</v>
       </c>
-      <c r="N93" s="78">
+      <c r="N93" s="63">
         <v>157</v>
       </c>
       <c r="O93" s="1">
@@ -4325,32 +4315,32 @@
         <v>93.17</v>
       </c>
     </row>
-    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="41" t="s">
         <v>140</v>
       </c>
       <c r="J94" s="41">
-        <f t="shared" ref="J94:O94" si="38">J93*J19</f>
+        <f t="shared" ref="J94:O94" si="44">J93*J19</f>
         <v>7797.68667</v>
       </c>
       <c r="K94" s="41">
-        <f t="shared" ref="K94" si="39">K93*K19</f>
+        <f t="shared" ref="K94" si="45">K93*K19</f>
         <v>9120.0071200000002</v>
       </c>
       <c r="L94" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>11521.3488</v>
       </c>
       <c r="M94" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>11584.923839999999</v>
       </c>
       <c r="N94" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>10881.67</v>
       </c>
       <c r="O94" s="41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>9771.9434999999994</v>
       </c>
       <c r="P94" s="41">
@@ -4359,7 +4349,7 @@
       </c>
       <c r="Q94" s="51"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -4368,7 +4358,7 @@
         <v>7235.7216699999999</v>
       </c>
       <c r="K95" s="41">
-        <f t="shared" ref="K95" si="40">K94-K91</f>
+        <f t="shared" ref="K95" si="46">K94-K91</f>
         <v>8524.2831200000001</v>
       </c>
       <c r="N95" s="41">
@@ -4380,37 +4370,37 @@
         <v>6241.5678000000007</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:17" s="79" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="79" t="s">
+    <row r="99" spans="2:17" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="79">
+      <c r="J99" s="64">
         <f>J93/J84</f>
         <v>7.9873462056532354</v>
       </c>
-      <c r="K99" s="79">
-        <f t="shared" ref="K99" si="41">K93/K84</f>
+      <c r="K99" s="64">
+        <f t="shared" ref="K99" si="47">K93/K84</f>
         <v>9.021099781990257</v>
       </c>
-      <c r="N99" s="79">
+      <c r="N99" s="64">
         <f>N93/N84</f>
         <v>10.390123640682932</v>
       </c>
-      <c r="P99" s="79">
+      <c r="P99" s="64">
         <f>P93/P84</f>
         <v>5.545001679720456</v>
       </c>
-      <c r="Q99" s="80"/>
+      <c r="Q99" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA12EE2-EE88-4B26-A178-388EFA6C27CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C5238-30C5-C143-82BB-3850DD709269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -135,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
   <si>
     <t>$AXON</t>
   </si>
@@ -617,7 +627,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +722,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -846,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -957,6 +974,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,10 +1207,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,63 +1508,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900DF94E-F891-4352-9E7E-03CAB35A1375}">
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
-      <c r="R5" s="66" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="R5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68"/>
-      <c r="X5" s="66" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="71"/>
+      <c r="X5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="68"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="71"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="20">
-        <v>119.45</v>
+        <v>185.55</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1568,7 +1588,7 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1599,13 +1619,13 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="20">
         <f>C6*C7</f>
-        <v>8490.5059999999994</v>
+        <v>13188.894</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1629,7 +1649,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1681,7 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1717,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1725,13 +1745,13 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="21">
         <f>C8-C11</f>
-        <v>8113.2769999999991</v>
+        <v>12811.665000000001</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1751,7 +1771,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1769,7 +1789,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1787,12 +1807,12 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B15" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1810,17 +1830,17 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="75"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1838,17 +1858,17 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="75"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1866,14 +1886,14 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="75"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1889,14 +1909,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="77"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1914,7 +1934,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1932,7 +1952,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1950,12 +1970,12 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="66" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B22" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1971,14 +1991,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="75"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1996,14 +2016,14 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="74">
         <v>1993</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="75"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2021,10 +2041,10 @@
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B25" s="18"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="G25" s="61">
         <v>43221</v>
       </c>
@@ -2046,10 +2066,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2065,12 +2085,14 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="67"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2088,14 +2110,14 @@
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="79"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2117,7 +2139,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="R29" s="31" t="s">
         <v>52</v>
       </c>
@@ -2125,66 +2147,66 @@
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="66" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B31" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="80">
         <f>C8/SUM('Financial Model'!M5:P5)</f>
-        <v>8.5623786060189229</v>
-      </c>
-      <c r="D32" s="78"/>
+        <v>13.300538722032742</v>
+      </c>
+      <c r="D32" s="81"/>
       <c r="R32" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="80">
         <f>C6/'Financial Model'!P84</f>
-        <v>7.1090528135945954</v>
-      </c>
-      <c r="D33" s="78"/>
+        <v>11.042986601611362</v>
+      </c>
+      <c r="D33" s="81"/>
       <c r="R33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="R34" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R35" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R37" s="1" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -2194,7 +2216,6 @@
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
@@ -2218,25 +2239,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC786C6-03D5-4DEA-B3BA-C40A632BF30C}">
-  <dimension ref="B1:Y99"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="52"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="9.1640625" style="52"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="34" t="s">
         <v>153</v>
       </c>
@@ -2301,7 +2322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="33"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2341,7 +2362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +2393,7 @@
         <v>608.52499999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
@@ -2403,7 +2424,7 @@
         <v>254.85599999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>863.38099999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
         <v>68</v>
       </c>
@@ -2472,7 +2493,7 @@
         <v>260.09799999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="37" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +2524,7 @@
         <v>62.373000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2562,7 @@
         <v>322.47099999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2600,7 @@
         <v>540.91000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="41" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2631,7 @@
         <v>515.00700000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="41" t="s">
         <v>72</v>
       </c>
@@ -2641,7 +2662,7 @@
         <v>194.02600000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
@@ -2678,7 +2699,7 @@
         <v>709.03300000000013</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
@@ -2715,7 +2736,7 @@
         <v>-168.12300000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,7 +2766,7 @@
         <v>26.748000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2803,7 @@
         <v>-141.37500000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -2812,7 +2833,7 @@
         <v>-81.356999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>-60.018000000000058</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,7 +2908,7 @@
         <v>-0.86593565142115214</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2945,7 @@
         <v>69.31</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2943,7 +2964,7 @@
       </c>
       <c r="Q21" s="53"/>
     </row>
-    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="37" t="s">
         <v>93</v>
       </c>
@@ -2962,7 +2983,7 @@
       </c>
       <c r="Q22" s="54"/>
     </row>
-    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>94</v>
       </c>
@@ -2981,7 +3002,7 @@
       </c>
       <c r="Q23" s="54"/>
     </row>
-    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
@@ -3014,7 +3035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="37" t="s">
         <v>91</v>
       </c>
@@ -3047,7 +3068,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="37" t="s">
         <v>92</v>
       </c>
@@ -3080,7 +3101,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3125,7 +3146,7 @@
         <v>0.62650208888080705</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
@@ -3162,7 +3183,7 @@
         <v>-0.19472631433862925</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -3199,7 +3220,7 @@
         <v>-6.9515080827583717E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -3236,14 +3257,14 @@
         <v>0.57546949602121988</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
       <c r="X32" s="42"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>151</v>
       </c>
@@ -3280,12 +3301,12 @@
         <v>0.22472813277104781</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="L34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" s="57" t="s">
         <v>104</v>
       </c>
@@ -3293,7 +3314,7 @@
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3345,7 @@
         <v>32.79</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -3355,7 +3376,7 @@
         <v>8.8309999999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3386,7 +3407,7 @@
         <v>2.7450000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3417,7 +3438,7 @@
         <v>5.157</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
@@ -3448,7 +3469,7 @@
         <v>1536.3320000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
@@ -3479,7 +3500,7 @@
         <v>59.850999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
@@ -3510,7 +3531,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -3541,7 +3562,7 @@
         <v>6.1459999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
@@ -3572,17 +3593,17 @@
         <v>5.3140000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="L45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B47" s="46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3621,7 @@
       </c>
       <c r="Q48" s="53"/>
     </row>
-    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
@@ -3618,7 +3639,7 @@
       </c>
       <c r="Q49" s="53"/>
     </row>
-    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>106</v>
       </c>
@@ -3636,7 +3657,7 @@
       </c>
       <c r="Q50" s="53"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
@@ -3653,7 +3674,7 @@
         <v>379.67200000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>108</v>
       </c>
@@ -3670,7 +3691,7 @@
         <v>196.75399999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
@@ -3688,7 +3709,7 @@
       </c>
       <c r="Q53" s="53"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
@@ -3705,7 +3726,7 @@
         <v>61.838999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
@@ -3726,7 +3747,7 @@
         <v>1169.7909999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
@@ -3743,7 +3764,7 @@
         <v>157.916</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
@@ -3760,7 +3781,7 @@
         <v>100.548</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>58.937999999999995</v>
       </c>
     </row>
-    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
@@ -3799,7 +3820,7 @@
       </c>
       <c r="Q59" s="53"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -3816,7 +3837,7 @@
         <v>8.9920000000000009</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
@@ -3833,7 +3854,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
@@ -3850,7 +3871,7 @@
         <v>281.69099999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>119</v>
       </c>
@@ -3867,7 +3888,7 @@
         <v>100.982</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3888,12 +3909,12 @@
         <v>1932.0229999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="K65" s="41"/>
       <c r="N65" s="41"/>
       <c r="P65" s="59"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>121</v>
       </c>
@@ -3910,7 +3931,7 @@
         <v>60.689</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
@@ -3927,7 +3948,7 @@
         <v>100.98</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>126</v>
       </c>
@@ -3944,7 +3965,7 @@
         <v>253.185</v>
       </c>
     </row>
-    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
         <v>123</v>
       </c>
@@ -3962,7 +3983,7 @@
       </c>
       <c r="Q69" s="53"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>124</v>
       </c>
@@ -3979,7 +4000,7 @@
         <v>6.7869999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>125</v>
       </c>
@@ -4000,7 +4021,7 @@
         <v>432.971</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>127</v>
       </c>
@@ -4017,7 +4038,7 @@
         <v>269.47699999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>7.6920000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
@@ -4051,7 +4072,7 @@
         <v>5.5170000000000003</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>141</v>
       </c>
@@ -4068,7 +4089,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>129</v>
       </c>
@@ -4085,7 +4106,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>130</v>
       </c>
@@ -4102,7 +4123,7 @@
         <v>4.5039999999999996</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>131</v>
       </c>
@@ -4123,10 +4144,10 @@
         <v>738.37199999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N79" s="41"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>132</v>
       </c>
@@ -4143,7 +4164,7 @@
         <v>1193.6510000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>133</v>
       </c>
@@ -4164,10 +4185,10 @@
         <v>1932.0230000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N82" s="41"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>134</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>1193.6509999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>135</v>
       </c>
@@ -4209,12 +4230,12 @@
         <v>16.802519707207203</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
         <v>137</v>
       </c>
@@ -4228,7 +4249,7 @@
       </c>
       <c r="Q87" s="53"/>
     </row>
-    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="36" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4271,7 @@
       </c>
       <c r="Q89" s="54"/>
     </row>
-    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="36" t="s">
         <v>6</v>
       </c>
@@ -4268,7 +4289,7 @@
       </c>
       <c r="Q90" s="54"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4310,7 @@
         <v>377.22899999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>93.17</v>
       </c>
     </row>
-    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="41" t="s">
         <v>140</v>
       </c>
@@ -4349,7 +4370,7 @@
       </c>
       <c r="Q94" s="51"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -4370,17 +4391,52 @@
         <v>6241.5678000000007</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97" s="68">
+        <f>AVERAGE(C97:AG97)</f>
+        <v>10.782849249117914</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M97" s="64">
+        <f t="shared" ref="M97:O97" si="47">M94/SUM(J5:M5)</f>
+        <v>13.2863316065385</v>
+      </c>
+      <c r="N97" s="64">
+        <f t="shared" si="47"/>
+        <v>12.603555093290217</v>
+      </c>
+      <c r="O97" s="64">
+        <f t="shared" si="47"/>
+        <v>10.566685013213839</v>
+      </c>
+      <c r="P97" s="64">
+        <f>P94/SUM(M5:P5)</f>
+        <v>6.6748252834291053</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98" s="68">
+        <f>AVERAGE(C98:AG98)</f>
+        <v>45.933448974360083</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64">
+        <f>P93/SUM(M18:P18)</f>
+        <v>45.933448974360083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="68">
+        <f>AVERAGE(C99:AG99)</f>
+        <v>8.2358928270117193</v>
+      </c>
       <c r="B99" s="64" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4445,7 @@
         <v>7.9873462056532354</v>
       </c>
       <c r="K99" s="64">
-        <f t="shared" ref="K99" si="47">K93/K84</f>
+        <f t="shared" ref="K99" si="48">K93/K84</f>
         <v>9.021099781990257</v>
       </c>
       <c r="N99" s="64">

--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C5238-30C5-C143-82BB-3850DD709269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04CE20-CB66-475C-95C0-3699217E3AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
   <si>
     <t>$AXON</t>
   </si>
@@ -246,9 +236,6 @@
     <t>Axon Enterprise Inc.</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Phoenix, AZ</t>
   </si>
   <si>
@@ -616,6 +603,15 @@
   </si>
   <si>
     <t>Q419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>US Secret Service</t>
+  </si>
+  <si>
+    <t>US Federal</t>
   </si>
 </sst>
 </file>
@@ -732,7 +728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,12 +756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -945,19 +935,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -971,9 +948,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,6 +956,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +971,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,20 +993,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,14 +1093,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1130,8 +1117,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12112625" y="9525"/>
-          <a:ext cx="0" cy="17500600"/>
+          <a:off x="11201400" y="9525"/>
+          <a:ext cx="0" cy="17164050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1508,63 +1495,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900DF94E-F891-4352-9E7E-03CAB35A1375}">
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="G5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
-      <c r="R5" s="69" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="R5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="71"/>
-      <c r="X5" s="69" t="s">
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="62"/>
+      <c r="X5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="71"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="62"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="20">
-        <v>185.55</v>
+        <v>188.83</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1578,25 +1565,28 @@
       <c r="O6" s="8"/>
       <c r="P6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="26"/>
-      <c r="X6" s="30"/>
+      <c r="X6" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="20">
-        <v>71.08</v>
+        <f>'Financial Model'!Q19</f>
+        <v>71.106999999999999</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="8"/>
@@ -1609,23 +1599,25 @@
       <c r="O7" s="8"/>
       <c r="P7" s="9"/>
       <c r="R7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="26"/>
-      <c r="X7" s="30"/>
+      <c r="X7" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="20">
         <f>C6*C7</f>
-        <v>13188.894</v>
+        <v>13427.134810000001</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1639,7 +1631,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="R8" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -1649,16 +1641,16 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="20">
-        <f>'Financial Model'!P89</f>
-        <v>377.22899999999998</v>
+        <f>'Financial Model'!Q89</f>
+        <v>377.61800000000005</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="8"/>
@@ -1671,7 +1663,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="9"/>
       <c r="R9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -1681,22 +1673,22 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="20">
-        <f>'Financial Model'!P90</f>
+        <f>'Financial Model'!Q90</f>
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="61">
+        <v>56</v>
+      </c>
+      <c r="G10" s="52">
         <v>44713</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1707,26 +1699,26 @@
       <c r="O10" s="8"/>
       <c r="P10" s="9"/>
       <c r="R10" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="9"/>
-      <c r="X10" s="60"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="20">
         <f>C9-C10</f>
-        <v>377.22899999999998</v>
+        <v>377.61800000000005</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="8"/>
@@ -1739,19 +1731,19 @@
       <c r="O11" s="8"/>
       <c r="P11" s="9"/>
       <c r="R11" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="21">
         <f>C8-C11</f>
-        <v>12811.665000000001</v>
+        <v>13049.516810000001</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1765,13 +1757,13 @@
       <c r="O12" s="8"/>
       <c r="P12" s="9"/>
       <c r="R12" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1783,13 +1775,13 @@
       <c r="O13" s="8"/>
       <c r="P13" s="9"/>
       <c r="R13" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1800,19 +1792,19 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
-      <c r="R14" s="62" t="s">
-        <v>143</v>
+      <c r="R14" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B15" s="69" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1824,23 +1816,23 @@
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="R15" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="70"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1852,23 +1844,23 @@
       <c r="O16" s="8"/>
       <c r="P16" s="9"/>
       <c r="R16" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="70"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1880,20 +1872,20 @@
       <c r="O17" s="8"/>
       <c r="P17" s="9"/>
       <c r="R17" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="70"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1909,14 +1901,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="72"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1928,13 +1920,13 @@
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
       <c r="R19" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1946,13 +1938,13 @@
       <c r="O20" s="8"/>
       <c r="P20" s="9"/>
       <c r="R20" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1964,18 +1956,18 @@
       <c r="O21" s="8"/>
       <c r="P21" s="9"/>
       <c r="R21" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="69" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1991,14 +1983,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="75"/>
+      <c r="C23" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="70"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2010,20 +2002,20 @@
       <c r="O23" s="8"/>
       <c r="P23" s="9"/>
       <c r="R23" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="69">
         <v>1993</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="70"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2035,21 +2027,21 @@
       <c r="O24" s="8"/>
       <c r="P24" s="9"/>
       <c r="R24" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="G25" s="61">
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="G25" s="52">
         <v>43221</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2060,16 +2052,16 @@
       <c r="O25" s="8"/>
       <c r="P25" s="9"/>
       <c r="R25" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2085,14 +2077,14 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="56"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2104,25 +2096,25 @@
       <c r="O27" s="8"/>
       <c r="P27" s="9"/>
       <c r="R27" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="79"/>
+      <c r="C28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="59"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2133,85 +2125,80 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
       <c r="R28" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R29" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="69" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="80">
-        <f>C8/SUM('Financial Model'!M5:P5)</f>
-        <v>13.300538722032742</v>
-      </c>
-      <c r="D32" s="81"/>
+      <c r="C32" s="63">
+        <f>C8/SUM('Financial Model'!N5:Q5)</f>
+        <v>12.532665911248298</v>
+      </c>
+      <c r="D32" s="64"/>
       <c r="R32" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="80">
-        <f>C6/'Financial Model'!P84</f>
-        <v>11.042986601611362</v>
-      </c>
-      <c r="D33" s="81"/>
+      <c r="C33" s="63">
+        <f>C6/'Financial Model'!Q84</f>
+        <v>10.904968309556024</v>
+      </c>
+      <c r="D33" s="64"/>
       <c r="R33" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="R34" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R35" s="1" t="s">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R36" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R36" s="1" t="s">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R37" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
@@ -2226,6 +2213,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{79BCDA43-1DBD-4865-999E-0DD05314FB66}"/>
@@ -2241,88 +2233,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC786C6-03D5-4DEA-B3BA-C40A632BF30C}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.1640625" style="1"/>
-    <col min="17" max="17" width="9.1640625" style="52"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="77"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>156</v>
-      </c>
       <c r="G1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>66</v>
-      </c>
       <c r="J1" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="L1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="Q1" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="47" t="s">
-        <v>58</v>
-      </c>
       <c r="R1" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="Y1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="33"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2352,17 +2344,17 @@
       <c r="P2" s="38">
         <v>44742</v>
       </c>
-      <c r="Q2" s="48" t="s">
-        <v>59</v>
+      <c r="Q2" s="79">
+        <v>44834</v>
       </c>
       <c r="X2" s="38">
         <v>44561</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
         <v>16</v>
       </c>
@@ -2387,15 +2379,17 @@
       <c r="P3" s="39">
         <v>200.05099999999999</v>
       </c>
-      <c r="Q3" s="49"/>
+      <c r="Q3" s="74">
+        <v>210.398</v>
+      </c>
       <c r="X3" s="39">
         <f>SUM(K3:N3)</f>
         <v>608.52499999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="39">
         <v>52.024000000000001</v>
@@ -2418,18 +2412,20 @@
       <c r="P4" s="39">
         <v>85.561999999999998</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="74">
+        <v>101.35599999999999</v>
+      </c>
       <c r="X4" s="39">
         <f>SUM(K4:N4)</f>
         <v>254.85599999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="40">
-        <f t="shared" ref="J5:P5" si="0">J3+J4</f>
+        <f t="shared" ref="J5:Q5" si="0">J3+J4</f>
         <v>226.14000000000001</v>
       </c>
       <c r="K5" s="40">
@@ -2456,15 +2452,18 @@
         <f t="shared" si="0"/>
         <v>285.613</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="40">
+        <f t="shared" si="0"/>
+        <v>311.75400000000002</v>
+      </c>
       <c r="X5" s="40">
         <f>X3+X4</f>
         <v>863.38099999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="39">
         <v>73.623999999999995</v>
@@ -2487,15 +2486,17 @@
       <c r="P6" s="39">
         <v>87.501999999999995</v>
       </c>
-      <c r="Q6" s="49"/>
+      <c r="Q6" s="74">
+        <v>93.724000000000004</v>
+      </c>
       <c r="X6" s="39">
         <f>SUM(K6:N6)</f>
         <v>260.09799999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="39">
         <v>11.21</v>
@@ -2518,15 +2519,17 @@
       <c r="P7" s="39">
         <v>24.148</v>
       </c>
-      <c r="Q7" s="49"/>
+      <c r="Q7" s="74">
+        <v>24.773</v>
+      </c>
       <c r="X7" s="39">
         <f>SUM(K7:N7)</f>
         <v>62.373000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="41">
         <f>J6+J7</f>
@@ -2556,22 +2559,25 @@
         <f>P6+P7</f>
         <v>111.64999999999999</v>
       </c>
-      <c r="Q8" s="51"/>
+      <c r="Q8" s="41">
+        <f t="shared" ref="Q8" si="3">Q6+Q7</f>
+        <v>118.497</v>
+      </c>
       <c r="X8" s="41">
         <f>X6+X7</f>
         <v>322.47099999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="40">
         <f>J5-J8</f>
         <v>141.30600000000001</v>
       </c>
       <c r="K9" s="40">
-        <f t="shared" ref="K9" si="3">K5-K8</f>
+        <f t="shared" ref="K9" si="4">K5-K8</f>
         <v>123.35300000000001</v>
       </c>
       <c r="L9" s="40">
@@ -2579,7 +2585,7 @@
         <v>137.92899999999997</v>
       </c>
       <c r="M9" s="40">
-        <f t="shared" ref="M9" si="4">M5-M8</f>
+        <f t="shared" ref="M9" si="5">M5-M8</f>
         <v>144.56700000000001</v>
       </c>
       <c r="N9" s="40">
@@ -2594,15 +2600,18 @@
         <f>P5-P8</f>
         <v>173.96300000000002</v>
       </c>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="40">
+        <f t="shared" ref="Q9" si="6">Q5-Q8</f>
+        <v>193.25700000000001</v>
+      </c>
       <c r="X9" s="40">
         <f>X5-X8</f>
         <v>540.91000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="41">
         <v>97.522999999999996</v>
@@ -2625,15 +2634,17 @@
       <c r="P10" s="41">
         <v>95.004999999999995</v>
       </c>
-      <c r="Q10" s="51"/>
+      <c r="Q10" s="76">
+        <v>102.023</v>
+      </c>
       <c r="X10" s="41">
         <f>SUM(K10:N10)</f>
         <v>515.00700000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="41">
         <v>38.008000000000003</v>
@@ -2656,89 +2667,98 @@
       <c r="P11" s="41">
         <v>57.546999999999997</v>
       </c>
-      <c r="Q11" s="51"/>
+      <c r="Q11" s="76">
+        <v>59.127000000000002</v>
+      </c>
       <c r="X11" s="41">
-        <f t="shared" ref="X11:X16" si="5">SUM(K11:N11)</f>
+        <f t="shared" ref="X11:X16" si="7">SUM(K11:N11)</f>
         <v>194.02600000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="41">
-        <f t="shared" ref="J12:P12" si="6">J10+J11</f>
+        <f t="shared" ref="J12:P12" si="8">J10+J11</f>
         <v>135.53100000000001</v>
       </c>
       <c r="K12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>173.61500000000001</v>
       </c>
       <c r="L12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>231.614</v>
       </c>
       <c r="M12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>141.67699999999999</v>
       </c>
       <c r="N12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>162.12700000000001</v>
       </c>
       <c r="O12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>138.54500000000002</v>
       </c>
       <c r="P12" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>152.55199999999999</v>
+      </c>
+      <c r="Q12" s="41">
+        <f t="shared" ref="Q12" si="9">Q10+Q11</f>
+        <v>161.15</v>
       </c>
       <c r="X12" s="41">
         <f>X10+X11</f>
         <v>709.03300000000013</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="40">
         <v>5.7750000000000004</v>
       </c>
       <c r="K13" s="40">
-        <f t="shared" ref="K13:P13" si="7">K9-K12</f>
+        <f t="shared" ref="K13:P13" si="10">K9-K12</f>
         <v>-50.262</v>
       </c>
       <c r="L13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-93.685000000000031</v>
       </c>
       <c r="M13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8900000000000148</v>
       </c>
       <c r="N13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-27.066000000000031</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17.19399999999996</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21.41100000000003</v>
       </c>
-      <c r="Q13" s="53"/>
+      <c r="Q13" s="40">
+        <f t="shared" ref="Q13" si="11">Q9-Q12</f>
+        <v>32.106999999999999</v>
+      </c>
       <c r="X13" s="40">
         <f>X9-X12</f>
         <v>-168.12300000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="41">
         <v>3.2650000000000001</v>
@@ -2761,51 +2781,58 @@
       <c r="P14" s="41">
         <v>47.026000000000003</v>
       </c>
+      <c r="Q14" s="76">
+        <v>-11.249000000000001</v>
+      </c>
       <c r="X14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26.748000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="41">
-        <f t="shared" ref="J15:P15" si="8">J13+J14</f>
+        <f t="shared" ref="J15:Q15" si="12">J13+J14</f>
         <v>9.0400000000000009</v>
       </c>
       <c r="K15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-49.677</v>
       </c>
       <c r="L15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-51.84400000000003</v>
       </c>
       <c r="M15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.6399999999999855</v>
       </c>
       <c r="N15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-37.214000000000027</v>
       </c>
       <c r="O15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>72.492999999999967</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>68.43700000000004</v>
+      </c>
+      <c r="Q15" s="41">
+        <f t="shared" si="12"/>
+        <v>20.857999999999997</v>
       </c>
       <c r="X15" s="41">
         <f>X13+X14</f>
         <v>-141.37500000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" s="41">
         <v>-16.794</v>
@@ -2828,87 +2855,97 @@
       <c r="P16" s="41">
         <v>17.475000000000001</v>
       </c>
+      <c r="Q16" s="76">
+        <v>8.7270000000000003</v>
+      </c>
       <c r="X16" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-81.356999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="40">
-        <f t="shared" ref="J17:P17" si="9">J15-J16</f>
+        <f t="shared" ref="J17:Q17" si="13">J15-J16</f>
         <v>25.834000000000003</v>
       </c>
       <c r="K17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-47.917000000000002</v>
       </c>
       <c r="L17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-47.117000000000033</v>
       </c>
       <c r="M17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48.524000000000015</v>
       </c>
       <c r="N17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-13.508000000000028</v>
       </c>
       <c r="O17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>54.830999999999968</v>
       </c>
       <c r="P17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>50.962000000000039</v>
       </c>
-      <c r="Q17" s="53"/>
+      <c r="Q17" s="40">
+        <f t="shared" si="13"/>
+        <v>12.130999999999997</v>
+      </c>
       <c r="X17" s="40">
         <f>X15-X16</f>
         <v>-60.018000000000058</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="44">
-        <f t="shared" ref="J18:P18" si="10">J17/J19</f>
+        <f t="shared" ref="J18:Q18" si="14">J17/J19</f>
         <v>0.40594603937836865</v>
       </c>
       <c r="K18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.74828221625335745</v>
       </c>
       <c r="L18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.72303041463339834</v>
       </c>
       <c r="M18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.73307952622673467</v>
       </c>
       <c r="N18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-0.19489251190304469</v>
       </c>
       <c r="O18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.77281183932346675</v>
       </c>
       <c r="P18" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.71737049549549603</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="14"/>
+        <v>0.17060205043104049</v>
       </c>
       <c r="X18" s="44">
         <f>X17/X19</f>
         <v>-0.86593565142115214</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2940,14 +2977,17 @@
       <c r="P19" s="41">
         <v>71.040000000000006</v>
       </c>
+      <c r="Q19" s="76">
+        <v>71.106999999999999</v>
+      </c>
       <c r="X19" s="41">
         <f>N19</f>
         <v>69.31</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" s="43"/>
       <c r="N21" s="43">
@@ -2955,18 +2995,21 @@
         <v>-3.786150172459557E-2</v>
       </c>
       <c r="O21" s="43">
-        <f t="shared" ref="O21" si="11">O5/K5-1</f>
+        <f t="shared" ref="O21" si="15">O5/K5-1</f>
         <v>0.31487701198344764</v>
       </c>
       <c r="P21" s="43">
         <f>P5/L5-1</f>
         <v>0.30539089101670513</v>
       </c>
-      <c r="Q21" s="53"/>
-    </row>
-    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="43">
+        <f t="shared" ref="Q21" si="16">Q5/M5-1</f>
+        <v>0.34383095750229553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M22" s="45"/>
       <c r="N22" s="45">
@@ -2974,136 +3017,151 @@
         <v>-0.16487284339176189</v>
       </c>
       <c r="O22" s="45">
-        <f t="shared" ref="O22:O23" si="12">O3/K3-1</f>
+        <f t="shared" ref="O22:O23" si="17">O3/K3-1</f>
         <v>0.25068495095325316</v>
       </c>
       <c r="P22" s="45">
         <f>P3/L3-1</f>
         <v>0.27887768735576346</v>
       </c>
-      <c r="Q22" s="54"/>
-    </row>
-    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="45">
+        <f t="shared" ref="Q22:Q23" si="18">Q3/M3-1</f>
+        <v>0.26896377025747431</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45">
-        <f t="shared" ref="N23:P23" si="13">N4/J4-1</f>
+        <f t="shared" ref="N23:P23" si="19">N4/J4-1</f>
         <v>0.38722512686452393</v>
       </c>
       <c r="O23" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.48194262279940125</v>
       </c>
       <c r="P23" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.3718894304771676</v>
       </c>
-      <c r="Q23" s="54"/>
-    </row>
-    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="45">
+        <f t="shared" si="18"/>
+        <v>0.53138125887649923</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="43">
-        <f t="shared" ref="K24:L24" si="14">K5/J5-1</f>
+        <f t="shared" ref="K24:L24" si="20">K5/J5-1</f>
         <v>-0.13761828955514288</v>
       </c>
       <c r="L24" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.12191632610155922</v>
       </c>
       <c r="M24" s="43">
-        <f t="shared" ref="M24" si="15">M5/L5-1</f>
+        <f t="shared" ref="M24" si="21">M5/L5-1</f>
         <v>6.0303023378047937E-2</v>
       </c>
       <c r="N24" s="43">
-        <f t="shared" ref="N24" si="16">N5/M5-1</f>
+        <f t="shared" ref="N24" si="22">N5/M5-1</f>
         <v>-6.2119324623150396E-2</v>
       </c>
       <c r="O24" s="43">
-        <f t="shared" ref="O24" si="17">O5/N5-1</f>
+        <f t="shared" ref="O24" si="23">O5/N5-1</f>
         <v>0.17854746343839922</v>
       </c>
       <c r="P24" s="43">
         <f>P5/O5-1</f>
         <v>0.11382231131008558</v>
       </c>
-      <c r="Q24" s="53"/>
+      <c r="Q24" s="43">
+        <f t="shared" ref="Q24" si="24">Q5/P5-1</f>
+        <v>9.1525945947838583E-2</v>
+      </c>
       <c r="X24" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K25" s="45">
-        <f t="shared" ref="K25:L25" si="18">K3/J3-1</f>
+        <f t="shared" ref="K25:L25" si="25">K3/J3-1</f>
         <v>-0.19084977830871386</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.1103090441917578</v>
       </c>
       <c r="M25" s="45">
-        <f t="shared" ref="M25" si="19">M3/L3-1</f>
+        <f t="shared" ref="M25" si="26">M3/L3-1</f>
         <v>5.9938501665313559E-2</v>
       </c>
       <c r="N25" s="45">
-        <f t="shared" ref="N25" si="20">N3/M3-1</f>
+        <f t="shared" ref="N25" si="27">N3/M3-1</f>
         <v>-0.1230013932196643</v>
       </c>
       <c r="O25" s="45">
-        <f t="shared" ref="O25" si="21">O3/N3-1</f>
+        <f t="shared" ref="O25" si="28">O3/N3-1</f>
         <v>0.21178193921971822</v>
       </c>
       <c r="P25" s="45">
         <f>P3/O3-1</f>
         <v>0.13533744977412532</v>
       </c>
-      <c r="Q25" s="54"/>
+      <c r="Q25" s="45">
+        <f t="shared" ref="Q25:Q26" si="29">Q3/P3-1</f>
+        <v>5.1721810938210711E-2</v>
+      </c>
       <c r="X25" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="45">
-        <f t="shared" ref="K26:L26" si="22">K4/J4-1</f>
+        <f t="shared" ref="K26:L26" si="30">K4/J4-1</f>
         <v>4.053898200830397E-2</v>
       </c>
       <c r="L26" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.15212532096872522</v>
       </c>
       <c r="M26" s="45">
-        <f t="shared" ref="M26" si="23">M4/L4-1</f>
+        <f t="shared" ref="M26" si="31">M4/L4-1</f>
         <v>6.1217290918419875E-2</v>
       </c>
       <c r="N26" s="45">
-        <f t="shared" ref="N26" si="24">N4/M4-1</f>
+        <f t="shared" ref="N26" si="32">N4/M4-1</f>
         <v>9.0396760644244845E-2</v>
       </c>
       <c r="O26" s="45">
-        <f t="shared" ref="O26" si="25">O4/N4-1</f>
+        <f t="shared" ref="O26" si="33">O4/N4-1</f>
         <v>0.1115853067106376</v>
       </c>
       <c r="P26" s="45">
         <f>P4/O4-1</f>
         <v>6.6565281344269644E-2</v>
       </c>
-      <c r="Q26" s="54"/>
+      <c r="Q26" s="45">
+        <f t="shared" si="29"/>
+        <v>0.18459129052616818</v>
+      </c>
       <c r="X26" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -3113,210 +3171,230 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42">
-        <f t="shared" ref="J28:M28" si="26">J9/J5</f>
+        <f t="shared" ref="J28:M28" si="34">J9/J5</f>
         <v>0.62486070575749542</v>
       </c>
       <c r="K28" s="42">
-        <f t="shared" ref="K28" si="27">K9/K5</f>
+        <f t="shared" ref="K28" si="35">K9/K5</f>
         <v>0.63251785723442333</v>
       </c>
       <c r="L28" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.63040288854864135</v>
       </c>
       <c r="M28" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.62316316721913545</v>
       </c>
       <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="28">N9/N5</f>
+        <f t="shared" ref="N28:O28" si="36">N9/N5</f>
         <v>0.62074750204524354</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.60734480902872556</v>
       </c>
       <c r="P28" s="42">
-        <f t="shared" ref="P28" si="29">P9/P5</f>
+        <f t="shared" ref="P28:Q28" si="37">P9/P5</f>
         <v>0.60908642113629285</v>
       </c>
-      <c r="Q28" s="55"/>
+      <c r="Q28" s="42">
+        <f t="shared" si="37"/>
+        <v>0.61990223060490002</v>
+      </c>
       <c r="X28" s="42">
-        <f t="shared" ref="X28" si="30">X9/X5</f>
+        <f t="shared" ref="X28" si="38">X9/X5</f>
         <v>0.62650208888080705</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="42">
-        <f t="shared" ref="J29:M29" si="31">J13/J5</f>
+        <f t="shared" ref="J29:M29" si="39">J13/J5</f>
         <v>2.553727779251791E-2</v>
       </c>
       <c r="K29" s="42">
-        <f t="shared" ref="K29" si="32">K13/K5</f>
+        <f t="shared" ref="K29" si="40">K13/K5</f>
         <v>-0.2577287341233418</v>
       </c>
       <c r="L29" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-0.42818620169565136</v>
       </c>
       <c r="M29" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>1.2457487208445292E-2</v>
       </c>
       <c r="N29" s="42">
-        <f t="shared" ref="N29:O29" si="33">N13/N5</f>
+        <f t="shared" ref="N29:O29" si="41">N13/N5</f>
         <v>-0.12439676805559401</v>
       </c>
       <c r="O29" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>6.7052482977545028E-2</v>
       </c>
       <c r="P29" s="42">
         <f>P13/P5</f>
         <v>7.4965075119129837E-2</v>
       </c>
+      <c r="Q29" s="42">
+        <f t="shared" ref="Q29" si="42">Q13/Q5</f>
+        <v>0.10298825355889579</v>
+      </c>
       <c r="X29" s="42">
         <f>X13/X5</f>
         <v>-0.19472631433862925</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="42">
-        <f t="shared" ref="J30:M30" si="34">J17/J5</f>
+        <f t="shared" ref="J30:M30" si="43">J17/J5</f>
         <v>0.11423896701158574</v>
       </c>
       <c r="K30" s="42">
-        <f t="shared" ref="K30" si="35">K17/K5</f>
+        <f t="shared" ref="K30" si="44">K17/K5</f>
         <v>-0.24570426471266901</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>-0.21534769990173466</v>
       </c>
       <c r="M30" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.20916508972408179</v>
       </c>
       <c r="N30" s="42">
-        <f t="shared" ref="N30:O30" si="36">N17/N5</f>
+        <f t="shared" ref="N30:O30" si="45">N17/N5</f>
         <v>-6.2083482705053032E-2</v>
       </c>
       <c r="O30" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.21382777097486202</v>
       </c>
       <c r="P30" s="42">
         <f>P17/P5</f>
         <v>0.17843025352487471</v>
       </c>
+      <c r="Q30" s="42">
+        <f t="shared" ref="Q30" si="46">Q17/Q5</f>
+        <v>3.8912090943500309E-2</v>
+      </c>
       <c r="X30" s="42">
         <f>X17/X5</f>
         <v>-6.9515080827583717E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31" s="42">
-        <f t="shared" ref="J31:M31" si="37">J16/J15</f>
+        <f t="shared" ref="J31:M31" si="47">J16/J15</f>
         <v>-1.8577433628318583</v>
       </c>
       <c r="K31" s="42">
-        <f t="shared" ref="K31" si="38">K16/K15</f>
+        <f t="shared" ref="K31" si="48">K16/K15</f>
         <v>3.5428870503452302E-2</v>
       </c>
       <c r="L31" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>9.1177378288712238E-2</v>
       </c>
       <c r="M31" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>19.380303030303139</v>
       </c>
       <c r="N31" s="42">
-        <f t="shared" ref="N31:O31" si="39">N16/N15</f>
+        <f t="shared" ref="N31:O31" si="49">N16/N15</f>
         <v>0.63701832643628697</v>
       </c>
       <c r="O31" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0.24363731670644073</v>
       </c>
       <c r="P31" s="42">
         <f>P16/P15</f>
         <v>0.2553443312827855</v>
       </c>
+      <c r="Q31" s="42">
+        <f t="shared" ref="Q31" si="50">Q16/Q15</f>
+        <v>0.41840061367341075</v>
+      </c>
       <c r="X31" s="42">
         <f>X16/X15</f>
         <v>0.57546949602121988</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
       <c r="X32" s="42"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J33" s="42">
-        <f t="shared" ref="J33:O33" si="40">J11/J5</f>
+        <f t="shared" ref="J33:O33" si="51">J11/J5</f>
         <v>0.16807287521004688</v>
       </c>
       <c r="K33" s="42">
-        <f t="shared" ref="K33" si="41">K11/K5</f>
+        <f t="shared" ref="K33" si="52">K11/K5</f>
         <v>0.24109445746311897</v>
       </c>
       <c r="L33" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0.24658698781964852</v>
       </c>
       <c r="M33" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0.18268969649423031</v>
       </c>
       <c r="N33" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0.23290038514923386</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0.1888108070164492</v>
       </c>
       <c r="P33" s="42">
         <f>P11/P5</f>
         <v>0.20148592676103677</v>
       </c>
+      <c r="Q33" s="42">
+        <f t="shared" ref="Q33" si="53">Q11/Q5</f>
+        <v>0.18965915433322428</v>
+      </c>
       <c r="X33" s="42">
         <f>X11/X5</f>
         <v>0.22472813277104781</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="L34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B35" s="57" t="s">
-        <v>104</v>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="L35" s="42"/>
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -3344,10 +3422,13 @@
       <c r="P36" s="41">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q36" s="76">
+        <v>40.502000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -3375,10 +3456,13 @@
       <c r="P37" s="41">
         <v>8.8309999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q37" s="76">
+        <v>6.9560000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -3406,10 +3490,13 @@
       <c r="P38" s="41">
         <v>2.7450000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q38" s="76">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
@@ -3437,10 +3524,13 @@
       <c r="P39" s="41">
         <v>5.157</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q39" s="76">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
@@ -3468,10 +3558,13 @@
       <c r="P40" s="41">
         <v>1536.3320000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q40" s="76">
+        <v>1327.1690000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -3499,10 +3592,13 @@
       <c r="P41" s="41">
         <v>59.850999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q41" s="76">
+        <v>71.069999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -3530,10 +3626,13 @@
       <c r="P42" s="41">
         <v>1.1359999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q42" s="76">
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
@@ -3561,10 +3660,13 @@
       <c r="P43" s="41">
         <v>6.1459999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q43" s="76">
+        <v>2.3420000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
@@ -3592,18 +3694,21 @@
       <c r="P44" s="41">
         <v>5.3140000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Q44" s="76">
+        <v>3.8220000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="L45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -3619,11 +3724,13 @@
       <c r="P48" s="40">
         <v>212.815</v>
       </c>
-      <c r="Q48" s="53"/>
-    </row>
-    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q48" s="75">
+        <v>147.71100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J49" s="40">
         <v>0</v>
@@ -3637,11 +3744,13 @@
       <c r="P49" s="40">
         <v>45.9</v>
       </c>
-      <c r="Q49" s="53"/>
-    </row>
-    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q49" s="75">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J50" s="40">
         <v>406.52499999999998</v>
@@ -3655,11 +3764,13 @@
       <c r="P50" s="40">
         <v>118.514</v>
       </c>
-      <c r="Q50" s="53"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q50" s="75">
+        <v>194.62700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" s="41">
         <v>229.20099999999999</v>
@@ -3673,10 +3784,13 @@
       <c r="P51" s="41">
         <v>379.67200000000003</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q51" s="76">
+        <v>418.30799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J52" s="41">
         <v>63.945</v>
@@ -3690,10 +3804,13 @@
       <c r="P52" s="41">
         <v>196.75399999999999</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q52" s="76">
+        <v>168.673</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J53" s="40">
         <v>89.957999999999998</v>
@@ -3707,11 +3824,13 @@
       <c r="P53" s="40">
         <v>154.297</v>
       </c>
-      <c r="Q53" s="53"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q53" s="75">
+        <v>173.04599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J54" s="41">
         <v>36.883000000000003</v>
@@ -3725,10 +3844,13 @@
       <c r="P54" s="41">
         <v>61.838999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q54" s="76">
+        <v>68.055999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J55" s="41">
         <f>SUM(J48:J54)</f>
@@ -3746,10 +3868,14 @@
         <f>SUM(P48:P54)</f>
         <v>1169.7909999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q55" s="41">
+        <f>SUM(Q48:Q54)</f>
+        <v>1205.701</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J56" s="41">
         <v>105.494</v>
@@ -3763,10 +3889,13 @@
       <c r="P56" s="41">
         <v>157.916</v>
       </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q56" s="76">
+        <v>164.16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J57" s="41">
         <v>45.77</v>
@@ -3780,10 +3909,13 @@
       <c r="P57" s="41">
         <v>100.548</v>
       </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q57" s="76">
+        <v>96.355000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J58" s="41">
         <f>9.448+25.205</f>
@@ -3801,10 +3933,14 @@
         <f>13.934+45.004</f>
         <v>58.937999999999995</v>
       </c>
-    </row>
-    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q58" s="76">
+        <f>13.039+44.819</f>
+        <v>57.858000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J59" s="40">
         <v>90.680999999999997</v>
@@ -3818,11 +3954,13 @@
       <c r="P59" s="40">
         <v>24.925000000000001</v>
       </c>
-      <c r="Q59" s="53"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q59" s="75">
+        <v>28.536000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J60" s="41">
         <v>22.457000000000001</v>
@@ -3836,10 +3974,13 @@
       <c r="P60" s="41">
         <v>8.9920000000000009</v>
       </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q60" s="76">
+        <v>8.4619999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J61" s="41">
         <v>20.099</v>
@@ -3853,10 +3994,13 @@
       <c r="P61" s="41">
         <v>28.24</v>
       </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q61" s="76">
+        <v>48.387999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J62" s="41">
         <v>11.711</v>
@@ -3870,10 +4014,13 @@
       <c r="P62" s="41">
         <v>281.69099999999997</v>
       </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q62" s="76">
+        <v>290.32900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J63" s="41">
         <v>68.206000000000003</v>
@@ -3887,10 +4034,13 @@
       <c r="P63" s="41">
         <v>100.982</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q63" s="76">
+        <v>110.643</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J64" s="41">
         <f>J55+SUM(J56:J63)</f>
@@ -3908,15 +4058,20 @@
         <f>P55+SUM(P56:P63)</f>
         <v>1932.0229999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q64" s="41">
+        <f>Q55+SUM(Q56:Q63)</f>
+        <v>2010.432</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K65" s="41"/>
       <c r="N65" s="41"/>
-      <c r="P65" s="59"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="P65" s="50"/>
+      <c r="Q65" s="76"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J66" s="41">
         <v>24.141999999999999</v>
@@ -3927,13 +4082,16 @@
       <c r="N66" s="41">
         <v>32.22</v>
       </c>
-      <c r="P66" s="59">
+      <c r="P66" s="50">
         <v>60.689</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q66" s="76">
+        <v>50.192999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J67" s="41">
         <v>59.843000000000004</v>
@@ -3944,13 +4102,16 @@
       <c r="N67" s="41">
         <v>103.70699999999999</v>
       </c>
-      <c r="P67" s="59">
+      <c r="P67" s="50">
         <v>100.98</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q67" s="76">
+        <v>112.76600000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J68" s="41">
         <v>163.959</v>
@@ -3961,13 +4122,16 @@
       <c r="N68" s="41">
         <v>265.59100000000001</v>
       </c>
-      <c r="P68" s="59">
+      <c r="P68" s="50">
         <v>253.185</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q68" s="76">
+        <v>246.46600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J69" s="40">
         <v>2.956</v>
@@ -3978,14 +4142,16 @@
       <c r="N69" s="40">
         <v>10.462999999999999</v>
       </c>
-      <c r="P69" s="58">
+      <c r="P69" s="49">
         <v>11.33</v>
       </c>
-      <c r="Q69" s="53"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q69" s="75">
+        <v>15.317</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J70" s="41">
         <v>5.431</v>
@@ -3996,13 +4162,16 @@
       <c r="N70" s="41">
         <v>6.54</v>
       </c>
-      <c r="P70" s="59">
+      <c r="P70" s="50">
         <v>6.7869999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q70" s="76">
+        <v>6.8010000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J71" s="41">
         <f>SUM(J66:J70)</f>
@@ -4016,14 +4185,18 @@
         <f>SUM(N66:N70)</f>
         <v>418.52100000000007</v>
       </c>
-      <c r="P71" s="59">
+      <c r="P71" s="50">
         <f>SUM(P66:P70)</f>
         <v>432.971</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q71" s="41">
+        <f>SUM(Q66:Q70)</f>
+        <v>431.54300000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J72" s="41">
         <v>111.22199999999999</v>
@@ -4034,13 +4207,16 @@
       <c r="N72" s="41">
         <v>185.721</v>
       </c>
-      <c r="P72" s="59">
+      <c r="P72" s="50">
         <v>269.47699999999998</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q72" s="76">
+        <v>313.82299999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J73" s="41">
         <v>4.5030000000000001</v>
@@ -4051,13 +4227,16 @@
       <c r="N73" s="41">
         <v>3.7970000000000002</v>
       </c>
-      <c r="P73" s="59">
+      <c r="P73" s="50">
         <v>7.6920000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q73" s="76">
+        <v>7.3170000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J74" s="41">
         <v>4.7320000000000002</v>
@@ -4068,13 +4247,16 @@
       <c r="N74" s="41">
         <v>5.6790000000000003</v>
       </c>
-      <c r="P74" s="59">
+      <c r="P74" s="50">
         <v>5.5170000000000003</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q74" s="76">
+        <v>5.3689999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J75" s="41">
         <v>0.64900000000000002</v>
@@ -4085,13 +4267,16 @@
       <c r="N75" s="41">
         <v>0.81100000000000005</v>
       </c>
-      <c r="P75" s="59">
+      <c r="P75" s="50">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q75" s="76">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J76" s="41">
         <v>0</v>
@@ -4102,13 +4287,16 @@
       <c r="N76" s="41">
         <v>20.440000000000001</v>
       </c>
-      <c r="P76" s="59">
+      <c r="P76" s="50">
         <v>18.21</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q76" s="76">
+        <v>16.311</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J77" s="41">
         <v>27.331</v>
@@ -4119,13 +4307,16 @@
       <c r="N77" s="41">
         <v>5.9320000000000004</v>
       </c>
-      <c r="P77" s="59">
+      <c r="P77" s="50">
         <v>4.5039999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q77" s="76">
+        <v>4.7729999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J78" s="41">
         <f>J71+SUM(J72:J77)</f>
@@ -4139,17 +4330,21 @@
         <f>N71+SUM(N72:N77)</f>
         <v>640.90100000000007</v>
       </c>
-      <c r="P78" s="59">
+      <c r="P78" s="50">
         <f>P71+SUM(P72:P77)</f>
         <v>738.37199999999996</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q78" s="41">
+        <f>Q71+SUM(Q72:Q77)</f>
+        <v>779.14599999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N79" s="41"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J80" s="41">
         <v>1381.0229999999999</v>
@@ -4163,10 +4358,13 @@
       <c r="P80" s="41">
         <v>1193.6510000000001</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q80" s="76">
+        <v>1231.3130000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J81" s="41">
         <f>J80+J78</f>
@@ -4184,13 +4382,17 @@
         <f>P80+P78</f>
         <v>1932.0230000000001</v>
       </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q81" s="41">
+        <f>Q80+Q78</f>
+        <v>2010.4590000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N82" s="41"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J83" s="41">
         <f>J64-J78</f>
@@ -4208,10 +4410,14 @@
         <f>P64-P78</f>
         <v>1193.6509999999998</v>
       </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q83" s="41">
+        <f t="shared" ref="Q83" si="54">Q64-Q78</f>
+        <v>1231.2860000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J84" s="41">
         <f>J83/J19</f>
@@ -4229,15 +4435,19 @@
         <f>P83/P19</f>
         <v>16.802519707207203</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q84" s="41">
+        <f t="shared" ref="Q84" si="55">Q83/Q19</f>
+        <v>17.315960453963747</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="K87" s="43">
         <f>K53/J53-1</f>
@@ -4247,9 +4457,9 @@
         <f>N53/J53-1</f>
         <v>0.20820827497276517</v>
       </c>
-      <c r="Q87" s="53"/>
-    </row>
-    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q87" s="78"/>
+    </row>
+    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="36" t="s">
         <v>5</v>
       </c>
@@ -4258,7 +4468,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K89" s="39">
-        <f t="shared" ref="K89" si="42">K48+K49+K50</f>
+        <f t="shared" ref="K89" si="56">K48+K49+K50</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N89" s="39">
@@ -4269,9 +4479,12 @@
         <f>P48+P49+P50</f>
         <v>377.22899999999998</v>
       </c>
-      <c r="Q89" s="54"/>
-    </row>
-    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q89" s="39">
+        <f t="shared" ref="Q89" si="57">Q48+Q49+Q50</f>
+        <v>377.61800000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="36" t="s">
         <v>6</v>
       </c>
@@ -4287,9 +4500,11 @@
       <c r="P90" s="36">
         <v>0</v>
       </c>
-      <c r="Q90" s="54"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q90" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
@@ -4298,7 +4513,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K91" s="41">
-        <f t="shared" ref="K91" si="43">K89-K90</f>
+        <f t="shared" ref="K91" si="58">K89-K90</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N91" s="41">
@@ -4309,68 +4524,78 @@
         <f>P89-P90</f>
         <v>377.22899999999998</v>
       </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
+      <c r="Q91" s="41">
+        <f t="shared" ref="Q91" si="59">Q89-Q90</f>
+        <v>377.61800000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="J93" s="44">
+        <v>122.53</v>
+      </c>
+      <c r="K93" s="44">
+        <v>142.41999999999999</v>
+      </c>
+      <c r="L93" s="44">
+        <v>176.8</v>
+      </c>
+      <c r="M93" s="44">
+        <v>175.02</v>
+      </c>
+      <c r="N93" s="44">
+        <v>157</v>
+      </c>
+      <c r="O93" s="44">
+        <v>137.72999999999999</v>
+      </c>
+      <c r="P93" s="44">
+        <v>93.17</v>
+      </c>
+      <c r="Q93" s="80">
+        <v>115.75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="1">
-        <v>122.53</v>
-      </c>
-      <c r="K93" s="1">
-        <v>142.41999999999999</v>
-      </c>
-      <c r="L93" s="1">
-        <v>176.8</v>
-      </c>
-      <c r="M93" s="1">
-        <v>175.02</v>
-      </c>
-      <c r="N93" s="63">
-        <v>157</v>
-      </c>
-      <c r="O93" s="1">
-        <v>137.72999999999999</v>
-      </c>
-      <c r="P93" s="1">
-        <v>93.17</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="41" t="s">
-        <v>140</v>
-      </c>
       <c r="J94" s="41">
-        <f t="shared" ref="J94:O94" si="44">J93*J19</f>
+        <f t="shared" ref="J94:O94" si="60">J93*J19</f>
         <v>7797.68667</v>
       </c>
       <c r="K94" s="41">
-        <f t="shared" ref="K94" si="45">K93*K19</f>
+        <f t="shared" ref="K94" si="61">K93*K19</f>
         <v>9120.0071200000002</v>
       </c>
       <c r="L94" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>11521.3488</v>
       </c>
       <c r="M94" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>11584.923839999999</v>
       </c>
       <c r="N94" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>10881.67</v>
       </c>
       <c r="O94" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>9771.9434999999994</v>
       </c>
       <c r="P94" s="41">
         <f>P93*P19</f>
         <v>6618.796800000001</v>
       </c>
-      <c r="Q94" s="51"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q94" s="41">
+        <f t="shared" ref="Q94" si="62">Q93*Q19</f>
+        <v>8230.6352499999994</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -4379,7 +4604,7 @@
         <v>7235.7216699999999</v>
       </c>
       <c r="K95" s="41">
-        <f t="shared" ref="K95" si="46">K94-K91</f>
+        <f t="shared" ref="K95" si="63">K94-K91</f>
         <v>8524.2831200000001</v>
       </c>
       <c r="N95" s="41">
@@ -4390,73 +4615,88 @@
         <f>P94-P91</f>
         <v>6241.5678000000007</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A97" s="68">
+      <c r="Q95" s="41">
+        <f t="shared" ref="Q95" si="64">Q94-Q91</f>
+        <v>7853.017249999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="57">
         <f>AVERAGE(C97:AG97)</f>
-        <v>10.782849249117914</v>
+        <v>10.162747205497784</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M97" s="64">
-        <f t="shared" ref="M97:O97" si="47">M94/SUM(J5:M5)</f>
+      <c r="M97" s="54">
+        <f t="shared" ref="M97:O97" si="65">M94/SUM(J5:M5)</f>
         <v>13.2863316065385</v>
       </c>
-      <c r="N97" s="64">
-        <f t="shared" si="47"/>
+      <c r="N97" s="54">
+        <f t="shared" si="65"/>
         <v>12.603555093290217</v>
       </c>
-      <c r="O97" s="64">
-        <f t="shared" si="47"/>
+      <c r="O97" s="54">
+        <f t="shared" si="65"/>
         <v>10.566685013213839</v>
       </c>
-      <c r="P97" s="64">
+      <c r="P97" s="54">
         <f>P94/SUM(M5:P5)</f>
         <v>6.6748252834291053</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A98" s="68">
+      <c r="Q97" s="54">
+        <f t="shared" ref="Q97" si="66">Q94/SUM(N5:Q5)</f>
+        <v>7.682339031017265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="57">
         <f>AVERAGE(C98:AG98)</f>
-        <v>45.933448974360083</v>
+        <v>62.447808359934214</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="64"/>
-      <c r="P98" s="64">
+      <c r="M98" s="54"/>
+      <c r="N98" s="54"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="54">
         <f>P93/SUM(M18:P18)</f>
         <v>45.933448974360083</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="68">
+      <c r="Q98" s="54">
+        <f>Q93/SUM(N18:Q18)</f>
+        <v>78.962167745508339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="57">
         <f>AVERAGE(C99:AG99)</f>
-        <v>8.2358928270117193</v>
-      </c>
-      <c r="B99" s="64" t="s">
+        <v>7.925631151755125</v>
+      </c>
+      <c r="B99" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="64">
+      <c r="J99" s="54">
         <f>J93/J84</f>
         <v>7.9873462056532354</v>
       </c>
-      <c r="K99" s="64">
-        <f t="shared" ref="K99" si="48">K93/K84</f>
+      <c r="K99" s="54">
+        <f t="shared" ref="K99" si="67">K93/K84</f>
         <v>9.021099781990257</v>
       </c>
-      <c r="N99" s="64">
+      <c r="N99" s="54">
         <f>N93/N84</f>
         <v>10.390123640682932</v>
       </c>
-      <c r="P99" s="64">
+      <c r="P99" s="54">
         <f>P93/P84</f>
         <v>5.545001679720456</v>
       </c>
-      <c r="Q99" s="65"/>
+      <c r="Q99" s="54">
+        <f t="shared" ref="Q99" si="68">Q93/Q84</f>
+        <v>6.6845844507287495</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4464,13 +4704,14 @@
     <hyperlink ref="N1" r:id="rId2" xr:uid="{4392FA01-21E9-6A40-A134-26B35BE770B8}"/>
     <hyperlink ref="K1" r:id="rId3" xr:uid="{DF1C6BB7-7CFF-5D44-9BEE-5CB961E150F1}"/>
     <hyperlink ref="X1" r:id="rId4" xr:uid="{24C18D69-9B16-5F49-888B-0E1F34CAFFCF}"/>
+    <hyperlink ref="Q1" r:id="rId5" xr:uid="{1E775E75-414E-4EF3-BED5-DF18BB35E228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="X3:X4 X16 X6:X14" formulaRange="1"/>
     <ignoredError sqref="X15 X5" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04CE20-CB66-475C-95C0-3699217E3AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB67E4B-1BC3-407F-912E-03DE6D34E469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
   <si>
     <t>$AXON</t>
   </si>
@@ -612,18 +612,70 @@
   </si>
   <si>
     <t>US Federal</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current S/P</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +779,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,9 +983,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -935,6 +998,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -993,6 +1061,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1005,6 +1074,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,13 +1180,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1117,7 +1203,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11201400" y="9525"/>
+          <a:off x="11191875" y="9525"/>
           <a:ext cx="0" cy="17164050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1495,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900DF94E-F891-4352-9E7E-03CAB35A1375}">
   <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,35 +1602,35 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="R5" s="60" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="R5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="62"/>
-      <c r="X5" s="60" t="s">
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="64"/>
+      <c r="X5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="62"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="64"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1684,7 +1770,7 @@
       <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="54">
         <v>44713</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1704,7 +1790,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="9"/>
-      <c r="X10" s="51"/>
+      <c r="X10" s="53"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
@@ -1792,7 +1878,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="55" t="s">
         <v>142</v>
       </c>
       <c r="S14" s="8"/>
@@ -1800,11 +1886,11 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1829,10 +1915,10 @@
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="72"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1857,10 +1943,10 @@
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="72"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1882,10 +1968,10 @@
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="72"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1905,10 +1991,10 @@
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1963,11 +2049,11 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1987,10 +2073,10 @@
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="72"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2012,10 +2098,10 @@
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="71">
         <v>1993</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="72"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2035,9 +2121,9 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="G25" s="52">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="G25" s="54">
         <v>43221</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -2060,8 +2146,8 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2081,10 +2167,10 @@
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2106,10 +2192,10 @@
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="61"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2140,21 +2226,21 @@
       <c r="U29" s="11"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="65">
         <f>C8/SUM('Financial Model'!N5:Q5)</f>
         <v>12.532665911248298</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="66"/>
       <c r="R32" s="2" t="s">
         <v>148</v>
       </c>
@@ -2163,11 +2249,11 @@
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="65">
         <f>C6/'Financial Model'!Q84</f>
         <v>10.904968309556024</v>
       </c>
-      <c r="D33" s="64"/>
+      <c r="D33" s="66"/>
       <c r="R33" s="1" t="s">
         <v>143</v>
       </c>
@@ -2176,8 +2262,8 @@
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
       <c r="R34" s="1" t="s">
         <v>144</v>
       </c>
@@ -2231,13 +2317,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC786C6-03D5-4DEA-B3BA-C40A632BF30C}">
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="V10:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2245,11 +2331,16 @@
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="77"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="80"/>
+    <col min="18" max="18" width="9.140625" style="48"/>
+    <col min="19" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="48"/>
+    <col min="26" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="34" t="s">
         <v>152</v>
       </c>
@@ -2274,7 +2365,7 @@
       <c r="J1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="49" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="34" t="s">
@@ -2283,19 +2374,19 @@
       <c r="M1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="49" t="s">
         <v>54</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="84" t="s">
         <v>97</v>
       </c>
       <c r="U1" s="34" t="s">
@@ -2307,463 +2398,855 @@
       <c r="W1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="84" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="2:25" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="33"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37">
         <v>43921</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="37">
         <v>44196</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <v>44286</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="37">
         <v>44377</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="37">
         <v>44469</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="37">
         <v>44561</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="37">
         <v>44651</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="37">
         <v>44742</v>
       </c>
-      <c r="Q2" s="79">
+      <c r="Q2" s="82">
         <v>44834</v>
       </c>
-      <c r="X2" s="38">
+      <c r="R2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="37">
         <v>44561</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <v>174.11600000000001</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="38">
         <v>140.886</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="38">
         <v>156.42699999999999</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="38">
         <v>165.803</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="38">
         <v>145.40899999999999</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="38">
         <v>176.20400000000001</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="38">
         <v>200.05099999999999</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="77">
         <v>210.398</v>
       </c>
-      <c r="X3" s="39">
+      <c r="R3" s="47">
+        <f>Q3*1.08</f>
+        <v>227.22984000000002</v>
+      </c>
+      <c r="X3" s="38">
         <f>SUM(K3:N3)</f>
         <v>608.52499999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="Y3" s="47">
+        <f>SUM(O3:R3)</f>
+        <v>813.88283999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="38">
         <v>52.024000000000001</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="38">
         <v>54.133000000000003</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="38">
         <v>62.368000000000002</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="38">
         <v>66.186000000000007</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="38">
         <v>72.168999999999997</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>80.221999999999994</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="38">
         <v>85.561999999999998</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="Q4" s="77">
         <v>101.35599999999999</v>
       </c>
-      <c r="X4" s="39">
+      <c r="R4" s="47">
+        <f>Q4*1.13</f>
+        <v>114.53227999999999</v>
+      </c>
+      <c r="X4" s="38">
         <f>SUM(K4:N4)</f>
         <v>254.85599999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="47">
+        <f>SUM(O4:R4)</f>
+        <v>381.67228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="40">
-        <f t="shared" ref="J5:Q5" si="0">J3+J4</f>
+      <c r="J5" s="39">
+        <f t="shared" ref="J5:R5" si="0">J3+J4</f>
         <v>226.14000000000001</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <f t="shared" si="0"/>
         <v>195.01900000000001</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <f t="shared" si="0"/>
         <v>218.79499999999999</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <f t="shared" si="0"/>
         <v>231.989</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <f t="shared" si="0"/>
         <v>217.57799999999997</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="39">
         <f t="shared" si="0"/>
         <v>256.42599999999999</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <f t="shared" si="0"/>
         <v>285.613</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="39">
         <f t="shared" si="0"/>
         <v>311.75400000000002</v>
       </c>
-      <c r="X5" s="40">
+      <c r="R5" s="88">
+        <f t="shared" si="0"/>
+        <v>341.76211999999998</v>
+      </c>
+      <c r="X5" s="39">
         <f>X3+X4</f>
         <v>863.38099999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="Y5" s="88">
+        <f>Y3+Y4</f>
+        <v>1195.55512</v>
+      </c>
+      <c r="Z5" s="39">
+        <f>Y5*(1+Z21)</f>
+        <v>1673.7771679999998</v>
+      </c>
+      <c r="AA5" s="39">
+        <f t="shared" ref="AA5:AI5" si="1">Z5*(1+AA21)</f>
+        <v>2343.2880351999997</v>
+      </c>
+      <c r="AB5" s="39">
+        <f t="shared" si="1"/>
+        <v>3233.7374885759996</v>
+      </c>
+      <c r="AC5" s="39">
+        <f t="shared" si="1"/>
+        <v>4397.8829844633592</v>
+      </c>
+      <c r="AD5" s="39">
+        <f t="shared" si="1"/>
+        <v>5981.1208588701684</v>
+      </c>
+      <c r="AE5" s="39">
+        <f t="shared" si="1"/>
+        <v>8074.5131594747281</v>
+      </c>
+      <c r="AF5" s="39">
+        <f t="shared" si="1"/>
+        <v>10900.592765290883</v>
+      </c>
+      <c r="AG5" s="39">
+        <f t="shared" si="1"/>
+        <v>14715.800233142692</v>
+      </c>
+      <c r="AH5" s="39">
+        <f t="shared" si="1"/>
+        <v>19866.330314742638</v>
+      </c>
+      <c r="AI5" s="39">
+        <f t="shared" si="1"/>
+        <v>26819.545924902563</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <v>73.623999999999995</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <v>58.616</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <v>65.301000000000002</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="38">
         <v>71.335999999999999</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="38">
         <v>64.844999999999999</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>79.352000000000004</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="38">
         <v>87.501999999999995</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="77">
         <v>93.724000000000004</v>
       </c>
-      <c r="X6" s="39">
+      <c r="R6" s="48"/>
+      <c r="U6" s="90"/>
+      <c r="X6" s="38">
         <f>SUM(K6:N6)</f>
         <v>260.09799999999996</v>
       </c>
-    </row>
-    <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="Y6" s="47"/>
+    </row>
+    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>11.21</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="38">
         <v>13.05</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <v>15.565</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="38">
         <v>16.085999999999999</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="38">
         <v>17.672000000000001</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <v>21.335000000000001</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="38">
         <v>24.148</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="77">
         <v>24.773</v>
       </c>
-      <c r="X7" s="39">
+      <c r="R7" s="48"/>
+      <c r="X7" s="38">
         <f>SUM(K7:N7)</f>
         <v>62.373000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y7" s="47"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <f>J6+J7</f>
         <v>84.834000000000003</v>
       </c>
-      <c r="K8" s="41">
-        <f t="shared" ref="K8" si="1">K6+K7</f>
+      <c r="K8" s="40">
+        <f t="shared" ref="K8" si="2">K6+K7</f>
         <v>71.665999999999997</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="40">
         <f>L6+L7</f>
         <v>80.866</v>
       </c>
-      <c r="M8" s="41">
-        <f t="shared" ref="M8" si="2">M6+M7</f>
+      <c r="M8" s="40">
+        <f t="shared" ref="M8" si="3">M6+M7</f>
         <v>87.421999999999997</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <f>N6+N7</f>
         <v>82.516999999999996</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <f>O6+O7</f>
         <v>100.68700000000001</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="40">
         <f>P6+P7</f>
         <v>111.64999999999999</v>
       </c>
-      <c r="Q8" s="41">
-        <f t="shared" ref="Q8" si="3">Q6+Q7</f>
+      <c r="Q8" s="40">
+        <f t="shared" ref="Q8" si="4">Q6+Q7</f>
         <v>118.497</v>
       </c>
-      <c r="X8" s="41">
+      <c r="R8" s="47">
+        <f>R5*(1-R28)</f>
+        <v>129.8696056</v>
+      </c>
+      <c r="X8" s="40">
         <f>X6+X7</f>
         <v>322.47099999999995</v>
       </c>
-    </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="47">
+        <f>SUM(O8:R8)</f>
+        <v>460.7036056</v>
+      </c>
+      <c r="Z8" s="40">
+        <f>Z5*(1-Z28)</f>
+        <v>636.03532383999993</v>
+      </c>
+      <c r="AA8" s="40">
+        <f t="shared" ref="AA8:AI8" si="5">AA5*(1-AA28)</f>
+        <v>867.01657302399985</v>
+      </c>
+      <c r="AB8" s="40">
+        <f t="shared" si="5"/>
+        <v>1196.4828707731199</v>
+      </c>
+      <c r="AC8" s="40">
+        <f t="shared" si="5"/>
+        <v>1627.2167042514429</v>
+      </c>
+      <c r="AD8" s="40">
+        <f t="shared" si="5"/>
+        <v>2213.0147177819622</v>
+      </c>
+      <c r="AE8" s="40">
+        <f t="shared" si="5"/>
+        <v>2987.5698690056493</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" si="5"/>
+        <v>4033.2193231576266</v>
+      </c>
+      <c r="AG8" s="40">
+        <f t="shared" si="5"/>
+        <v>5444.8460862627962</v>
+      </c>
+      <c r="AH8" s="40">
+        <f t="shared" si="5"/>
+        <v>7350.5422164547763</v>
+      </c>
+      <c r="AI8" s="40">
+        <f t="shared" si="5"/>
+        <v>9923.2319922139486</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <f>J5-J8</f>
         <v>141.30600000000001</v>
       </c>
-      <c r="K9" s="40">
-        <f t="shared" ref="K9" si="4">K5-K8</f>
+      <c r="K9" s="39">
+        <f t="shared" ref="K9" si="6">K5-K8</f>
         <v>123.35300000000001</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="39">
         <f>L5-L8</f>
         <v>137.92899999999997</v>
       </c>
-      <c r="M9" s="40">
-        <f t="shared" ref="M9" si="5">M5-M8</f>
+      <c r="M9" s="39">
+        <f t="shared" ref="M9" si="7">M5-M8</f>
         <v>144.56700000000001</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="39">
         <f>N5-N8</f>
         <v>135.06099999999998</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="39">
         <f>O5-O8</f>
         <v>155.73899999999998</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="39">
         <f>P5-P8</f>
         <v>173.96300000000002</v>
       </c>
-      <c r="Q9" s="40">
-        <f t="shared" ref="Q9" si="6">Q5-Q8</f>
+      <c r="Q9" s="39">
+        <f t="shared" ref="Q9:R9" si="8">Q5-Q8</f>
         <v>193.25700000000001</v>
       </c>
-      <c r="X9" s="40">
+      <c r="R9" s="88">
+        <f t="shared" si="8"/>
+        <v>211.89251439999998</v>
+      </c>
+      <c r="X9" s="39">
         <f>X5-X8</f>
         <v>540.91000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+      <c r="Y9" s="88">
+        <f>Y5-Y8</f>
+        <v>734.85151440000004</v>
+      </c>
+      <c r="Z9" s="39">
+        <f>Z5-Z8</f>
+        <v>1037.7418441599998</v>
+      </c>
+      <c r="AA9" s="39">
+        <f t="shared" ref="AA9:AI9" si="9">AA5-AA8</f>
+        <v>1476.2714621759999</v>
+      </c>
+      <c r="AB9" s="39">
+        <f t="shared" si="9"/>
+        <v>2037.2546178028797</v>
+      </c>
+      <c r="AC9" s="39">
+        <f t="shared" si="9"/>
+        <v>2770.6662802119163</v>
+      </c>
+      <c r="AD9" s="39">
+        <f t="shared" si="9"/>
+        <v>3768.1061410882062</v>
+      </c>
+      <c r="AE9" s="39">
+        <f t="shared" si="9"/>
+        <v>5086.9432904690784</v>
+      </c>
+      <c r="AF9" s="39">
+        <f t="shared" si="9"/>
+        <v>6867.3734421332565</v>
+      </c>
+      <c r="AG9" s="39">
+        <f t="shared" si="9"/>
+        <v>9270.9541468798961</v>
+      </c>
+      <c r="AH9" s="39">
+        <f t="shared" si="9"/>
+        <v>12515.788098287861</v>
+      </c>
+      <c r="AI9" s="39">
+        <f t="shared" si="9"/>
+        <v>16896.313932688616</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <v>97.522999999999996</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>126.59699999999999</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>177.66200000000001</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="40">
         <v>99.295000000000002</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <v>111.453</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <v>90.129000000000005</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="40">
         <v>95.004999999999995</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="79">
         <v>102.023</v>
       </c>
-      <c r="X10" s="41">
+      <c r="R10" s="47">
+        <f>R9*0.58</f>
+        <v>122.89765835199998</v>
+      </c>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="40">
         <f>SUM(K10:N10)</f>
         <v>515.00700000000006</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
+      <c r="Y10" s="47">
+        <f>SUM(O10:R10)</f>
+        <v>410.05465835200005</v>
+      </c>
+      <c r="Z10" s="40">
+        <f>Z9*0.55</f>
+        <v>570.75801428799991</v>
+      </c>
+      <c r="AA10" s="40">
+        <f t="shared" ref="AA10:AI10" si="10">AA9*0.65</f>
+        <v>959.57645041439991</v>
+      </c>
+      <c r="AB10" s="40">
+        <f t="shared" si="10"/>
+        <v>1324.2155015718718</v>
+      </c>
+      <c r="AC10" s="40">
+        <f t="shared" si="10"/>
+        <v>1800.9330821377457</v>
+      </c>
+      <c r="AD10" s="40">
+        <f t="shared" si="10"/>
+        <v>2449.268991707334</v>
+      </c>
+      <c r="AE10" s="40">
+        <f t="shared" si="10"/>
+        <v>3306.5131388049012</v>
+      </c>
+      <c r="AF10" s="40">
+        <f t="shared" si="10"/>
+        <v>4463.7927373866169</v>
+      </c>
+      <c r="AG10" s="40">
+        <f t="shared" si="10"/>
+        <v>6026.1201954719327</v>
+      </c>
+      <c r="AH10" s="40">
+        <f t="shared" si="10"/>
+        <v>8135.2622638871098</v>
+      </c>
+      <c r="AI10" s="40">
+        <f t="shared" si="10"/>
+        <v>10982.604056247601</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="40">
         <v>38.008000000000003</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>47.018000000000001</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="40">
         <v>53.951999999999998</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="40">
         <v>42.381999999999998</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <v>50.673999999999999</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="40">
         <v>48.415999999999997</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="40">
         <v>57.546999999999997</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="79">
         <v>59.127000000000002</v>
       </c>
-      <c r="X11" s="41">
-        <f t="shared" ref="X11:X16" si="7">SUM(K11:N11)</f>
+      <c r="R11" s="47">
+        <f>R9*R33</f>
+        <v>42.378502879999999</v>
+      </c>
+      <c r="X11" s="40">
+        <f t="shared" ref="X11:X16" si="11">SUM(K11:N11)</f>
         <v>194.02600000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y11" s="47">
+        <f>SUM(O11:R11)</f>
+        <v>207.46850288000002</v>
+      </c>
+      <c r="Z11" s="40">
+        <f>Z5*Z33</f>
+        <v>318.01766191999997</v>
+      </c>
+      <c r="AA11" s="40">
+        <f t="shared" ref="AA11:AI11" si="12">AA5*AA33</f>
+        <v>468.65760703999996</v>
+      </c>
+      <c r="AB11" s="40">
+        <f t="shared" si="12"/>
+        <v>646.74749771519998</v>
+      </c>
+      <c r="AC11" s="40">
+        <f t="shared" si="12"/>
+        <v>879.57659689267189</v>
+      </c>
+      <c r="AD11" s="40">
+        <f t="shared" si="12"/>
+        <v>1196.2241717740337</v>
+      </c>
+      <c r="AE11" s="40">
+        <f t="shared" si="12"/>
+        <v>1614.9026318949457</v>
+      </c>
+      <c r="AF11" s="40">
+        <f t="shared" si="12"/>
+        <v>1962.106697752359</v>
+      </c>
+      <c r="AG11" s="40">
+        <f t="shared" si="12"/>
+        <v>2648.8440419656845</v>
+      </c>
+      <c r="AH11" s="40">
+        <f t="shared" si="12"/>
+        <v>3575.9394566536748</v>
+      </c>
+      <c r="AI11" s="40">
+        <f t="shared" si="12"/>
+        <v>4827.5182664824615</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="41">
-        <f t="shared" ref="J12:P12" si="8">J10+J11</f>
+      <c r="J12" s="40">
+        <f t="shared" ref="J12:P12" si="13">J10+J11</f>
         <v>135.53100000000001</v>
       </c>
-      <c r="K12" s="41">
-        <f t="shared" si="8"/>
+      <c r="K12" s="40">
+        <f t="shared" si="13"/>
         <v>173.61500000000001</v>
       </c>
-      <c r="L12" s="41">
-        <f t="shared" si="8"/>
+      <c r="L12" s="40">
+        <f t="shared" si="13"/>
         <v>231.614</v>
       </c>
-      <c r="M12" s="41">
-        <f t="shared" si="8"/>
+      <c r="M12" s="40">
+        <f t="shared" si="13"/>
         <v>141.67699999999999</v>
       </c>
-      <c r="N12" s="41">
-        <f t="shared" si="8"/>
+      <c r="N12" s="40">
+        <f t="shared" si="13"/>
         <v>162.12700000000001</v>
       </c>
-      <c r="O12" s="41">
-        <f t="shared" si="8"/>
+      <c r="O12" s="40">
+        <f t="shared" si="13"/>
         <v>138.54500000000002</v>
       </c>
-      <c r="P12" s="41">
-        <f t="shared" si="8"/>
+      <c r="P12" s="40">
+        <f t="shared" si="13"/>
         <v>152.55199999999999</v>
       </c>
-      <c r="Q12" s="41">
-        <f t="shared" ref="Q12" si="9">Q10+Q11</f>
+      <c r="Q12" s="40">
+        <f t="shared" ref="Q12:R12" si="14">Q10+Q11</f>
         <v>161.15</v>
       </c>
-      <c r="X12" s="41">
+      <c r="R12" s="47">
+        <f t="shared" si="14"/>
+        <v>165.27616123199999</v>
+      </c>
+      <c r="X12" s="40">
         <f>X10+X11</f>
         <v>709.03300000000013</v>
       </c>
-    </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="47">
+        <f>Y10+Y11</f>
+        <v>617.52316123200012</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" ref="Z12:AI12" si="15">Z10+Z11</f>
+        <v>888.77567620799982</v>
+      </c>
+      <c r="AA12" s="40">
+        <f t="shared" si="15"/>
+        <v>1428.2340574543998</v>
+      </c>
+      <c r="AB12" s="40">
+        <f t="shared" si="15"/>
+        <v>1970.9629992870719</v>
+      </c>
+      <c r="AC12" s="40">
+        <f t="shared" si="15"/>
+        <v>2680.5096790304178</v>
+      </c>
+      <c r="AD12" s="40">
+        <f t="shared" si="15"/>
+        <v>3645.4931634813674</v>
+      </c>
+      <c r="AE12" s="40">
+        <f t="shared" si="15"/>
+        <v>4921.4157706998467</v>
+      </c>
+      <c r="AF12" s="40">
+        <f t="shared" si="15"/>
+        <v>6425.8994351389756</v>
+      </c>
+      <c r="AG12" s="40">
+        <f t="shared" si="15"/>
+        <v>8674.9642374376162</v>
+      </c>
+      <c r="AH12" s="40">
+        <f t="shared" si="15"/>
+        <v>11711.201720540785</v>
+      </c>
+      <c r="AI12" s="40">
+        <f t="shared" si="15"/>
+        <v>15810.122322730062</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="39">
         <v>5.7750000000000004</v>
       </c>
-      <c r="K13" s="40">
-        <f t="shared" ref="K13:P13" si="10">K9-K12</f>
+      <c r="K13" s="39">
+        <f t="shared" ref="K13:P13" si="16">K9-K12</f>
         <v>-50.262</v>
       </c>
-      <c r="L13" s="40">
-        <f t="shared" si="10"/>
+      <c r="L13" s="39">
+        <f t="shared" si="16"/>
         <v>-93.685000000000031</v>
       </c>
-      <c r="M13" s="40">
-        <f t="shared" si="10"/>
+      <c r="M13" s="39">
+        <f t="shared" si="16"/>
         <v>2.8900000000000148</v>
       </c>
-      <c r="N13" s="40">
-        <f t="shared" si="10"/>
+      <c r="N13" s="39">
+        <f t="shared" si="16"/>
         <v>-27.066000000000031</v>
       </c>
-      <c r="O13" s="40">
-        <f t="shared" si="10"/>
+      <c r="O13" s="39">
+        <f t="shared" si="16"/>
         <v>17.19399999999996</v>
       </c>
-      <c r="P13" s="40">
-        <f t="shared" si="10"/>
+      <c r="P13" s="39">
+        <f t="shared" si="16"/>
         <v>21.41100000000003</v>
       </c>
-      <c r="Q13" s="40">
-        <f t="shared" ref="Q13" si="11">Q9-Q12</f>
+      <c r="Q13" s="39">
+        <f t="shared" ref="Q13:R13" si="17">Q9-Q12</f>
         <v>32.106999999999999</v>
       </c>
-      <c r="X13" s="40">
+      <c r="R13" s="88">
+        <f t="shared" si="17"/>
+        <v>46.616353167999989</v>
+      </c>
+      <c r="X13" s="39">
         <f>X9-X12</f>
         <v>-168.12300000000005</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y13" s="88">
+        <f>Y9-Y12</f>
+        <v>117.32835316799992</v>
+      </c>
+      <c r="Z13" s="39">
+        <f>Z9-Z12</f>
+        <v>148.96616795199998</v>
+      </c>
+      <c r="AA13" s="39">
+        <f t="shared" ref="AA13:AI13" si="18">AA9-AA12</f>
+        <v>48.037404721600069</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="18"/>
+        <v>66.291618515807841</v>
+      </c>
+      <c r="AC13" s="39">
+        <f t="shared" si="18"/>
+        <v>90.156601181498445</v>
+      </c>
+      <c r="AD13" s="39">
+        <f t="shared" si="18"/>
+        <v>122.61297760683874</v>
+      </c>
+      <c r="AE13" s="39">
+        <f t="shared" si="18"/>
+        <v>165.52751976923173</v>
+      </c>
+      <c r="AF13" s="39">
+        <f t="shared" si="18"/>
+        <v>441.4740069942809</v>
+      </c>
+      <c r="AG13" s="39">
+        <f t="shared" si="18"/>
+        <v>595.9899094422799</v>
+      </c>
+      <c r="AH13" s="39">
+        <f t="shared" si="18"/>
+        <v>804.58637774707677</v>
+      </c>
+      <c r="AI13" s="39">
+        <f t="shared" si="18"/>
+        <v>1086.1916099585542</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="40">
         <v>3.2650000000000001</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>0.58499999999999996</v>
       </c>
       <c r="L14" s="1">
@@ -2772,1931 +3255,2628 @@
       <c r="M14" s="1">
         <v>-5.53</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <v>-10.148</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="40">
         <v>55.298999999999999</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="40">
         <v>47.026000000000003</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="79">
         <v>-11.249000000000001</v>
       </c>
-      <c r="X14" s="41">
-        <f t="shared" si="7"/>
+      <c r="R14" s="47">
+        <f>AVERAGE(N14:Q14)</f>
+        <v>20.231999999999999</v>
+      </c>
+      <c r="X14" s="40">
+        <f t="shared" si="11"/>
         <v>26.748000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="47">
+        <f>SUM(O14:R14)</f>
+        <v>111.30800000000001</v>
+      </c>
+      <c r="Z14" s="40">
+        <f>AVERAGE(X14:Y14)</f>
+        <v>69.028000000000006</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" ref="AA14:AI14" si="19">AVERAGE(Y14:Z14)</f>
+        <v>90.168000000000006</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="19"/>
+        <v>79.598000000000013</v>
+      </c>
+      <c r="AC14" s="40">
+        <f t="shared" si="19"/>
+        <v>84.88300000000001</v>
+      </c>
+      <c r="AD14" s="40">
+        <f t="shared" si="19"/>
+        <v>82.240500000000011</v>
+      </c>
+      <c r="AE14" s="40">
+        <f t="shared" si="19"/>
+        <v>83.561750000000018</v>
+      </c>
+      <c r="AF14" s="40">
+        <f t="shared" si="19"/>
+        <v>82.901125000000008</v>
+      </c>
+      <c r="AG14" s="40">
+        <f t="shared" si="19"/>
+        <v>83.231437500000013</v>
+      </c>
+      <c r="AH14" s="40">
+        <f t="shared" si="19"/>
+        <v>83.066281250000003</v>
+      </c>
+      <c r="AI14" s="40">
+        <f t="shared" si="19"/>
+        <v>83.148859375000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="41">
-        <f t="shared" ref="J15:Q15" si="12">J13+J14</f>
+      <c r="J15" s="40">
+        <f t="shared" ref="J15:Q15" si="20">J13+J14</f>
         <v>9.0400000000000009</v>
       </c>
-      <c r="K15" s="41">
-        <f t="shared" si="12"/>
+      <c r="K15" s="40">
+        <f t="shared" si="20"/>
         <v>-49.677</v>
       </c>
-      <c r="L15" s="41">
-        <f t="shared" si="12"/>
+      <c r="L15" s="40">
+        <f t="shared" si="20"/>
         <v>-51.84400000000003</v>
       </c>
-      <c r="M15" s="41">
-        <f t="shared" si="12"/>
+      <c r="M15" s="40">
+        <f t="shared" si="20"/>
         <v>-2.6399999999999855</v>
       </c>
-      <c r="N15" s="41">
-        <f t="shared" si="12"/>
+      <c r="N15" s="40">
+        <f t="shared" si="20"/>
         <v>-37.214000000000027</v>
       </c>
-      <c r="O15" s="41">
-        <f t="shared" si="12"/>
+      <c r="O15" s="40">
+        <f t="shared" si="20"/>
         <v>72.492999999999967</v>
       </c>
-      <c r="P15" s="41">
-        <f t="shared" si="12"/>
+      <c r="P15" s="40">
+        <f t="shared" si="20"/>
         <v>68.43700000000004</v>
       </c>
-      <c r="Q15" s="41">
-        <f t="shared" si="12"/>
+      <c r="Q15" s="40">
+        <f t="shared" si="20"/>
         <v>20.857999999999997</v>
       </c>
-      <c r="X15" s="41">
+      <c r="R15" s="47">
+        <f>R13+R14</f>
+        <v>66.848353167999989</v>
+      </c>
+      <c r="X15" s="40">
         <f>X13+X14</f>
         <v>-141.37500000000006</v>
       </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y15" s="47">
+        <f>Y13+Y14</f>
+        <v>228.63635316799991</v>
+      </c>
+      <c r="Z15" s="40">
+        <f>Z13+Z14</f>
+        <v>217.994167952</v>
+      </c>
+      <c r="AA15" s="40">
+        <f t="shared" ref="AA15:AI15" si="21">AA13+AA14</f>
+        <v>138.20540472160008</v>
+      </c>
+      <c r="AB15" s="40">
+        <f t="shared" si="21"/>
+        <v>145.88961851580785</v>
+      </c>
+      <c r="AC15" s="40">
+        <f t="shared" si="21"/>
+        <v>175.03960118149845</v>
+      </c>
+      <c r="AD15" s="40">
+        <f t="shared" si="21"/>
+        <v>204.85347760683874</v>
+      </c>
+      <c r="AE15" s="40">
+        <f t="shared" si="21"/>
+        <v>249.08926976923175</v>
+      </c>
+      <c r="AF15" s="40">
+        <f t="shared" si="21"/>
+        <v>524.37513199428088</v>
+      </c>
+      <c r="AG15" s="40">
+        <f t="shared" si="21"/>
+        <v>679.22134694227987</v>
+      </c>
+      <c r="AH15" s="40">
+        <f t="shared" si="21"/>
+        <v>887.65265899707674</v>
+      </c>
+      <c r="AI15" s="40">
+        <f t="shared" si="21"/>
+        <v>1169.3404693335542</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <v>-16.794</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <v>-1.76</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="40">
         <v>-4.7270000000000003</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="40">
         <v>-51.164000000000001</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="40">
         <v>-23.706</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="40">
         <v>17.661999999999999</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="40">
         <v>17.475000000000001</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="79">
         <v>8.7270000000000003</v>
       </c>
-      <c r="X16" s="41">
-        <f t="shared" si="7"/>
+      <c r="R16" s="47">
+        <f>R13*R31</f>
+        <v>19.112704798879996</v>
+      </c>
+      <c r="X16" s="40">
+        <f t="shared" si="11"/>
         <v>-81.356999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="47">
+        <f>SUM(O16:R16)</f>
+        <v>62.97670479888</v>
+      </c>
+      <c r="Z16" s="40">
+        <f>Z15*Z31</f>
+        <v>87.197667180800011</v>
+      </c>
+      <c r="AA16" s="40">
+        <f t="shared" ref="AA16:AI16" si="22">AA15*AA31</f>
+        <v>59.428324030288032</v>
+      </c>
+      <c r="AB16" s="40">
+        <f t="shared" si="22"/>
+        <v>62.732535961797375</v>
+      </c>
+      <c r="AC16" s="40">
+        <f t="shared" si="22"/>
+        <v>78.767820531674303</v>
+      </c>
+      <c r="AD16" s="40">
+        <f t="shared" si="22"/>
+        <v>92.184064923077429</v>
+      </c>
+      <c r="AE16" s="40">
+        <f t="shared" si="22"/>
+        <v>112.09017139615429</v>
+      </c>
+      <c r="AF16" s="40">
+        <f t="shared" si="22"/>
+        <v>235.96880939742641</v>
+      </c>
+      <c r="AG16" s="40">
+        <f t="shared" si="22"/>
+        <v>305.64960612402592</v>
+      </c>
+      <c r="AH16" s="40">
+        <f t="shared" si="22"/>
+        <v>399.44369654868456</v>
+      </c>
+      <c r="AI16" s="40">
+        <f t="shared" si="22"/>
+        <v>526.20321120009942</v>
+      </c>
+    </row>
+    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="40">
-        <f t="shared" ref="J17:Q17" si="13">J15-J16</f>
+      <c r="J17" s="39">
+        <f t="shared" ref="J17:Q17" si="23">J15-J16</f>
         <v>25.834000000000003</v>
       </c>
-      <c r="K17" s="40">
-        <f t="shared" si="13"/>
+      <c r="K17" s="39">
+        <f t="shared" si="23"/>
         <v>-47.917000000000002</v>
       </c>
-      <c r="L17" s="40">
-        <f t="shared" si="13"/>
+      <c r="L17" s="39">
+        <f t="shared" si="23"/>
         <v>-47.117000000000033</v>
       </c>
-      <c r="M17" s="40">
-        <f t="shared" si="13"/>
+      <c r="M17" s="39">
+        <f t="shared" si="23"/>
         <v>48.524000000000015</v>
       </c>
-      <c r="N17" s="40">
-        <f t="shared" si="13"/>
+      <c r="N17" s="39">
+        <f t="shared" si="23"/>
         <v>-13.508000000000028</v>
       </c>
-      <c r="O17" s="40">
-        <f t="shared" si="13"/>
+      <c r="O17" s="39">
+        <f t="shared" si="23"/>
         <v>54.830999999999968</v>
       </c>
-      <c r="P17" s="40">
-        <f t="shared" si="13"/>
+      <c r="P17" s="39">
+        <f t="shared" si="23"/>
         <v>50.962000000000039</v>
       </c>
-      <c r="Q17" s="40">
-        <f t="shared" si="13"/>
+      <c r="Q17" s="39">
+        <f t="shared" si="23"/>
         <v>12.130999999999997</v>
       </c>
-      <c r="X17" s="40">
+      <c r="R17" s="88">
+        <f>R15-R16</f>
+        <v>47.735648369119993</v>
+      </c>
+      <c r="X17" s="39">
         <f>X15-X16</f>
         <v>-60.018000000000058</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="88">
+        <f>Y15-Y16</f>
+        <v>165.65964836911991</v>
+      </c>
+      <c r="Z17" s="39">
+        <f>Z15-Z16</f>
+        <v>130.79650077119999</v>
+      </c>
+      <c r="AA17" s="39">
+        <f t="shared" ref="AA17:AI17" si="24">AA15-AA16</f>
+        <v>78.777080691312051</v>
+      </c>
+      <c r="AB17" s="39">
+        <f t="shared" si="24"/>
+        <v>83.157082554010486</v>
+      </c>
+      <c r="AC17" s="39">
+        <f t="shared" si="24"/>
+        <v>96.271780649824152</v>
+      </c>
+      <c r="AD17" s="39">
+        <f t="shared" si="24"/>
+        <v>112.66941268376131</v>
+      </c>
+      <c r="AE17" s="39">
+        <f t="shared" si="24"/>
+        <v>136.99909837307746</v>
+      </c>
+      <c r="AF17" s="39">
+        <f t="shared" si="24"/>
+        <v>288.40632259685447</v>
+      </c>
+      <c r="AG17" s="39">
+        <f t="shared" si="24"/>
+        <v>373.57174081825394</v>
+      </c>
+      <c r="AH17" s="39">
+        <f t="shared" si="24"/>
+        <v>488.20896244839219</v>
+      </c>
+      <c r="AI17" s="39">
+        <f t="shared" si="24"/>
+        <v>643.13725813345479</v>
+      </c>
+      <c r="AJ17" s="39">
+        <f>AI17*(1+$AL$21)</f>
+        <v>675.29412104012761</v>
+      </c>
+      <c r="AK17" s="39">
+        <f t="shared" ref="AK17:BU17" si="25">AJ17*(1+$AL$21)</f>
+        <v>709.05882709213404</v>
+      </c>
+      <c r="AL17" s="39">
+        <f t="shared" si="25"/>
+        <v>744.5117684467408</v>
+      </c>
+      <c r="AM17" s="39">
+        <f t="shared" si="25"/>
+        <v>781.73735686907787</v>
+      </c>
+      <c r="AN17" s="39">
+        <f t="shared" si="25"/>
+        <v>820.82422471253176</v>
+      </c>
+      <c r="AO17" s="39">
+        <f t="shared" si="25"/>
+        <v>861.86543594815839</v>
+      </c>
+      <c r="AP17" s="39">
+        <f t="shared" si="25"/>
+        <v>904.95870774556636</v>
+      </c>
+      <c r="AQ17" s="39">
+        <f t="shared" si="25"/>
+        <v>950.20664313284476</v>
+      </c>
+      <c r="AR17" s="39">
+        <f t="shared" si="25"/>
+        <v>997.7169752894871</v>
+      </c>
+      <c r="AS17" s="39">
+        <f t="shared" si="25"/>
+        <v>1047.6028240539615</v>
+      </c>
+      <c r="AT17" s="39">
+        <f t="shared" si="25"/>
+        <v>1099.9829652566596</v>
+      </c>
+      <c r="AU17" s="39">
+        <f t="shared" si="25"/>
+        <v>1154.9821135194925</v>
+      </c>
+      <c r="AV17" s="39">
+        <f t="shared" si="25"/>
+        <v>1212.7312191954672</v>
+      </c>
+      <c r="AW17" s="39">
+        <f t="shared" si="25"/>
+        <v>1273.3677801552406</v>
+      </c>
+      <c r="AX17" s="39">
+        <f t="shared" si="25"/>
+        <v>1337.0361691630026</v>
+      </c>
+      <c r="AY17" s="39">
+        <f t="shared" si="25"/>
+        <v>1403.8879776211527</v>
+      </c>
+      <c r="AZ17" s="39">
+        <f t="shared" si="25"/>
+        <v>1474.0823765022103</v>
+      </c>
+      <c r="BA17" s="39">
+        <f t="shared" si="25"/>
+        <v>1547.7864953273208</v>
+      </c>
+      <c r="BB17" s="39">
+        <f t="shared" si="25"/>
+        <v>1625.175820093687</v>
+      </c>
+      <c r="BC17" s="39">
+        <f t="shared" si="25"/>
+        <v>1706.4346110983713</v>
+      </c>
+      <c r="BD17" s="39">
+        <f t="shared" si="25"/>
+        <v>1791.7563416532898</v>
+      </c>
+      <c r="BE17" s="39">
+        <f t="shared" si="25"/>
+        <v>1881.3441587359544</v>
+      </c>
+      <c r="BF17" s="39">
+        <f t="shared" si="25"/>
+        <v>1975.4113666727521</v>
+      </c>
+      <c r="BG17" s="39">
+        <f t="shared" si="25"/>
+        <v>2074.1819350063897</v>
+      </c>
+      <c r="BH17" s="39">
+        <f t="shared" si="25"/>
+        <v>2177.8910317567093</v>
+      </c>
+      <c r="BI17" s="39">
+        <f t="shared" si="25"/>
+        <v>2286.7855833445446</v>
+      </c>
+      <c r="BJ17" s="39">
+        <f t="shared" si="25"/>
+        <v>2401.1248625117719</v>
+      </c>
+      <c r="BK17" s="39">
+        <f t="shared" si="25"/>
+        <v>2521.1811056373604</v>
+      </c>
+      <c r="BL17" s="39">
+        <f t="shared" si="25"/>
+        <v>2647.2401609192284</v>
+      </c>
+      <c r="BM17" s="39">
+        <f t="shared" si="25"/>
+        <v>2779.6021689651898</v>
+      </c>
+      <c r="BN17" s="39">
+        <f t="shared" si="25"/>
+        <v>2918.5822774134494</v>
+      </c>
+      <c r="BO17" s="39">
+        <f t="shared" si="25"/>
+        <v>3064.5113912841221</v>
+      </c>
+      <c r="BP17" s="39">
+        <f t="shared" si="25"/>
+        <v>3217.7369608483282</v>
+      </c>
+      <c r="BQ17" s="39">
+        <f t="shared" si="25"/>
+        <v>3378.6238088907448</v>
+      </c>
+      <c r="BR17" s="39">
+        <f t="shared" si="25"/>
+        <v>3547.5549993352824</v>
+      </c>
+      <c r="BS17" s="39">
+        <f t="shared" si="25"/>
+        <v>3724.9327493020469</v>
+      </c>
+      <c r="BT17" s="39">
+        <f t="shared" si="25"/>
+        <v>3911.1793867671495</v>
+      </c>
+      <c r="BU17" s="39">
+        <f t="shared" si="25"/>
+        <v>4106.7383561055067</v>
+      </c>
+    </row>
+    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="44">
-        <f t="shared" ref="J18:Q18" si="14">J17/J19</f>
+      <c r="J18" s="43">
+        <f t="shared" ref="J18:Q18" si="26">J17/J19</f>
         <v>0.40594603937836865</v>
       </c>
-      <c r="K18" s="44">
-        <f t="shared" si="14"/>
+      <c r="K18" s="43">
+        <f t="shared" si="26"/>
         <v>-0.74828221625335745</v>
       </c>
-      <c r="L18" s="44">
-        <f t="shared" si="14"/>
+      <c r="L18" s="43">
+        <f t="shared" si="26"/>
         <v>-0.72303041463339834</v>
       </c>
-      <c r="M18" s="44">
-        <f t="shared" si="14"/>
+      <c r="M18" s="43">
+        <f t="shared" si="26"/>
         <v>0.73307952622673467</v>
       </c>
-      <c r="N18" s="44">
-        <f t="shared" si="14"/>
+      <c r="N18" s="43">
+        <f t="shared" si="26"/>
         <v>-0.19489251190304469</v>
       </c>
-      <c r="O18" s="44">
-        <f t="shared" si="14"/>
+      <c r="O18" s="43">
+        <f t="shared" si="26"/>
         <v>0.77281183932346675</v>
       </c>
-      <c r="P18" s="44">
-        <f t="shared" si="14"/>
+      <c r="P18" s="43">
+        <f t="shared" si="26"/>
         <v>0.71737049549549603</v>
       </c>
-      <c r="Q18" s="44">
-        <f t="shared" si="14"/>
+      <c r="Q18" s="43">
+        <f t="shared" si="26"/>
         <v>0.17060205043104049</v>
       </c>
-      <c r="X18" s="44">
+      <c r="R18" s="86">
+        <f>R17/R19</f>
+        <v>0.67132136595721925</v>
+      </c>
+      <c r="X18" s="43">
         <f>X17/X19</f>
         <v>-0.86593565142115214</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="91">
+        <f>Y17/Y19</f>
+        <v>2.3297234923301491</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40">
         <v>63.639000000000003</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="40">
         <v>64.036000000000001</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="40">
         <v>65.165999999999997</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="40">
         <v>66.191999999999993</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="40">
         <v>69.31</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="40">
         <v>70.95</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="40">
         <v>71.040000000000006</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="79">
         <v>71.106999999999999</v>
       </c>
-      <c r="X19" s="41">
+      <c r="R19" s="47">
+        <f>Q19</f>
+        <v>71.106999999999999</v>
+      </c>
+      <c r="X19" s="40">
         <f>N19</f>
         <v>69.31</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="47">
+        <f>Q19</f>
+        <v>71.106999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42">
         <f>N5/J5-1</f>
         <v>-3.786150172459557E-2</v>
       </c>
-      <c r="O21" s="43">
-        <f t="shared" ref="O21" si="15">O5/K5-1</f>
+      <c r="O21" s="42">
+        <f t="shared" ref="O21" si="27">O5/K5-1</f>
         <v>0.31487701198344764</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="42">
         <f>P5/L5-1</f>
         <v>0.30539089101670513</v>
       </c>
-      <c r="Q21" s="43">
-        <f t="shared" ref="Q21" si="16">Q5/M5-1</f>
+      <c r="Q21" s="42">
+        <f t="shared" ref="Q21" si="28">Q5/M5-1</f>
         <v>0.34383095750229553</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+      <c r="R21" s="85"/>
+      <c r="Y21" s="89">
+        <f>Y5/X5-1</f>
+        <v>0.38473642574946632</v>
+      </c>
+      <c r="Z21" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="AA21" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="AB21" s="42">
+        <v>0.38</v>
+      </c>
+      <c r="AC21" s="42">
+        <v>0.36</v>
+      </c>
+      <c r="AD21" s="42">
+        <v>0.36</v>
+      </c>
+      <c r="AE21" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="AF21" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="AG21" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="AH21" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="AI21" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="AK21" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL21" s="41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45">
+      <c r="M22" s="44"/>
+      <c r="N22" s="44">
         <f>N3/J3-1</f>
         <v>-0.16487284339176189</v>
       </c>
-      <c r="O22" s="45">
-        <f t="shared" ref="O22:O23" si="17">O3/K3-1</f>
+      <c r="O22" s="44">
+        <f t="shared" ref="O22:O23" si="29">O3/K3-1</f>
         <v>0.25068495095325316</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="44">
         <f>P3/L3-1</f>
         <v>0.27887768735576346</v>
       </c>
-      <c r="Q22" s="45">
-        <f t="shared" ref="Q22:Q23" si="18">Q3/M3-1</f>
+      <c r="Q22" s="44">
+        <f t="shared" ref="Q22:Q23" si="30">Q3/M3-1</f>
         <v>0.26896377025747431</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
+      <c r="R22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="AK22" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL22" s="44">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45">
-        <f t="shared" ref="N23:P23" si="19">N4/J4-1</f>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44">
+        <f t="shared" ref="N23:P23" si="31">N4/J4-1</f>
         <v>0.38722512686452393</v>
       </c>
-      <c r="O23" s="45">
-        <f t="shared" si="17"/>
+      <c r="O23" s="44">
+        <f t="shared" si="29"/>
         <v>0.48194262279940125</v>
       </c>
-      <c r="P23" s="45">
-        <f t="shared" si="19"/>
+      <c r="P23" s="44">
+        <f t="shared" si="31"/>
         <v>0.3718894304771676</v>
       </c>
-      <c r="Q23" s="45">
-        <f t="shared" si="18"/>
+      <c r="Q23" s="44">
+        <f t="shared" si="30"/>
         <v>0.53138125887649923</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="AK23" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL23" s="39">
+        <f>NPV(AL22,Y17:BU17)</f>
+        <v>12420.186517227328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="43">
-        <f t="shared" ref="K24:L24" si="20">K5/J5-1</f>
+      <c r="K24" s="42">
+        <f t="shared" ref="K24:L24" si="32">K5/J5-1</f>
         <v>-0.13761828955514288</v>
       </c>
-      <c r="L24" s="43">
-        <f t="shared" si="20"/>
+      <c r="L24" s="42">
+        <f t="shared" si="32"/>
         <v>0.12191632610155922</v>
       </c>
-      <c r="M24" s="43">
-        <f t="shared" ref="M24" si="21">M5/L5-1</f>
+      <c r="M24" s="42">
+        <f t="shared" ref="M24" si="33">M5/L5-1</f>
         <v>6.0303023378047937E-2</v>
       </c>
-      <c r="N24" s="43">
-        <f t="shared" ref="N24" si="22">N5/M5-1</f>
+      <c r="N24" s="42">
+        <f t="shared" ref="N24" si="34">N5/M5-1</f>
         <v>-6.2119324623150396E-2</v>
       </c>
-      <c r="O24" s="43">
-        <f t="shared" ref="O24" si="23">O5/N5-1</f>
+      <c r="O24" s="42">
+        <f t="shared" ref="O24" si="35">O5/N5-1</f>
         <v>0.17854746343839922</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="42">
         <f>P5/O5-1</f>
         <v>0.11382231131008558</v>
       </c>
-      <c r="Q24" s="43">
-        <f t="shared" ref="Q24" si="24">Q5/P5-1</f>
+      <c r="Q24" s="42">
+        <f t="shared" ref="Q24" si="36">Q5/P5-1</f>
         <v>9.1525945947838583E-2</v>
       </c>
+      <c r="R24" s="85"/>
       <c r="X24" s="34" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37" t="s">
+      <c r="Y24" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK24" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL24" s="40">
+        <f>Main!C11</f>
+        <v>377.61800000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="45">
-        <f t="shared" ref="K25:L25" si="25">K3/J3-1</f>
+      <c r="K25" s="44">
+        <f t="shared" ref="K25:L25" si="37">K3/J3-1</f>
         <v>-0.19084977830871386</v>
       </c>
-      <c r="L25" s="45">
-        <f t="shared" si="25"/>
+      <c r="L25" s="44">
+        <f t="shared" si="37"/>
         <v>0.1103090441917578</v>
       </c>
-      <c r="M25" s="45">
-        <f t="shared" ref="M25" si="26">M3/L3-1</f>
+      <c r="M25" s="44">
+        <f t="shared" ref="M25" si="38">M3/L3-1</f>
         <v>5.9938501665313559E-2</v>
       </c>
-      <c r="N25" s="45">
-        <f t="shared" ref="N25" si="27">N3/M3-1</f>
+      <c r="N25" s="44">
+        <f t="shared" ref="N25" si="39">N3/M3-1</f>
         <v>-0.1230013932196643</v>
       </c>
-      <c r="O25" s="45">
-        <f t="shared" ref="O25" si="28">O3/N3-1</f>
+      <c r="O25" s="44">
+        <f t="shared" ref="O25" si="40">O3/N3-1</f>
         <v>0.21178193921971822</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="44">
         <f>P3/O3-1</f>
         <v>0.13533744977412532</v>
       </c>
-      <c r="Q25" s="45">
-        <f t="shared" ref="Q25:Q26" si="29">Q3/P3-1</f>
+      <c r="Q25" s="44">
+        <f t="shared" ref="Q25:Q26" si="41">Q3/P3-1</f>
         <v>5.1721810938210711E-2</v>
       </c>
+      <c r="R25" s="48"/>
       <c r="X25" s="23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="37" t="s">
+      <c r="Y25" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK25" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL25" s="40">
+        <f>AL23-AL24</f>
+        <v>12042.568517227328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="45">
-        <f t="shared" ref="K26:L26" si="30">K4/J4-1</f>
+      <c r="K26" s="44">
+        <f t="shared" ref="K26:L26" si="42">K4/J4-1</f>
         <v>4.053898200830397E-2</v>
       </c>
-      <c r="L26" s="45">
-        <f t="shared" si="30"/>
+      <c r="L26" s="44">
+        <f t="shared" si="42"/>
         <v>0.15212532096872522</v>
       </c>
-      <c r="M26" s="45">
-        <f t="shared" ref="M26" si="31">M4/L4-1</f>
+      <c r="M26" s="44">
+        <f t="shared" ref="M26" si="43">M4/L4-1</f>
         <v>6.1217290918419875E-2</v>
       </c>
-      <c r="N26" s="45">
-        <f t="shared" ref="N26" si="32">N4/M4-1</f>
+      <c r="N26" s="44">
+        <f t="shared" ref="N26" si="44">N4/M4-1</f>
         <v>9.0396760644244845E-2</v>
       </c>
-      <c r="O26" s="45">
-        <f t="shared" ref="O26" si="33">O4/N4-1</f>
+      <c r="O26" s="44">
+        <f t="shared" ref="O26" si="45">O4/N4-1</f>
         <v>0.1115853067106376</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="44">
         <f>P4/O4-1</f>
         <v>6.6565281344269644E-2</v>
       </c>
-      <c r="Q26" s="45">
-        <f t="shared" si="29"/>
+      <c r="Q26" s="44">
+        <f t="shared" si="41"/>
         <v>0.18459129052616818</v>
       </c>
+      <c r="R26" s="48"/>
       <c r="X26" s="23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK26" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL26" s="95">
+        <f>AL25/Q19</f>
+        <v>169.35841080663405</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="AK27" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL27" s="40">
+        <f>Main!C6</f>
+        <v>188.83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42">
-        <f t="shared" ref="J28:M28" si="34">J9/J5</f>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41">
+        <f t="shared" ref="J28:M28" si="46">J9/J5</f>
         <v>0.62486070575749542</v>
       </c>
-      <c r="K28" s="42">
-        <f t="shared" ref="K28" si="35">K9/K5</f>
+      <c r="K28" s="41">
+        <f t="shared" ref="K28" si="47">K9/K5</f>
         <v>0.63251785723442333</v>
       </c>
-      <c r="L28" s="42">
-        <f t="shared" si="34"/>
+      <c r="L28" s="41">
+        <f t="shared" si="46"/>
         <v>0.63040288854864135</v>
       </c>
-      <c r="M28" s="42">
-        <f t="shared" si="34"/>
+      <c r="M28" s="41">
+        <f t="shared" si="46"/>
         <v>0.62316316721913545</v>
       </c>
-      <c r="N28" s="42">
-        <f t="shared" ref="N28:O28" si="36">N9/N5</f>
+      <c r="N28" s="41">
+        <f t="shared" ref="N28:O28" si="48">N9/N5</f>
         <v>0.62074750204524354</v>
       </c>
-      <c r="O28" s="42">
-        <f t="shared" si="36"/>
+      <c r="O28" s="41">
+        <f t="shared" si="48"/>
         <v>0.60734480902872556</v>
       </c>
-      <c r="P28" s="42">
-        <f t="shared" ref="P28:Q28" si="37">P9/P5</f>
+      <c r="P28" s="41">
+        <f t="shared" ref="P28:Q28" si="49">P9/P5</f>
         <v>0.60908642113629285</v>
       </c>
-      <c r="Q28" s="42">
-        <f t="shared" si="37"/>
+      <c r="Q28" s="41">
+        <f t="shared" si="49"/>
         <v>0.61990223060490002</v>
       </c>
-      <c r="X28" s="42">
-        <f t="shared" ref="X28" si="38">X9/X5</f>
+      <c r="R28" s="75">
+        <v>0.62</v>
+      </c>
+      <c r="X28" s="41">
+        <f t="shared" ref="X28:Y28" si="50">X9/X5</f>
         <v>0.62650208888080705</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="75">
+        <f t="shared" si="50"/>
+        <v>0.61465297760591753</v>
+      </c>
+      <c r="Z28" s="41">
+        <v>0.62</v>
+      </c>
+      <c r="AA28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AB28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AC28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AD28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AE28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AF28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AG28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AH28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AI28" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="AK28" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL28" s="41">
+        <f>AL26/AL27-1</f>
+        <v>-0.10311703221609891</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="42">
-        <f t="shared" ref="J29:M29" si="39">J13/J5</f>
+      <c r="J29" s="41">
+        <f t="shared" ref="J29:M29" si="51">J13/J5</f>
         <v>2.553727779251791E-2</v>
       </c>
-      <c r="K29" s="42">
-        <f t="shared" ref="K29" si="40">K13/K5</f>
+      <c r="K29" s="41">
+        <f t="shared" ref="K29" si="52">K13/K5</f>
         <v>-0.2577287341233418</v>
       </c>
-      <c r="L29" s="42">
-        <f t="shared" si="39"/>
+      <c r="L29" s="41">
+        <f t="shared" si="51"/>
         <v>-0.42818620169565136</v>
       </c>
-      <c r="M29" s="42">
-        <f t="shared" si="39"/>
+      <c r="M29" s="41">
+        <f t="shared" si="51"/>
         <v>1.2457487208445292E-2</v>
       </c>
-      <c r="N29" s="42">
-        <f t="shared" ref="N29:O29" si="41">N13/N5</f>
+      <c r="N29" s="41">
+        <f t="shared" ref="N29:O29" si="53">N13/N5</f>
         <v>-0.12439676805559401</v>
       </c>
-      <c r="O29" s="42">
-        <f t="shared" si="41"/>
+      <c r="O29" s="41">
+        <f t="shared" si="53"/>
         <v>6.7052482977545028E-2</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="41">
         <f>P13/P5</f>
         <v>7.4965075119129837E-2</v>
       </c>
-      <c r="Q29" s="42">
-        <f t="shared" ref="Q29" si="42">Q13/Q5</f>
+      <c r="Q29" s="41">
+        <f t="shared" ref="Q29:R29" si="54">Q13/Q5</f>
         <v>0.10298825355889579</v>
       </c>
-      <c r="X29" s="42">
+      <c r="R29" s="75">
+        <f t="shared" si="54"/>
+        <v>0.13639999999999997</v>
+      </c>
+      <c r="X29" s="41">
         <f>X13/X5</f>
         <v>-0.19472631433862925</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="75">
+        <f t="shared" ref="Y29" si="55">Y13/Y5</f>
+        <v>9.8137134127283004E-2</v>
+      </c>
+      <c r="Z29" s="41">
+        <f>Z13/Z5</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AA29" s="41">
+        <f t="shared" ref="AA29:AI29" si="56">AA13/AA5</f>
+        <v>2.0500000000000032E-2</v>
+      </c>
+      <c r="AB29" s="41">
+        <f t="shared" si="56"/>
+        <v>2.0499999999999952E-2</v>
+      </c>
+      <c r="AC29" s="41">
+        <f t="shared" si="56"/>
+        <v>2.0499999999999904E-2</v>
+      </c>
+      <c r="AD29" s="41">
+        <f t="shared" si="56"/>
+        <v>2.0500000000000049E-2</v>
+      </c>
+      <c r="AE29" s="41">
+        <f t="shared" si="56"/>
+        <v>2.0499999999999977E-2</v>
+      </c>
+      <c r="AF29" s="41">
+        <f t="shared" si="56"/>
+        <v>4.0500000000000015E-2</v>
+      </c>
+      <c r="AG29" s="41">
+        <f t="shared" si="56"/>
+        <v>4.0500000000000057E-2</v>
+      </c>
+      <c r="AH29" s="41">
+        <f t="shared" si="56"/>
+        <v>4.0499999999999994E-2</v>
+      </c>
+      <c r="AI29" s="41">
+        <f t="shared" si="56"/>
+        <v>4.0500000000000015E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J30" s="42">
-        <f t="shared" ref="J30:M30" si="43">J17/J5</f>
+      <c r="J30" s="41">
+        <f t="shared" ref="J30:M30" si="57">J17/J5</f>
         <v>0.11423896701158574</v>
       </c>
-      <c r="K30" s="42">
-        <f t="shared" ref="K30" si="44">K17/K5</f>
+      <c r="K30" s="41">
+        <f t="shared" ref="K30" si="58">K17/K5</f>
         <v>-0.24570426471266901</v>
       </c>
-      <c r="L30" s="42">
-        <f t="shared" si="43"/>
+      <c r="L30" s="41">
+        <f t="shared" si="57"/>
         <v>-0.21534769990173466</v>
       </c>
-      <c r="M30" s="42">
-        <f t="shared" si="43"/>
+      <c r="M30" s="41">
+        <f t="shared" si="57"/>
         <v>0.20916508972408179</v>
       </c>
-      <c r="N30" s="42">
-        <f t="shared" ref="N30:O30" si="45">N17/N5</f>
+      <c r="N30" s="41">
+        <f t="shared" ref="N30:O30" si="59">N17/N5</f>
         <v>-6.2083482705053032E-2</v>
       </c>
-      <c r="O30" s="42">
-        <f t="shared" si="45"/>
+      <c r="O30" s="41">
+        <f t="shared" si="59"/>
         <v>0.21382777097486202</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="41">
         <f>P17/P5</f>
         <v>0.17843025352487471</v>
       </c>
-      <c r="Q30" s="42">
-        <f t="shared" ref="Q30" si="46">Q17/Q5</f>
+      <c r="Q30" s="41">
+        <f t="shared" ref="Q30:R30" si="60">Q17/Q5</f>
         <v>3.8912090943500309E-2</v>
       </c>
-      <c r="X30" s="42">
+      <c r="R30" s="75">
+        <f t="shared" si="60"/>
+        <v>0.13967507097954565</v>
+      </c>
+      <c r="X30" s="41">
         <f>X17/X5</f>
         <v>-6.9515080827583717E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="75">
+        <f t="shared" ref="Y30" si="61">Y17/Y5</f>
+        <v>0.13856295339115768</v>
+      </c>
+      <c r="Z30" s="41">
+        <f>Z17/Z5</f>
+        <v>7.8144512466667843E-2</v>
+      </c>
+      <c r="AA30" s="41">
+        <f t="shared" ref="AA30:AI30" si="62">AA17/AA5</f>
+        <v>3.3618180739180201E-2</v>
+      </c>
+      <c r="AB30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.5715470982967552E-2</v>
+      </c>
+      <c r="AC30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.1890482532147561E-2</v>
+      </c>
+      <c r="AD30" s="41">
+        <f t="shared" si="62"/>
+        <v>1.8837508109649622E-2</v>
+      </c>
+      <c r="AE30" s="41">
+        <f t="shared" si="62"/>
+        <v>1.6966855545008448E-2</v>
+      </c>
+      <c r="AF30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.6457856816299322E-2</v>
+      </c>
+      <c r="AG30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.5385757818110467E-2</v>
+      </c>
+      <c r="AH30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.4574692694306829E-2</v>
+      </c>
+      <c r="AI30" s="41">
+        <f t="shared" si="62"/>
+        <v>2.3980169535095935E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="42">
-        <f t="shared" ref="J31:M31" si="47">J16/J15</f>
+      <c r="J31" s="41">
+        <f t="shared" ref="J31:M31" si="63">J16/J15</f>
         <v>-1.8577433628318583</v>
       </c>
-      <c r="K31" s="42">
-        <f t="shared" ref="K31" si="48">K16/K15</f>
+      <c r="K31" s="41">
+        <f t="shared" ref="K31" si="64">K16/K15</f>
         <v>3.5428870503452302E-2</v>
       </c>
-      <c r="L31" s="42">
-        <f t="shared" si="47"/>
+      <c r="L31" s="41">
+        <f t="shared" si="63"/>
         <v>9.1177378288712238E-2</v>
       </c>
-      <c r="M31" s="42">
-        <f t="shared" si="47"/>
+      <c r="M31" s="41">
+        <f t="shared" si="63"/>
         <v>19.380303030303139</v>
       </c>
-      <c r="N31" s="42">
-        <f t="shared" ref="N31:O31" si="49">N16/N15</f>
+      <c r="N31" s="41">
+        <f t="shared" ref="N31:O31" si="65">N16/N15</f>
         <v>0.63701832643628697</v>
       </c>
-      <c r="O31" s="42">
-        <f t="shared" si="49"/>
+      <c r="O31" s="41">
+        <f t="shared" si="65"/>
         <v>0.24363731670644073</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="41">
         <f>P16/P15</f>
         <v>0.2553443312827855</v>
       </c>
-      <c r="Q31" s="42">
-        <f t="shared" ref="Q31" si="50">Q16/Q15</f>
+      <c r="Q31" s="41">
+        <f t="shared" ref="Q31:R31" si="66">Q16/Q15</f>
         <v>0.41840061367341075</v>
       </c>
-      <c r="X31" s="42">
+      <c r="R31" s="75">
+        <v>0.41</v>
+      </c>
+      <c r="X31" s="41">
         <f>X16/X15</f>
         <v>0.57546949602121988</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="X32" s="42"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="75">
+        <v>0.41</v>
+      </c>
+      <c r="Z31" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="AA31" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="AB31" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="AC31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AD31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AE31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AF31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AG31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AH31" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="AI31" s="41">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="X32" s="41"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="42">
-        <f t="shared" ref="J33:O33" si="51">J11/J5</f>
+      <c r="J33" s="41">
+        <f t="shared" ref="J33:O33" si="67">J11/J5</f>
         <v>0.16807287521004688</v>
       </c>
-      <c r="K33" s="42">
-        <f t="shared" ref="K33" si="52">K11/K5</f>
+      <c r="K33" s="41">
+        <f t="shared" ref="K33" si="68">K11/K5</f>
         <v>0.24109445746311897</v>
       </c>
-      <c r="L33" s="42">
-        <f t="shared" si="51"/>
+      <c r="L33" s="41">
+        <f t="shared" si="67"/>
         <v>0.24658698781964852</v>
       </c>
-      <c r="M33" s="42">
-        <f t="shared" si="51"/>
+      <c r="M33" s="41">
+        <f t="shared" si="67"/>
         <v>0.18268969649423031</v>
       </c>
-      <c r="N33" s="42">
-        <f t="shared" si="51"/>
+      <c r="N33" s="41">
+        <f t="shared" si="67"/>
         <v>0.23290038514923386</v>
       </c>
-      <c r="O33" s="42">
-        <f t="shared" si="51"/>
+      <c r="O33" s="41">
+        <f t="shared" si="67"/>
         <v>0.1888108070164492</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="41">
         <f>P11/P5</f>
         <v>0.20148592676103677</v>
       </c>
-      <c r="Q33" s="42">
-        <f t="shared" ref="Q33" si="53">Q11/Q5</f>
+      <c r="Q33" s="41">
+        <f t="shared" ref="Q33" si="69">Q11/Q5</f>
         <v>0.18965915433322428</v>
       </c>
-      <c r="X33" s="42">
+      <c r="R33" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="X33" s="41">
         <f>X11/X5</f>
         <v>0.22472813277104781</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="48" t="s">
+      <c r="Y33" s="75">
+        <f>Y11/Y5</f>
+        <v>0.1735331975994549</v>
+      </c>
+      <c r="Z33" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="AA33" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AB33" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AC33" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AD33" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AE33" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AF33" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AG33" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AH33" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AI33" s="41">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="L34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="L35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40">
         <v>11.43</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41">
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40">
         <v>41.098999999999997</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="40">
         <v>23.36</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="40">
         <v>17.710999999999999</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41">
+      <c r="M36" s="40"/>
+      <c r="N36" s="40">
         <v>12.927</v>
       </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41">
+      <c r="O36" s="40"/>
+      <c r="P36" s="40">
         <v>32.79</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="79">
         <v>40.502000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41">
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40">
         <v>11.003</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41">
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40">
         <v>10.611000000000001</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="40">
         <v>8.2289999999999992</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="40">
         <v>7.0119999999999996</v>
       </c>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41">
+      <c r="M37" s="40"/>
+      <c r="N37" s="40">
         <v>8.2460000000000004</v>
       </c>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40">
         <v>8.8309999999999995</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="79">
         <v>6.9560000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40">
         <v>10.478</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41">
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40">
         <v>9.7509999999999994</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="40">
         <v>8.8379999999999992</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="40">
         <v>9.7880000000000003</v>
       </c>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41">
+      <c r="M38" s="40"/>
+      <c r="N38" s="40">
         <v>14.432</v>
       </c>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41">
+      <c r="O38" s="40"/>
+      <c r="P38" s="40">
         <v>2.7450000000000001</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="79">
         <v>5.12</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40">
         <v>3.2610000000000001</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41">
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40">
         <v>11.657</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="40">
         <v>8.6859999999999999</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="40">
         <v>6.3070000000000004</v>
       </c>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41">
+      <c r="M39" s="40"/>
+      <c r="N39" s="40">
         <v>8.7330000000000005</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41">
+      <c r="O39" s="40"/>
+      <c r="P39" s="40">
         <v>5.157</v>
       </c>
-      <c r="Q39" s="76">
+      <c r="Q39" s="79">
         <v>7.18</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40">
         <v>873.36400000000003</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41">
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40">
         <v>1272.6790000000001</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="40">
         <v>1009.76</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="40">
         <v>1413.329</v>
       </c>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41">
+      <c r="M40" s="40"/>
+      <c r="N40" s="40">
         <v>1194.867</v>
       </c>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41">
+      <c r="O40" s="40"/>
+      <c r="P40" s="40">
         <v>1536.3320000000001</v>
       </c>
-      <c r="Q40" s="76">
+      <c r="Q40" s="79">
         <v>1327.1690000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40">
         <v>39.863999999999997</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41">
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40">
         <v>44.734999999999999</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="40">
         <v>46.094000000000001</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="40">
         <v>45.572000000000003</v>
       </c>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41">
+      <c r="M41" s="40"/>
+      <c r="N41" s="40">
         <v>31.748999999999999</v>
       </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41">
+      <c r="O41" s="40"/>
+      <c r="P41" s="40">
         <v>59.850999999999999</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="79">
         <v>71.069999999999993</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40">
         <v>3.0739999999999998</v>
       </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41">
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40">
         <v>0.749</v>
       </c>
-      <c r="K42" s="41">
+      <c r="K42" s="40">
         <v>1.5649999999999999</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="40">
         <v>1.8460000000000001</v>
       </c>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41">
+      <c r="M42" s="40"/>
+      <c r="N42" s="40">
         <v>1.0269999999999999</v>
       </c>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41">
+      <c r="O42" s="40"/>
+      <c r="P42" s="40">
         <v>1.1359999999999999</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="79">
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40">
         <v>2.6760000000000002</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41">
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40">
         <v>3.9049999999999998</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="40">
         <v>1.44</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="40">
         <v>2.4620000000000002</v>
       </c>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41">
+      <c r="M43" s="40"/>
+      <c r="N43" s="40">
         <v>4.609</v>
       </c>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41">
+      <c r="O43" s="40"/>
+      <c r="P43" s="40">
         <v>6.1459999999999999</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="79">
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40">
         <v>5.2969999999999997</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41">
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40">
         <v>6.3259999999999996</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="40">
         <v>6.7859999999999996</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="40">
         <v>5.2830000000000004</v>
       </c>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41">
+      <c r="M44" s="40"/>
+      <c r="N44" s="40">
         <v>4.9589999999999996</v>
       </c>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41">
+      <c r="O44" s="40"/>
+      <c r="P44" s="40">
         <v>5.3140000000000001</v>
       </c>
-      <c r="Q44" s="76">
+      <c r="Q44" s="79">
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B47" s="46" t="s">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="L45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B47" s="45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="39">
         <v>155.44</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="39">
         <v>154.88200000000001</v>
       </c>
-      <c r="N48" s="40">
+      <c r="N48" s="39">
         <v>356.33199999999999</v>
       </c>
-      <c r="P48" s="40">
+      <c r="P48" s="39">
         <v>212.815</v>
       </c>
-      <c r="Q48" s="75">
+      <c r="Q48" s="78">
         <v>147.71100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="85"/>
+      <c r="Y48" s="85"/>
+    </row>
+    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J49" s="40">
+      <c r="J49" s="39">
         <v>0</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="39">
         <v>0</v>
       </c>
-      <c r="N49" s="40">
+      <c r="N49" s="39">
         <v>72.180000000000007</v>
       </c>
-      <c r="P49" s="40">
+      <c r="P49" s="39">
         <v>45.9</v>
       </c>
-      <c r="Q49" s="75">
+      <c r="Q49" s="78">
         <v>35.28</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="85"/>
+      <c r="Y49" s="85"/>
+    </row>
+    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J50" s="40">
+      <c r="J50" s="39">
         <v>406.52499999999998</v>
       </c>
-      <c r="K50" s="40">
+      <c r="K50" s="39">
         <v>440.84199999999998</v>
       </c>
-      <c r="N50" s="40">
+      <c r="N50" s="39">
         <v>14.51</v>
       </c>
-      <c r="P50" s="40">
+      <c r="P50" s="39">
         <v>118.514</v>
       </c>
-      <c r="Q50" s="75">
+      <c r="Q50" s="78">
         <v>194.62700000000001</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="85"/>
+      <c r="Y50" s="85"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="41">
+      <c r="J51" s="40">
         <v>229.20099999999999</v>
       </c>
-      <c r="K51" s="40">
+      <c r="K51" s="39">
         <v>185.37299999999999</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N51" s="40">
         <v>320.81900000000002</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="40">
         <v>379.67200000000003</v>
       </c>
-      <c r="Q51" s="76">
+      <c r="Q51" s="79">
         <v>418.30799999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="41">
+      <c r="J52" s="40">
         <v>63.945</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="40">
         <v>72.471999999999994</v>
       </c>
-      <c r="N52" s="41">
+      <c r="N52" s="40">
         <v>180.42099999999999</v>
       </c>
-      <c r="P52" s="41">
+      <c r="P52" s="40">
         <v>196.75399999999999</v>
       </c>
-      <c r="Q52" s="76">
+      <c r="Q52" s="79">
         <v>168.673</v>
       </c>
     </row>
-    <row r="53" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J53" s="40">
+      <c r="J53" s="39">
         <v>89.957999999999998</v>
       </c>
-      <c r="K53" s="40">
+      <c r="K53" s="39">
         <v>89.656999999999996</v>
       </c>
-      <c r="N53" s="40">
+      <c r="N53" s="39">
         <v>108.688</v>
       </c>
-      <c r="P53" s="40">
+      <c r="P53" s="39">
         <v>154.297</v>
       </c>
-      <c r="Q53" s="75">
+      <c r="Q53" s="78">
         <v>173.04599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="85"/>
+      <c r="Y53" s="85"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J54" s="41">
+      <c r="J54" s="40">
         <v>36.883000000000003</v>
       </c>
-      <c r="K54" s="41">
+      <c r="K54" s="40">
         <v>43.063000000000002</v>
       </c>
-      <c r="N54" s="41">
+      <c r="N54" s="40">
         <v>56.54</v>
       </c>
-      <c r="P54" s="41">
+      <c r="P54" s="40">
         <v>61.838999999999999</v>
       </c>
-      <c r="Q54" s="76">
+      <c r="Q54" s="79">
         <v>68.055999999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J55" s="41">
+      <c r="J55" s="40">
         <f>SUM(J48:J54)</f>
         <v>981.952</v>
       </c>
-      <c r="K55" s="41">
+      <c r="K55" s="40">
         <f>SUM(K48:K54)</f>
         <v>986.28899999999999</v>
       </c>
-      <c r="N55" s="41">
+      <c r="N55" s="40">
         <f>SUM(N48:N54)</f>
         <v>1109.49</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="40">
         <f>SUM(P48:P54)</f>
         <v>1169.7909999999999</v>
       </c>
-      <c r="Q55" s="41">
+      <c r="Q55" s="40">
         <f>SUM(Q48:Q54)</f>
         <v>1205.701</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="41">
+      <c r="J56" s="40">
         <v>105.494</v>
       </c>
-      <c r="K56" s="41">
+      <c r="K56" s="40">
         <v>112.119</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <v>138.45699999999999</v>
       </c>
-      <c r="P56" s="41">
+      <c r="P56" s="40">
         <v>157.916</v>
       </c>
-      <c r="Q56" s="76">
+      <c r="Q56" s="79">
         <v>164.16</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J57" s="41">
+      <c r="J57" s="40">
         <v>45.77</v>
       </c>
-      <c r="K57" s="41">
+      <c r="K57" s="40">
         <v>46.402999999999999</v>
       </c>
-      <c r="N57" s="41">
+      <c r="N57" s="40">
         <v>127.193</v>
       </c>
-      <c r="P57" s="41">
+      <c r="P57" s="40">
         <v>100.548</v>
       </c>
-      <c r="Q57" s="76">
+      <c r="Q57" s="79">
         <v>96.355000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J58" s="41">
+      <c r="J58" s="40">
         <f>9.448+25.205</f>
         <v>34.652999999999999</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="40">
         <f>8.642+25.194</f>
         <v>33.835999999999999</v>
       </c>
-      <c r="N58" s="41">
+      <c r="N58" s="40">
         <f>15.47+43.592</f>
         <v>59.061999999999998</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="40">
         <f>13.934+45.004</f>
         <v>58.937999999999995</v>
       </c>
-      <c r="Q58" s="76">
+      <c r="Q58" s="79">
         <f>13.039+44.819</f>
         <v>57.858000000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J59" s="39">
         <v>90.680999999999997</v>
       </c>
-      <c r="K59" s="40">
+      <c r="K59" s="39">
         <v>78.463999999999999</v>
       </c>
-      <c r="N59" s="40">
+      <c r="N59" s="39">
         <v>31.231999999999999</v>
       </c>
-      <c r="P59" s="40">
+      <c r="P59" s="39">
         <v>24.925000000000001</v>
       </c>
-      <c r="Q59" s="75">
+      <c r="Q59" s="78">
         <v>28.536000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="85"/>
+      <c r="Y59" s="85"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J60" s="41">
+      <c r="J60" s="40">
         <v>22.457000000000001</v>
       </c>
-      <c r="K60" s="41">
+      <c r="K60" s="40">
         <v>18.545999999999999</v>
       </c>
-      <c r="N60" s="41">
+      <c r="N60" s="40">
         <v>11.256</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="40">
         <v>8.9920000000000009</v>
       </c>
-      <c r="Q60" s="76">
+      <c r="Q60" s="79">
         <v>8.4619999999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J61" s="41">
+      <c r="J61" s="40">
         <v>20.099</v>
       </c>
-      <c r="K61" s="41">
+      <c r="K61" s="40">
         <v>26.341000000000001</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="40">
         <v>29.753</v>
       </c>
-      <c r="P61" s="41">
+      <c r="P61" s="40">
         <v>28.24</v>
       </c>
-      <c r="Q61" s="76">
+      <c r="Q61" s="79">
         <v>48.387999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J62" s="41">
+      <c r="J62" s="40">
         <v>11.711</v>
       </c>
-      <c r="K62" s="41">
+      <c r="K62" s="40">
         <v>0</v>
       </c>
-      <c r="N62" s="41">
+      <c r="N62" s="40">
         <v>83.52</v>
       </c>
-      <c r="P62" s="41">
+      <c r="P62" s="40">
         <v>281.69099999999997</v>
       </c>
-      <c r="Q62" s="76">
+      <c r="Q62" s="79">
         <v>290.32900000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J63" s="41">
+      <c r="J63" s="40">
         <v>68.206000000000003</v>
       </c>
-      <c r="K63" s="41">
+      <c r="K63" s="40">
         <v>102.92</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N63" s="40">
         <v>98.247</v>
       </c>
-      <c r="P63" s="41">
+      <c r="P63" s="40">
         <v>100.982</v>
       </c>
-      <c r="Q63" s="76">
+      <c r="Q63" s="79">
         <v>110.643</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J64" s="41">
+      <c r="J64" s="40">
         <f>J55+SUM(J56:J63)</f>
         <v>1381.0230000000001</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="40">
         <f>K55+SUM(K56:K63)</f>
         <v>1404.9180000000001</v>
       </c>
-      <c r="N64" s="41">
+      <c r="N64" s="40">
         <f>N55+SUM(N56:N63)</f>
         <v>1688.21</v>
       </c>
-      <c r="P64" s="41">
+      <c r="P64" s="40">
         <f>P55+SUM(P56:P63)</f>
         <v>1932.0229999999999</v>
       </c>
-      <c r="Q64" s="41">
+      <c r="Q64" s="40">
         <f>Q55+SUM(Q56:Q63)</f>
         <v>2010.432</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="76"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="79"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="41">
+      <c r="J66" s="40">
         <v>24.141999999999999</v>
       </c>
-      <c r="K66" s="41">
+      <c r="K66" s="40">
         <v>19.791</v>
       </c>
-      <c r="N66" s="41">
+      <c r="N66" s="40">
         <v>32.22</v>
       </c>
-      <c r="P66" s="50">
+      <c r="P66" s="52">
         <v>60.689</v>
       </c>
-      <c r="Q66" s="76">
+      <c r="Q66" s="79">
         <v>50.192999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J67" s="41">
+      <c r="J67" s="40">
         <v>59.843000000000004</v>
       </c>
-      <c r="K67" s="41">
+      <c r="K67" s="40">
         <v>41.097000000000001</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <v>103.70699999999999</v>
       </c>
-      <c r="P67" s="50">
+      <c r="P67" s="52">
         <v>100.98</v>
       </c>
-      <c r="Q67" s="76">
+      <c r="Q67" s="79">
         <v>112.76600000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J68" s="41">
+      <c r="J68" s="40">
         <v>163.959</v>
       </c>
-      <c r="K68" s="41">
+      <c r="K68" s="40">
         <v>165.08600000000001</v>
       </c>
-      <c r="N68" s="41">
+      <c r="N68" s="40">
         <v>265.59100000000001</v>
       </c>
-      <c r="P68" s="50">
+      <c r="P68" s="52">
         <v>253.185</v>
       </c>
-      <c r="Q68" s="76">
+      <c r="Q68" s="79">
         <v>246.46600000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J69" s="40">
+      <c r="J69" s="39">
         <v>2.956</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="39">
         <v>8.1340000000000003</v>
       </c>
-      <c r="N69" s="40">
+      <c r="N69" s="39">
         <v>10.462999999999999</v>
       </c>
-      <c r="P69" s="49">
+      <c r="P69" s="51">
         <v>11.33</v>
       </c>
-      <c r="Q69" s="75">
+      <c r="Q69" s="78">
         <v>15.317</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="85"/>
+      <c r="Y69" s="85"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="40">
         <v>5.431</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K70" s="40">
         <v>5.6669999999999998</v>
       </c>
-      <c r="N70" s="41">
+      <c r="N70" s="40">
         <v>6.54</v>
       </c>
-      <c r="P70" s="50">
+      <c r="P70" s="52">
         <v>6.7869999999999999</v>
       </c>
-      <c r="Q70" s="76">
+      <c r="Q70" s="79">
         <v>6.8010000000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="40">
         <f>SUM(J66:J70)</f>
         <v>256.33100000000002</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="40">
         <f>SUM(K66:K70)</f>
         <v>239.77500000000001</v>
       </c>
-      <c r="N71" s="41">
+      <c r="N71" s="40">
         <f>SUM(N66:N70)</f>
         <v>418.52100000000007</v>
       </c>
-      <c r="P71" s="50">
+      <c r="P71" s="52">
         <f>SUM(P66:P70)</f>
         <v>432.971</v>
       </c>
-      <c r="Q71" s="41">
+      <c r="Q71" s="40">
         <f>SUM(Q66:Q70)</f>
         <v>431.54300000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="40">
         <v>111.22199999999999</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="40">
         <v>116.107</v>
       </c>
-      <c r="N72" s="41">
+      <c r="N72" s="40">
         <v>185.721</v>
       </c>
-      <c r="P72" s="50">
+      <c r="P72" s="52">
         <v>269.47699999999998</v>
       </c>
-      <c r="Q72" s="76">
+      <c r="Q72" s="79">
         <v>313.82299999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J73" s="41">
+      <c r="J73" s="40">
         <v>4.5030000000000001</v>
       </c>
-      <c r="K73" s="41">
+      <c r="K73" s="40">
         <v>4.6970000000000001</v>
       </c>
-      <c r="N73" s="41">
+      <c r="N73" s="40">
         <v>3.7970000000000002</v>
       </c>
-      <c r="P73" s="50">
+      <c r="P73" s="52">
         <v>7.6920000000000002</v>
       </c>
-      <c r="Q73" s="76">
+      <c r="Q73" s="79">
         <v>7.3170000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J74" s="41">
+      <c r="J74" s="40">
         <v>4.7320000000000002</v>
       </c>
-      <c r="K74" s="41">
+      <c r="K74" s="40">
         <v>4.8250000000000002</v>
       </c>
-      <c r="N74" s="41">
+      <c r="N74" s="40">
         <v>5.6790000000000003</v>
       </c>
-      <c r="P74" s="50">
+      <c r="P74" s="52">
         <v>5.5170000000000003</v>
       </c>
-      <c r="Q74" s="76">
+      <c r="Q74" s="79">
         <v>5.3689999999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J75" s="41">
+      <c r="J75" s="40">
         <v>0.64900000000000002</v>
       </c>
-      <c r="K75" s="41">
+      <c r="K75" s="40">
         <v>0.68400000000000005</v>
       </c>
-      <c r="N75" s="41">
+      <c r="N75" s="40">
         <v>0.81100000000000005</v>
       </c>
-      <c r="P75" s="50">
+      <c r="P75" s="52">
         <v>1E-3</v>
       </c>
-      <c r="Q75" s="76">
+      <c r="Q75" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="41">
+      <c r="J76" s="40">
         <v>0</v>
       </c>
-      <c r="K76" s="41">
+      <c r="K76" s="40">
         <v>0</v>
       </c>
-      <c r="N76" s="41">
+      <c r="N76" s="40">
         <v>20.440000000000001</v>
       </c>
-      <c r="P76" s="50">
+      <c r="P76" s="52">
         <v>18.21</v>
       </c>
-      <c r="Q76" s="76">
+      <c r="Q76" s="79">
         <v>16.311</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J77" s="41">
+      <c r="J77" s="40">
         <v>27.331</v>
       </c>
-      <c r="K77" s="41">
+      <c r="K77" s="40">
         <v>27.866</v>
       </c>
-      <c r="N77" s="41">
+      <c r="N77" s="40">
         <v>5.9320000000000004</v>
       </c>
-      <c r="P77" s="50">
+      <c r="P77" s="52">
         <v>4.5039999999999996</v>
       </c>
-      <c r="Q77" s="76">
+      <c r="Q77" s="79">
         <v>4.7729999999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="41">
+      <c r="J78" s="40">
         <f>J71+SUM(J72:J77)</f>
         <v>404.76800000000003</v>
       </c>
-      <c r="K78" s="41">
+      <c r="K78" s="40">
         <f>K71+SUM(K72:K77)</f>
         <v>393.95400000000001</v>
       </c>
-      <c r="N78" s="41">
+      <c r="N78" s="40">
         <f>N71+SUM(N72:N77)</f>
         <v>640.90100000000007</v>
       </c>
-      <c r="P78" s="50">
+      <c r="P78" s="52">
         <f>P71+SUM(P72:P77)</f>
         <v>738.37199999999996</v>
       </c>
-      <c r="Q78" s="41">
+      <c r="Q78" s="40">
         <f>Q71+SUM(Q72:Q77)</f>
         <v>779.14599999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="N79" s="41"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="N79" s="40"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="40">
         <v>1381.0229999999999</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="40">
         <v>1010.904</v>
       </c>
-      <c r="N80" s="41">
+      <c r="N80" s="40">
         <v>1047.8489999999999</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="40">
         <v>1193.6510000000001</v>
       </c>
-      <c r="Q80" s="76">
+      <c r="Q80" s="79">
         <v>1231.3130000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J81" s="41">
+      <c r="J81" s="40">
         <f>J80+J78</f>
         <v>1785.7909999999999</v>
       </c>
-      <c r="K81" s="41">
+      <c r="K81" s="40">
         <f>K80+K78</f>
         <v>1404.8579999999999</v>
       </c>
-      <c r="N81" s="41">
+      <c r="N81" s="40">
         <f>N80+N78</f>
         <v>1688.75</v>
       </c>
-      <c r="P81" s="41">
+      <c r="P81" s="40">
         <f>P80+P78</f>
         <v>1932.0230000000001</v>
       </c>
-      <c r="Q81" s="41">
+      <c r="Q81" s="40">
         <f>Q80+Q78</f>
         <v>2010.4590000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="N82" s="41"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="N82" s="40"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J83" s="41">
+      <c r="J83" s="40">
         <f>J64-J78</f>
         <v>976.25500000000011</v>
       </c>
-      <c r="K83" s="41">
+      <c r="K83" s="40">
         <f>K64-K78</f>
         <v>1010.9640000000002</v>
       </c>
-      <c r="N83" s="41">
+      <c r="N83" s="40">
         <f>N64-N78</f>
         <v>1047.309</v>
       </c>
-      <c r="P83" s="41">
+      <c r="P83" s="40">
         <f>P64-P78</f>
         <v>1193.6509999999998</v>
       </c>
-      <c r="Q83" s="41">
-        <f t="shared" ref="Q83" si="54">Q64-Q78</f>
+      <c r="Q83" s="40">
+        <f t="shared" ref="Q83" si="70">Q64-Q78</f>
         <v>1231.2860000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J84" s="41">
+      <c r="J84" s="40">
         <f>J83/J19</f>
         <v>15.340514464400762</v>
       </c>
-      <c r="K84" s="41">
+      <c r="K84" s="40">
         <f>K83/K19</f>
         <v>15.78743206946093</v>
       </c>
-      <c r="N84" s="41">
+      <c r="N84" s="40">
         <f>N83/N19</f>
         <v>15.110503534843456</v>
       </c>
-      <c r="P84" s="41">
+      <c r="P84" s="40">
         <f>P83/P19</f>
         <v>16.802519707207203</v>
       </c>
-      <c r="Q84" s="41">
-        <f t="shared" ref="Q84" si="55">Q83/Q19</f>
+      <c r="Q84" s="40">
+        <f t="shared" ref="Q84" si="71">Q83/Q19</f>
         <v>17.315960453963747</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K87" s="43">
+      <c r="K87" s="42">
         <f>K53/J53-1</f>
         <v>-3.3460059138709086E-3</v>
       </c>
-      <c r="N87" s="43">
+      <c r="N87" s="42">
         <f>N53/J53-1</f>
         <v>0.20820827497276517</v>
       </c>
-      <c r="Q87" s="78"/>
-    </row>
-    <row r="89" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="36" t="s">
+      <c r="Q87" s="81"/>
+      <c r="R87" s="85"/>
+      <c r="Y87" s="85"/>
+    </row>
+    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="38">
         <f>J48+J49+J50</f>
         <v>561.96499999999992</v>
       </c>
-      <c r="K89" s="39">
-        <f t="shared" ref="K89" si="56">K48+K49+K50</f>
+      <c r="K89" s="38">
+        <f t="shared" ref="K89" si="72">K48+K49+K50</f>
         <v>595.72399999999993</v>
       </c>
-      <c r="N89" s="39">
+      <c r="N89" s="38">
         <f>N48+N49+N50</f>
         <v>443.02199999999999</v>
       </c>
-      <c r="P89" s="39">
+      <c r="P89" s="38">
         <f>P48+P49+P50</f>
         <v>377.22899999999998</v>
       </c>
-      <c r="Q89" s="39">
-        <f t="shared" ref="Q89" si="57">Q48+Q49+Q50</f>
+      <c r="Q89" s="38">
+        <f t="shared" ref="Q89" si="73">Q48+Q49+Q50</f>
         <v>377.61800000000005</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="36" t="s">
+      <c r="R89" s="48"/>
+      <c r="Y89" s="48"/>
+    </row>
+    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="36">
+      <c r="J90" s="35">
         <v>0</v>
       </c>
-      <c r="K90" s="36">
+      <c r="K90" s="35">
         <v>0</v>
       </c>
-      <c r="N90" s="36">
+      <c r="N90" s="35">
         <v>0</v>
       </c>
-      <c r="P90" s="36">
+      <c r="P90" s="35">
         <v>0</v>
       </c>
-      <c r="Q90" s="36">
+      <c r="Q90" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="48"/>
+      <c r="Y90" s="48"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="41">
+      <c r="J91" s="40">
         <f>J89-J90</f>
         <v>561.96499999999992</v>
       </c>
-      <c r="K91" s="41">
-        <f t="shared" ref="K91" si="58">K89-K90</f>
+      <c r="K91" s="40">
+        <f t="shared" ref="K91" si="74">K89-K90</f>
         <v>595.72399999999993</v>
       </c>
-      <c r="N91" s="41">
+      <c r="N91" s="40">
         <f>N89-N90</f>
         <v>443.02199999999999</v>
       </c>
-      <c r="P91" s="41">
+      <c r="P91" s="40">
         <f>P89-P90</f>
         <v>377.22899999999998</v>
       </c>
-      <c r="Q91" s="41">
-        <f t="shared" ref="Q91" si="59">Q89-Q90</f>
+      <c r="Q91" s="40">
+        <f t="shared" ref="Q91" si="75">Q89-Q90</f>
         <v>377.61800000000005</v>
       </c>
     </row>
-    <row r="93" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="44" t="s">
+    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="J93" s="44">
+      <c r="J93" s="43">
         <v>122.53</v>
       </c>
-      <c r="K93" s="44">
+      <c r="K93" s="43">
         <v>142.41999999999999</v>
       </c>
-      <c r="L93" s="44">
+      <c r="L93" s="43">
         <v>176.8</v>
       </c>
-      <c r="M93" s="44">
+      <c r="M93" s="43">
         <v>175.02</v>
       </c>
-      <c r="N93" s="44">
+      <c r="N93" s="43">
         <v>157</v>
       </c>
-      <c r="O93" s="44">
+      <c r="O93" s="43">
         <v>137.72999999999999</v>
       </c>
-      <c r="P93" s="44">
+      <c r="P93" s="43">
         <v>93.17</v>
       </c>
-      <c r="Q93" s="80">
+      <c r="Q93" s="83">
         <v>115.75</v>
       </c>
-    </row>
-    <row r="94" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="41" t="s">
+      <c r="R93" s="86"/>
+      <c r="Y93" s="86"/>
+    </row>
+    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J94" s="41">
-        <f t="shared" ref="J94:O94" si="60">J93*J19</f>
+      <c r="J94" s="40">
+        <f t="shared" ref="J94:O94" si="76">J93*J19</f>
         <v>7797.68667</v>
       </c>
-      <c r="K94" s="41">
-        <f t="shared" ref="K94" si="61">K93*K19</f>
+      <c r="K94" s="40">
+        <f t="shared" ref="K94" si="77">K93*K19</f>
         <v>9120.0071200000002</v>
       </c>
-      <c r="L94" s="41">
-        <f t="shared" si="60"/>
+      <c r="L94" s="40">
+        <f t="shared" si="76"/>
         <v>11521.3488</v>
       </c>
-      <c r="M94" s="41">
-        <f t="shared" si="60"/>
+      <c r="M94" s="40">
+        <f t="shared" si="76"/>
         <v>11584.923839999999</v>
       </c>
-      <c r="N94" s="41">
-        <f t="shared" si="60"/>
+      <c r="N94" s="40">
+        <f t="shared" si="76"/>
         <v>10881.67</v>
       </c>
-      <c r="O94" s="41">
-        <f t="shared" si="60"/>
+      <c r="O94" s="40">
+        <f t="shared" si="76"/>
         <v>9771.9434999999994</v>
       </c>
-      <c r="P94" s="41">
+      <c r="P94" s="40">
         <f>P93*P19</f>
         <v>6618.796800000001</v>
       </c>
-      <c r="Q94" s="41">
-        <f t="shared" ref="Q94" si="62">Q93*Q19</f>
+      <c r="Q94" s="40">
+        <f t="shared" ref="Q94" si="78">Q93*Q19</f>
         <v>8230.6352499999994</v>
       </c>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="47"/>
+      <c r="Y94" s="47"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="41">
+      <c r="J95" s="40">
         <f>J94-J91</f>
         <v>7235.7216699999999</v>
       </c>
-      <c r="K95" s="41">
-        <f t="shared" ref="K95" si="63">K94-K91</f>
+      <c r="K95" s="40">
+        <f t="shared" ref="K95" si="79">K94-K91</f>
         <v>8524.2831200000001</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <f>N94-N91</f>
         <v>10438.647999999999</v>
       </c>
-      <c r="P95" s="41">
+      <c r="P95" s="40">
         <f>P94-P91</f>
         <v>6241.5678000000007</v>
       </c>
-      <c r="Q95" s="41">
-        <f t="shared" ref="Q95" si="64">Q94-Q91</f>
+      <c r="Q95" s="40">
+        <f t="shared" ref="Q95" si="80">Q94-Q91</f>
         <v>7853.017249999999</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="57">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A97" s="59">
         <f>AVERAGE(C97:AG97)</f>
         <v>10.162747205497784</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M97" s="54">
-        <f t="shared" ref="M97:O97" si="65">M94/SUM(J5:M5)</f>
+      <c r="M97" s="56">
+        <f t="shared" ref="M97:O97" si="81">M94/SUM(J5:M5)</f>
         <v>13.2863316065385</v>
       </c>
-      <c r="N97" s="54">
-        <f t="shared" si="65"/>
+      <c r="N97" s="56">
+        <f t="shared" si="81"/>
         <v>12.603555093290217</v>
       </c>
-      <c r="O97" s="54">
-        <f t="shared" si="65"/>
+      <c r="O97" s="56">
+        <f t="shared" si="81"/>
         <v>10.566685013213839</v>
       </c>
-      <c r="P97" s="54">
+      <c r="P97" s="56">
         <f>P94/SUM(M5:P5)</f>
         <v>6.6748252834291053</v>
       </c>
-      <c r="Q97" s="54">
-        <f t="shared" ref="Q97" si="66">Q94/SUM(N5:Q5)</f>
+      <c r="Q97" s="56">
+        <f t="shared" ref="Q97" si="82">Q94/SUM(N5:Q5)</f>
         <v>7.682339031017265</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="57">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="59">
         <f>AVERAGE(C98:AG98)</f>
         <v>62.447808359934214</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54">
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
+      <c r="P98" s="56">
         <f>P93/SUM(M18:P18)</f>
         <v>45.933448974360083</v>
       </c>
-      <c r="Q98" s="54">
+      <c r="Q98" s="56">
         <f>Q93/SUM(N18:Q18)</f>
         <v>78.962167745508339</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="57">
+    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="59">
         <f>AVERAGE(C99:AG99)</f>
         <v>7.925631151755125</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="54">
+      <c r="J99" s="56">
         <f>J93/J84</f>
         <v>7.9873462056532354</v>
       </c>
-      <c r="K99" s="54">
-        <f t="shared" ref="K99" si="67">K93/K84</f>
+      <c r="K99" s="56">
+        <f t="shared" ref="K99" si="83">K93/K84</f>
         <v>9.021099781990257</v>
       </c>
-      <c r="N99" s="54">
+      <c r="N99" s="56">
         <f>N93/N84</f>
         <v>10.390123640682932</v>
       </c>
-      <c r="P99" s="54">
+      <c r="P99" s="56">
         <f>P93/P84</f>
         <v>5.545001679720456</v>
       </c>
-      <c r="Q99" s="54">
-        <f t="shared" ref="Q99" si="68">Q93/Q84</f>
+      <c r="Q99" s="56">
+        <f t="shared" ref="Q99" si="84">Q93/Q84</f>
         <v>6.6845844507287495</v>
       </c>
+      <c r="R99" s="87"/>
+      <c r="Y99" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4709,8 +5889,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="X3:X4 X16 X6:X14" formulaRange="1"/>
+    <ignoredError sqref="X3:X4 X16 X6:X14 R14" formulaRange="1"/>
     <ignoredError sqref="X15 X5" formula="1" formulaRange="1"/>
+    <ignoredError sqref="Y5 Y9 R16 Y15" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB67E4B-1BC3-407F-912E-03DE6D34E469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A9C6A-8C08-7747-ABA7-D33D73713413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Financial Model'!$U$5:$AI$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Financial Model'!$U$5:$AI$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -135,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>$AXON</t>
   </si>
@@ -605,9 +619,6 @@
     <t>Q419</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>US Secret Service</t>
   </si>
   <si>
@@ -663,17 +674,19 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -919,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1024,43 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1082,15 +1058,57 @@
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1582,57 +1600,57 @@
   <dimension ref="A2:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="G5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="R5" s="62" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="R5" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="X5" s="62" t="s">
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="X5" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="64"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="79"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1657,13 +1675,13 @@
       <c r="T6" s="25"/>
       <c r="U6" s="26"/>
       <c r="X6" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1691,13 +1709,13 @@
       <c r="T7" s="25"/>
       <c r="U7" s="26"/>
       <c r="X7" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1727,7 +1745,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1777,7 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1813,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1841,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1867,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1867,7 +1885,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1885,12 +1903,12 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B15" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1908,17 +1926,17 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="83"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1936,17 +1954,17 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1964,14 +1982,14 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1987,14 +2005,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="85"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2012,7 +2030,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2030,7 +2048,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2048,12 +2066,12 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B22" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2069,14 +2087,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="83"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2094,14 +2112,14 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="82">
         <v>1993</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="83"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2119,10 +2137,10 @@
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B25" s="18"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="G25" s="54">
         <v>43221</v>
       </c>
@@ -2144,10 +2162,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B26" s="18"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2163,7 +2181,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
@@ -2188,14 +2206,14 @@
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="61"/>
+      <c r="C28" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="87"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2217,7 +2235,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="R29" s="31" t="s">
         <v>51</v>
       </c>
@@ -2225,66 +2243,71 @@
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B31" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="88">
         <f>C8/SUM('Financial Model'!N5:Q5)</f>
         <v>12.532665911248298</v>
       </c>
-      <c r="D32" s="66"/>
+      <c r="D32" s="89"/>
       <c r="R32" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="88">
         <f>C6/'Financial Model'!Q84</f>
         <v>10.904968309556024</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="89"/>
       <c r="R33" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="R34" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R36" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
@@ -2299,11 +2322,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{79BCDA43-1DBD-4865-999E-0DD05314FB66}"/>
@@ -2320,27 +2338,28 @@
   <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="V10:W10"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="80"/>
-    <col min="18" max="18" width="9.140625" style="48"/>
-    <col min="19" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="9.140625" style="48"/>
-    <col min="26" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="9.1640625" style="65"/>
+    <col min="18" max="18" width="9.1640625" style="48"/>
+    <col min="19" max="24" width="9.1640625" style="1"/>
+    <col min="25" max="25" width="9.1640625" style="48"/>
+    <col min="26" max="36" width="9.1640625" style="1"/>
+    <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="34" t="s">
         <v>152</v>
       </c>
@@ -2383,10 +2402,10 @@
       <c r="P1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="69" t="s">
         <v>97</v>
       </c>
       <c r="U1" s="34" t="s">
@@ -2395,47 +2414,47 @@
       <c r="V1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="49" t="s">
         <v>86</v>
       </c>
       <c r="X1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="69" t="s">
         <v>88</v>
       </c>
       <c r="Z1" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="AI1" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2465,12 +2484,21 @@
       <c r="P2" s="37">
         <v>44742</v>
       </c>
-      <c r="Q2" s="82">
+      <c r="Q2" s="67">
         <v>44834</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>58</v>
       </c>
+      <c r="U2" s="37">
+        <v>43465</v>
+      </c>
+      <c r="V2" s="37">
+        <v>43830</v>
+      </c>
+      <c r="W2" s="37">
+        <v>44196</v>
+      </c>
       <c r="X2" s="37">
         <v>44561</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
@@ -2503,13 +2531,22 @@
       <c r="P3" s="38">
         <v>200.05099999999999</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="62">
         <v>210.398</v>
       </c>
       <c r="R3" s="47">
         <f>Q3*1.08</f>
         <v>227.22984000000002</v>
       </c>
+      <c r="U3" s="38">
+        <v>327.63499999999999</v>
+      </c>
+      <c r="V3" s="38">
+        <v>399.47399999999999</v>
+      </c>
+      <c r="W3" s="38">
+        <v>500.25</v>
+      </c>
       <c r="X3" s="38">
         <f>SUM(K3:N3)</f>
         <v>608.52499999999998</v>
@@ -2519,7 +2556,7 @@
         <v>813.88283999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
@@ -2544,13 +2581,22 @@
       <c r="P4" s="38">
         <v>85.561999999999998</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="62">
         <v>101.35599999999999</v>
       </c>
       <c r="R4" s="47">
         <f>Q4*1.13</f>
         <v>114.53227999999999</v>
       </c>
+      <c r="U4" s="38">
+        <v>92.433000000000007</v>
+      </c>
+      <c r="V4" s="38">
+        <v>131.386</v>
+      </c>
+      <c r="W4" s="38">
+        <v>180.75299999999999</v>
+      </c>
       <c r="X4" s="38">
         <f>SUM(K4:N4)</f>
         <v>254.85599999999999</v>
@@ -2560,7 +2606,7 @@
         <v>381.67228</v>
       </c>
     </row>
-    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
@@ -2596,15 +2642,27 @@
         <f t="shared" si="0"/>
         <v>311.75400000000002</v>
       </c>
-      <c r="R5" s="88">
+      <c r="R5" s="73">
         <f t="shared" si="0"/>
         <v>341.76211999999998</v>
+      </c>
+      <c r="U5" s="39">
+        <f t="shared" ref="U5:W5" si="1">U3+U4</f>
+        <v>420.06799999999998</v>
+      </c>
+      <c r="V5" s="39">
+        <f t="shared" si="1"/>
+        <v>530.86</v>
+      </c>
+      <c r="W5" s="39">
+        <f t="shared" si="1"/>
+        <v>681.00299999999993</v>
       </c>
       <c r="X5" s="39">
         <f>X3+X4</f>
         <v>863.38099999999997</v>
       </c>
-      <c r="Y5" s="88">
+      <c r="Y5" s="73">
         <f>Y3+Y4</f>
         <v>1195.55512</v>
       </c>
@@ -2613,43 +2671,43 @@
         <v>1673.7771679999998</v>
       </c>
       <c r="AA5" s="39">
-        <f t="shared" ref="AA5:AI5" si="1">Z5*(1+AA21)</f>
+        <f t="shared" ref="AA5:AI5" si="2">Z5*(1+AA21)</f>
         <v>2343.2880351999997</v>
       </c>
       <c r="AB5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3233.7374885759996</v>
       </c>
       <c r="AC5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4397.8829844633592</v>
       </c>
       <c r="AD5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5981.1208588701684</v>
       </c>
       <c r="AE5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8074.5131594747281</v>
       </c>
       <c r="AF5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10900.592765290883</v>
       </c>
       <c r="AG5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14715.800233142692</v>
       </c>
       <c r="AH5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19866.330314742638</v>
       </c>
       <c r="AI5" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26819.545924902563</v>
       </c>
     </row>
-    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
@@ -2674,18 +2732,26 @@
       <c r="P6" s="38">
         <v>87.501999999999995</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="62">
         <v>93.724000000000004</v>
       </c>
       <c r="R6" s="48"/>
-      <c r="U6" s="90"/>
+      <c r="U6" s="38">
+        <v>139.33699999999999</v>
+      </c>
+      <c r="V6" s="38">
+        <v>190.68299999999999</v>
+      </c>
+      <c r="W6" s="38">
+        <v>224.131</v>
+      </c>
       <c r="X6" s="38">
         <f>SUM(K6:N6)</f>
         <v>260.09799999999996</v>
       </c>
       <c r="Y6" s="47"/>
     </row>
-    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="36" t="s">
         <v>68</v>
       </c>
@@ -2710,17 +2776,26 @@
       <c r="P7" s="38">
         <v>24.148</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="62">
         <v>24.773</v>
       </c>
       <c r="R7" s="48"/>
+      <c r="U7" s="38">
+        <v>22.148</v>
+      </c>
+      <c r="V7" s="38">
+        <v>32.890999999999998</v>
+      </c>
+      <c r="W7" s="38">
+        <v>40.540999999999997</v>
+      </c>
       <c r="X7" s="38">
         <f>SUM(K7:N7)</f>
         <v>62.373000000000005</v>
       </c>
       <c r="Y7" s="47"/>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2729,7 +2804,7 @@
         <v>84.834000000000003</v>
       </c>
       <c r="K8" s="40">
-        <f t="shared" ref="K8" si="2">K6+K7</f>
+        <f t="shared" ref="K8" si="3">K6+K7</f>
         <v>71.665999999999997</v>
       </c>
       <c r="L8" s="40">
@@ -2737,7 +2812,7 @@
         <v>80.866</v>
       </c>
       <c r="M8" s="40">
-        <f t="shared" ref="M8" si="3">M6+M7</f>
+        <f t="shared" ref="M8" si="4">M6+M7</f>
         <v>87.421999999999997</v>
       </c>
       <c r="N8" s="40">
@@ -2753,13 +2828,25 @@
         <v>111.64999999999999</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" ref="Q8" si="4">Q6+Q7</f>
+        <f t="shared" ref="Q8" si="5">Q6+Q7</f>
         <v>118.497</v>
       </c>
       <c r="R8" s="47">
         <f>R5*(1-R28)</f>
         <v>129.8696056</v>
       </c>
+      <c r="U8" s="40">
+        <f t="shared" ref="U8" si="6">U6+U7</f>
+        <v>161.48499999999999</v>
+      </c>
+      <c r="V8" s="40">
+        <f t="shared" ref="V8:W8" si="7">V6+V7</f>
+        <v>223.57399999999998</v>
+      </c>
+      <c r="W8" s="40">
+        <f t="shared" si="7"/>
+        <v>264.67200000000003</v>
+      </c>
       <c r="X8" s="40">
         <f>X6+X7</f>
         <v>322.47099999999995</v>
@@ -2773,43 +2860,43 @@
         <v>636.03532383999993</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" ref="AA8:AI8" si="5">AA5*(1-AA28)</f>
+        <f t="shared" ref="AA8:AI8" si="8">AA5*(1-AA28)</f>
         <v>867.01657302399985</v>
       </c>
       <c r="AB8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1196.4828707731199</v>
       </c>
       <c r="AC8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1627.2167042514429</v>
       </c>
       <c r="AD8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2213.0147177819622</v>
       </c>
       <c r="AE8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2987.5698690056493</v>
       </c>
       <c r="AF8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4033.2193231576266</v>
       </c>
       <c r="AG8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5444.8460862627962</v>
       </c>
       <c r="AH8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7350.5422164547763</v>
       </c>
       <c r="AI8" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9923.2319922139486</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2818,7 +2905,7 @@
         <v>141.30600000000001</v>
       </c>
       <c r="K9" s="39">
-        <f t="shared" ref="K9" si="6">K5-K8</f>
+        <f t="shared" ref="K9" si="9">K5-K8</f>
         <v>123.35300000000001</v>
       </c>
       <c r="L9" s="39">
@@ -2826,7 +2913,7 @@
         <v>137.92899999999997</v>
       </c>
       <c r="M9" s="39">
-        <f t="shared" ref="M9" si="7">M5-M8</f>
+        <f t="shared" ref="M9" si="10">M5-M8</f>
         <v>144.56700000000001</v>
       </c>
       <c r="N9" s="39">
@@ -2842,18 +2929,30 @@
         <v>173.96300000000002</v>
       </c>
       <c r="Q9" s="39">
-        <f t="shared" ref="Q9:R9" si="8">Q5-Q8</f>
+        <f t="shared" ref="Q9:R9" si="11">Q5-Q8</f>
         <v>193.25700000000001</v>
       </c>
-      <c r="R9" s="88">
-        <f t="shared" si="8"/>
+      <c r="R9" s="73">
+        <f t="shared" si="11"/>
         <v>211.89251439999998</v>
+      </c>
+      <c r="U9" s="39">
+        <f t="shared" ref="U9" si="12">U5-U8</f>
+        <v>258.58299999999997</v>
+      </c>
+      <c r="V9" s="39">
+        <f t="shared" ref="V9:W9" si="13">V5-V8</f>
+        <v>307.28600000000006</v>
+      </c>
+      <c r="W9" s="39">
+        <f t="shared" si="13"/>
+        <v>416.3309999999999</v>
       </c>
       <c r="X9" s="39">
         <f>X5-X8</f>
         <v>540.91000000000008</v>
       </c>
-      <c r="Y9" s="88">
+      <c r="Y9" s="73">
         <f>Y5-Y8</f>
         <v>734.85151440000004</v>
       </c>
@@ -2862,43 +2961,43 @@
         <v>1037.7418441599998</v>
       </c>
       <c r="AA9" s="39">
-        <f t="shared" ref="AA9:AI9" si="9">AA5-AA8</f>
+        <f t="shared" ref="AA9:AI9" si="14">AA5-AA8</f>
         <v>1476.2714621759999</v>
       </c>
       <c r="AB9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2037.2546178028797</v>
       </c>
       <c r="AC9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2770.6662802119163</v>
       </c>
       <c r="AD9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3768.1061410882062</v>
       </c>
       <c r="AE9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5086.9432904690784</v>
       </c>
       <c r="AF9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6867.3734421332565</v>
       </c>
       <c r="AG9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9270.9541468798961</v>
       </c>
       <c r="AH9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12515.788098287861</v>
       </c>
       <c r="AI9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16896.313932688616</v>
       </c>
     </row>
-    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40" t="s">
         <v>70</v>
       </c>
@@ -2923,15 +3022,22 @@
       <c r="P10" s="40">
         <v>95.004999999999995</v>
       </c>
-      <c r="Q10" s="79">
+      <c r="Q10" s="64">
         <v>102.023</v>
       </c>
       <c r="R10" s="47">
         <f>R9*0.58</f>
         <v>122.89765835199998</v>
       </c>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
+      <c r="U10" s="40">
+        <v>156.886</v>
+      </c>
+      <c r="V10" s="40">
+        <v>212.959</v>
+      </c>
+      <c r="W10" s="40">
+        <v>307.286</v>
+      </c>
       <c r="X10" s="40">
         <f>SUM(K10:N10)</f>
         <v>515.00700000000006</v>
@@ -2941,47 +3047,47 @@
         <v>410.05465835200005</v>
       </c>
       <c r="Z10" s="40">
-        <f>Z9*0.55</f>
-        <v>570.75801428799991</v>
+        <f t="shared" ref="Z10:AI10" si="15">Z9*0.65</f>
+        <v>674.53219870399994</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" ref="AA10:AI10" si="10">AA9*0.65</f>
+        <f t="shared" si="15"/>
         <v>959.57645041439991</v>
       </c>
       <c r="AB10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1324.2155015718718</v>
       </c>
       <c r="AC10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1800.9330821377457</v>
       </c>
       <c r="AD10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2449.268991707334</v>
       </c>
       <c r="AE10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3306.5131388049012</v>
       </c>
       <c r="AF10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4463.7927373866169</v>
       </c>
       <c r="AG10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6026.1201954719327</v>
       </c>
       <c r="AH10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8135.2622638871098</v>
       </c>
       <c r="AI10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10982.604056247601</v>
       </c>
     </row>
-    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="40" t="s">
         <v>71</v>
       </c>
@@ -3006,101 +3112,122 @@
       <c r="P11" s="40">
         <v>57.546999999999997</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="64">
         <v>59.127000000000002</v>
       </c>
       <c r="R11" s="47">
         <f>R9*R33</f>
-        <v>42.378502879999999</v>
+        <v>44.497428023999994</v>
+      </c>
+      <c r="U11" s="40">
+        <v>76.855999999999995</v>
+      </c>
+      <c r="V11" s="40">
+        <v>100.721</v>
+      </c>
+      <c r="W11" s="40">
+        <v>123.19499999999999</v>
       </c>
       <c r="X11" s="40">
-        <f t="shared" ref="X11:X16" si="11">SUM(K11:N11)</f>
+        <f t="shared" ref="X11:X16" si="16">SUM(K11:N11)</f>
         <v>194.02600000000001</v>
       </c>
       <c r="Y11" s="47">
         <f>SUM(O11:R11)</f>
-        <v>207.46850288000002</v>
+        <v>209.58742802399999</v>
       </c>
       <c r="Z11" s="40">
         <f>Z5*Z33</f>
         <v>318.01766191999997</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" ref="AA11:AI11" si="12">AA5*AA33</f>
+        <f t="shared" ref="AA11:AI11" si="17">AA5*AA33</f>
         <v>468.65760703999996</v>
       </c>
       <c r="AB11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>646.74749771519998</v>
       </c>
       <c r="AC11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>879.57659689267189</v>
       </c>
       <c r="AD11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1196.2241717740337</v>
       </c>
       <c r="AE11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1614.9026318949457</v>
       </c>
       <c r="AF11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1962.106697752359</v>
       </c>
       <c r="AG11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2648.8440419656845</v>
       </c>
       <c r="AH11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3575.9394566536748</v>
       </c>
       <c r="AI11" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4827.5182664824615</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J12" s="40">
-        <f t="shared" ref="J12:P12" si="13">J10+J11</f>
+        <f t="shared" ref="J12:P12" si="18">J10+J11</f>
         <v>135.53100000000001</v>
       </c>
       <c r="K12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>173.61500000000001</v>
       </c>
       <c r="L12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>231.614</v>
       </c>
       <c r="M12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>141.67699999999999</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>162.12700000000001</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>138.54500000000002</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>152.55199999999999</v>
       </c>
       <c r="Q12" s="40">
-        <f t="shared" ref="Q12:R12" si="14">Q10+Q11</f>
+        <f t="shared" ref="Q12:R12" si="19">Q10+Q11</f>
         <v>161.15</v>
       </c>
       <c r="R12" s="47">
-        <f t="shared" si="14"/>
-        <v>165.27616123199999</v>
+        <f t="shared" si="19"/>
+        <v>167.39508637599997</v>
+      </c>
+      <c r="U12" s="40">
+        <f t="shared" ref="U12:V12" si="20">U10+U11</f>
+        <v>233.74199999999999</v>
+      </c>
+      <c r="V12" s="40">
+        <f t="shared" si="20"/>
+        <v>313.68</v>
+      </c>
+      <c r="W12" s="40">
+        <f t="shared" ref="W12" si="21">W10+W11</f>
+        <v>430.48099999999999</v>
       </c>
       <c r="X12" s="40">
         <f>X10+X11</f>
@@ -3108,50 +3235,50 @@
       </c>
       <c r="Y12" s="47">
         <f>Y10+Y11</f>
-        <v>617.52316123200012</v>
+        <v>619.64208637600007</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" ref="Z12:AI12" si="15">Z10+Z11</f>
-        <v>888.77567620799982</v>
+        <f t="shared" ref="Z12:AI12" si="22">Z10+Z11</f>
+        <v>992.54986062399985</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1428.2340574543998</v>
       </c>
       <c r="AB12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1970.9629992870719</v>
       </c>
       <c r="AC12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2680.5096790304178</v>
       </c>
       <c r="AD12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3645.4931634813674</v>
       </c>
       <c r="AE12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4921.4157706998467</v>
       </c>
       <c r="AF12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6425.8994351389756</v>
       </c>
       <c r="AG12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8674.9642374376162</v>
       </c>
       <c r="AH12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>11711.201720540785</v>
       </c>
       <c r="AI12" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>15810.122322730062</v>
       </c>
     </row>
-    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3159,87 +3286,99 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="K13" s="39">
-        <f t="shared" ref="K13:P13" si="16">K9-K12</f>
+        <f t="shared" ref="K13:P13" si="23">K9-K12</f>
         <v>-50.262</v>
       </c>
       <c r="L13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-93.685000000000031</v>
       </c>
       <c r="M13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.8900000000000148</v>
       </c>
       <c r="N13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-27.066000000000031</v>
       </c>
       <c r="O13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>17.19399999999996</v>
       </c>
       <c r="P13" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>21.41100000000003</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" ref="Q13:R13" si="17">Q9-Q12</f>
+        <f t="shared" ref="Q13:R13" si="24">Q9-Q12</f>
         <v>32.106999999999999</v>
       </c>
-      <c r="R13" s="88">
-        <f t="shared" si="17"/>
-        <v>46.616353167999989</v>
+      <c r="R13" s="73">
+        <f t="shared" si="24"/>
+        <v>44.497428024000016</v>
+      </c>
+      <c r="U13" s="39">
+        <f t="shared" ref="U13:V13" si="25">U9-U12</f>
+        <v>24.84099999999998</v>
+      </c>
+      <c r="V13" s="39">
+        <f t="shared" si="25"/>
+        <v>-6.3939999999999486</v>
+      </c>
+      <c r="W13" s="39">
+        <f t="shared" ref="W13" si="26">W9-W12</f>
+        <v>-14.150000000000091</v>
       </c>
       <c r="X13" s="39">
         <f>X9-X12</f>
         <v>-168.12300000000005</v>
       </c>
-      <c r="Y13" s="88">
+      <c r="Y13" s="73">
         <f>Y9-Y12</f>
-        <v>117.32835316799992</v>
+        <v>115.20942802399998</v>
       </c>
       <c r="Z13" s="39">
         <f>Z9-Z12</f>
-        <v>148.96616795199998</v>
+        <v>45.191983535999952</v>
       </c>
       <c r="AA13" s="39">
-        <f t="shared" ref="AA13:AI13" si="18">AA9-AA12</f>
+        <f t="shared" ref="AA13:AI13" si="27">AA9-AA12</f>
         <v>48.037404721600069</v>
       </c>
       <c r="AB13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>66.291618515807841</v>
       </c>
       <c r="AC13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>90.156601181498445</v>
       </c>
       <c r="AD13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>122.61297760683874</v>
       </c>
       <c r="AE13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>165.52751976923173</v>
       </c>
       <c r="AF13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>441.4740069942809</v>
       </c>
       <c r="AG13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>595.9899094422799</v>
       </c>
       <c r="AH13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>804.58637774707677</v>
       </c>
       <c r="AI13" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>1086.1916099585542</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
@@ -3264,15 +3403,24 @@
       <c r="P14" s="40">
         <v>47.026000000000003</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="64">
         <v>-11.249000000000001</v>
       </c>
       <c r="R14" s="47">
         <f>AVERAGE(N14:Q14)</f>
         <v>20.231999999999999</v>
       </c>
+      <c r="U14" s="40">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="V14" s="40">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="W14" s="40">
+        <v>7.859</v>
+      </c>
       <c r="X14" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>26.748000000000001</v>
       </c>
       <c r="Y14" s="47">
@@ -3284,81 +3432,93 @@
         <v>69.028000000000006</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" ref="AA14:AI14" si="19">AVERAGE(Y14:Z14)</f>
+        <f t="shared" ref="AA14:AI14" si="28">AVERAGE(Y14:Z14)</f>
         <v>90.168000000000006</v>
       </c>
       <c r="AB14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>79.598000000000013</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>84.88300000000001</v>
       </c>
       <c r="AD14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>82.240500000000011</v>
       </c>
       <c r="AE14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>83.561750000000018</v>
       </c>
       <c r="AF14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>82.901125000000008</v>
       </c>
       <c r="AG14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>83.231437500000013</v>
       </c>
       <c r="AH14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>83.066281250000003</v>
       </c>
       <c r="AI14" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>83.148859375000001</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="40">
-        <f t="shared" ref="J15:Q15" si="20">J13+J14</f>
+        <f t="shared" ref="J15:Q15" si="29">J13+J14</f>
         <v>9.0400000000000009</v>
       </c>
       <c r="K15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-49.677</v>
       </c>
       <c r="L15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-51.84400000000003</v>
       </c>
       <c r="M15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-2.6399999999999855</v>
       </c>
       <c r="N15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-37.214000000000027</v>
       </c>
       <c r="O15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>72.492999999999967</v>
       </c>
       <c r="P15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>68.43700000000004</v>
       </c>
       <c r="Q15" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>20.857999999999997</v>
       </c>
       <c r="R15" s="47">
         <f>R13+R14</f>
-        <v>66.848353167999989</v>
+        <v>64.729428024000015</v>
+      </c>
+      <c r="U15" s="40">
+        <f t="shared" ref="U15:W15" si="30">U13+U14</f>
+        <v>28.103999999999978</v>
+      </c>
+      <c r="V15" s="40">
+        <f t="shared" si="30"/>
+        <v>2.0700000000000518</v>
+      </c>
+      <c r="W15" s="40">
+        <f t="shared" si="30"/>
+        <v>-6.291000000000091</v>
       </c>
       <c r="X15" s="40">
         <f>X13+X14</f>
@@ -3366,50 +3526,50 @@
       </c>
       <c r="Y15" s="47">
         <f>Y13+Y14</f>
-        <v>228.63635316799991</v>
+        <v>226.51742802399997</v>
       </c>
       <c r="Z15" s="40">
         <f>Z13+Z14</f>
-        <v>217.994167952</v>
+        <v>114.21998353599996</v>
       </c>
       <c r="AA15" s="40">
-        <f t="shared" ref="AA15:AI15" si="21">AA13+AA14</f>
+        <f t="shared" ref="AA15:AI15" si="31">AA13+AA14</f>
         <v>138.20540472160008</v>
       </c>
       <c r="AB15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>145.88961851580785</v>
       </c>
       <c r="AC15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>175.03960118149845</v>
       </c>
       <c r="AD15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>204.85347760683874</v>
       </c>
       <c r="AE15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>249.08926976923175</v>
       </c>
       <c r="AF15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>524.37513199428088</v>
       </c>
       <c r="AG15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>679.22134694227987</v>
       </c>
       <c r="AH15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>887.65265899707674</v>
       </c>
       <c r="AI15" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1169.3404693335542</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3434,148 +3594,169 @@
       <c r="P16" s="40">
         <v>17.475000000000001</v>
       </c>
-      <c r="Q16" s="79">
+      <c r="Q16" s="64">
         <v>8.7270000000000003</v>
       </c>
       <c r="R16" s="47">
         <f>R13*R31</f>
-        <v>19.112704798879996</v>
+        <v>18.243945489840005</v>
+      </c>
+      <c r="U16" s="40">
+        <v>-1.101</v>
+      </c>
+      <c r="V16" s="40">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="W16" s="40">
+        <v>-4.5670000000000002</v>
       </c>
       <c r="X16" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-81.356999999999999</v>
       </c>
       <c r="Y16" s="47">
         <f>SUM(O16:R16)</f>
-        <v>62.97670479888</v>
+        <v>62.107945489840006</v>
       </c>
       <c r="Z16" s="40">
         <f>Z15*Z31</f>
-        <v>87.197667180800011</v>
+        <v>46.830193249759979</v>
       </c>
       <c r="AA16" s="40">
-        <f t="shared" ref="AA16:AI16" si="22">AA15*AA31</f>
-        <v>59.428324030288032</v>
+        <f t="shared" ref="AA16:AI16" si="32">AA15*AA31</f>
+        <v>58.04626998307203</v>
       </c>
       <c r="AB16" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>62.732535961797375</v>
       </c>
       <c r="AC16" s="40">
-        <f t="shared" si="22"/>
-        <v>78.767820531674303</v>
+        <f t="shared" si="32"/>
+        <v>84.019008567119258</v>
       </c>
       <c r="AD16" s="40">
-        <f t="shared" si="22"/>
-        <v>92.184064923077429</v>
+        <f t="shared" si="32"/>
+        <v>98.329669251282596</v>
       </c>
       <c r="AE16" s="40">
-        <f t="shared" si="22"/>
-        <v>112.09017139615429</v>
+        <f t="shared" si="32"/>
+        <v>139.4899910707698</v>
       </c>
       <c r="AF16" s="40">
-        <f t="shared" si="22"/>
-        <v>235.96880939742641</v>
+        <f t="shared" si="32"/>
+        <v>298.8938252367401</v>
       </c>
       <c r="AG16" s="40">
-        <f t="shared" si="22"/>
-        <v>305.64960612402592</v>
+        <f t="shared" si="32"/>
+        <v>393.94838122652232</v>
       </c>
       <c r="AH16" s="40">
-        <f t="shared" si="22"/>
-        <v>399.44369654868456</v>
+        <f t="shared" si="32"/>
+        <v>523.7150688082753</v>
       </c>
       <c r="AI16" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>526.20321120009942</v>
       </c>
     </row>
-    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J17" s="39">
-        <f t="shared" ref="J17:Q17" si="23">J15-J16</f>
+        <f t="shared" ref="J17:Q17" si="33">J15-J16</f>
         <v>25.834000000000003</v>
       </c>
       <c r="K17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>-47.917000000000002</v>
       </c>
       <c r="L17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>-47.117000000000033</v>
       </c>
       <c r="M17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>48.524000000000015</v>
       </c>
       <c r="N17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>-13.508000000000028</v>
       </c>
       <c r="O17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>54.830999999999968</v>
       </c>
       <c r="P17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>50.962000000000039</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>12.130999999999997</v>
       </c>
-      <c r="R17" s="88">
+      <c r="R17" s="73">
         <f>R15-R16</f>
-        <v>47.735648369119993</v>
+        <v>46.485482534160013</v>
+      </c>
+      <c r="U17" s="39">
+        <f t="shared" ref="U17:W17" si="34">U15-U16</f>
+        <v>29.204999999999977</v>
+      </c>
+      <c r="V17" s="39">
+        <f t="shared" si="34"/>
+        <v>0.88200000000005185</v>
+      </c>
+      <c r="W17" s="39">
+        <f t="shared" si="34"/>
+        <v>-1.7240000000000908</v>
       </c>
       <c r="X17" s="39">
         <f>X15-X16</f>
         <v>-60.018000000000058</v>
       </c>
-      <c r="Y17" s="88">
+      <c r="Y17" s="73">
         <f>Y15-Y16</f>
-        <v>165.65964836911991</v>
+        <v>164.40948253415996</v>
       </c>
       <c r="Z17" s="39">
         <f>Z15-Z16</f>
-        <v>130.79650077119999</v>
+        <v>67.389790286239986</v>
       </c>
       <c r="AA17" s="39">
-        <f t="shared" ref="AA17:AI17" si="24">AA15-AA16</f>
-        <v>78.777080691312051</v>
+        <f t="shared" ref="AA17:AI17" si="35">AA15-AA16</f>
+        <v>80.159134738528053</v>
       </c>
       <c r="AB17" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>83.157082554010486</v>
       </c>
       <c r="AC17" s="39">
-        <f t="shared" si="24"/>
-        <v>96.271780649824152</v>
+        <f t="shared" si="35"/>
+        <v>91.020592614379197</v>
       </c>
       <c r="AD17" s="39">
-        <f t="shared" si="24"/>
-        <v>112.66941268376131</v>
+        <f t="shared" si="35"/>
+        <v>106.52380835555614</v>
       </c>
       <c r="AE17" s="39">
-        <f t="shared" si="24"/>
-        <v>136.99909837307746</v>
+        <f t="shared" si="35"/>
+        <v>109.59927869846194</v>
       </c>
       <c r="AF17" s="39">
-        <f t="shared" si="24"/>
-        <v>288.40632259685447</v>
+        <f t="shared" si="35"/>
+        <v>225.48130675754078</v>
       </c>
       <c r="AG17" s="39">
-        <f t="shared" si="24"/>
-        <v>373.57174081825394</v>
+        <f t="shared" si="35"/>
+        <v>285.27296571575755</v>
       </c>
       <c r="AH17" s="39">
-        <f t="shared" si="24"/>
-        <v>488.20896244839219</v>
+        <f t="shared" si="35"/>
+        <v>363.93759018880144</v>
       </c>
       <c r="AI17" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>643.13725813345479</v>
       </c>
       <c r="AJ17" s="39">
@@ -3583,204 +3764,216 @@
         <v>675.29412104012761</v>
       </c>
       <c r="AK17" s="39">
-        <f t="shared" ref="AK17:BU17" si="25">AJ17*(1+$AL$21)</f>
+        <f t="shared" ref="AK17:BU17" si="36">AJ17*(1+$AL$21)</f>
         <v>709.05882709213404</v>
       </c>
       <c r="AL17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>744.5117684467408</v>
       </c>
       <c r="AM17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>781.73735686907787</v>
       </c>
       <c r="AN17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>820.82422471253176</v>
       </c>
       <c r="AO17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>861.86543594815839</v>
       </c>
       <c r="AP17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>904.95870774556636</v>
       </c>
       <c r="AQ17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>950.20664313284476</v>
       </c>
       <c r="AR17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>997.7169752894871</v>
       </c>
       <c r="AS17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1047.6028240539615</v>
       </c>
       <c r="AT17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1099.9829652566596</v>
       </c>
       <c r="AU17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1154.9821135194925</v>
       </c>
       <c r="AV17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1212.7312191954672</v>
       </c>
       <c r="AW17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1273.3677801552406</v>
       </c>
       <c r="AX17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1337.0361691630026</v>
       </c>
       <c r="AY17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1403.8879776211527</v>
       </c>
       <c r="AZ17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1474.0823765022103</v>
       </c>
       <c r="BA17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1547.7864953273208</v>
       </c>
       <c r="BB17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1625.175820093687</v>
       </c>
       <c r="BC17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1706.4346110983713</v>
       </c>
       <c r="BD17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1791.7563416532898</v>
       </c>
       <c r="BE17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1881.3441587359544</v>
       </c>
       <c r="BF17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1975.4113666727521</v>
       </c>
       <c r="BG17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2074.1819350063897</v>
       </c>
       <c r="BH17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2177.8910317567093</v>
       </c>
       <c r="BI17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2286.7855833445446</v>
       </c>
       <c r="BJ17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2401.1248625117719</v>
       </c>
       <c r="BK17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2521.1811056373604</v>
       </c>
       <c r="BL17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2647.2401609192284</v>
       </c>
       <c r="BM17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2779.6021689651898</v>
       </c>
       <c r="BN17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>2918.5822774134494</v>
       </c>
       <c r="BO17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3064.5113912841221</v>
       </c>
       <c r="BP17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3217.7369608483282</v>
       </c>
       <c r="BQ17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3378.6238088907448</v>
       </c>
       <c r="BR17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3547.5549993352824</v>
       </c>
       <c r="BS17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3724.9327493020469</v>
       </c>
       <c r="BT17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>3911.1793867671495</v>
       </c>
       <c r="BU17" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>4106.7383561055067</v>
       </c>
     </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J18" s="43">
-        <f t="shared" ref="J18:Q18" si="26">J17/J19</f>
+        <f t="shared" ref="J18:Q18" si="37">J17/J19</f>
         <v>0.40594603937836865</v>
       </c>
       <c r="K18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-0.74828221625335745</v>
       </c>
       <c r="L18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-0.72303041463339834</v>
       </c>
       <c r="M18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.73307952622673467</v>
       </c>
       <c r="N18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-0.19489251190304469</v>
       </c>
       <c r="O18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.77281183932346675</v>
       </c>
       <c r="P18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.71737049549549603</v>
       </c>
       <c r="Q18" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.17060205043104049</v>
       </c>
-      <c r="R18" s="86">
+      <c r="R18" s="71">
         <f>R17/R19</f>
-        <v>0.67132136595721925</v>
+        <v>0.65373989247415887</v>
+      </c>
+      <c r="U18" s="43">
+        <f t="shared" ref="U18:W18" si="38">U17/U19</f>
+        <v>0.51789260888069188</v>
+      </c>
+      <c r="V18" s="43">
+        <f t="shared" si="38"/>
+        <v>1.4901165737456527E-2</v>
+      </c>
+      <c r="W18" s="43">
+        <f t="shared" si="38"/>
+        <v>-2.6657145550691104E-2</v>
       </c>
       <c r="X18" s="43">
         <f>X17/X19</f>
         <v>-0.86593565142115214</v>
       </c>
-      <c r="Y18" s="91">
+      <c r="Y18" s="75">
         <f>Y17/Y19</f>
-        <v>2.3297234923301491</v>
-      </c>
-    </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
+        <v>2.3121420188470889</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -3812,13 +4005,22 @@
       <c r="P19" s="40">
         <v>71.040000000000006</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="64">
         <v>71.106999999999999</v>
       </c>
       <c r="R19" s="47">
         <f>Q19</f>
         <v>71.106999999999999</v>
       </c>
+      <c r="U19" s="40">
+        <v>56.392000000000003</v>
+      </c>
+      <c r="V19" s="40">
+        <v>59.19</v>
+      </c>
+      <c r="W19" s="40">
+        <v>64.673090999999999</v>
+      </c>
       <c r="X19" s="40">
         <f>N19</f>
         <v>69.31</v>
@@ -3828,7 +4030,7 @@
         <v>71.106999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
@@ -3838,7 +4040,7 @@
         <v>-3.786150172459557E-2</v>
       </c>
       <c r="O21" s="42">
-        <f t="shared" ref="O21" si="27">O5/K5-1</f>
+        <f t="shared" ref="O21" si="39">O5/K5-1</f>
         <v>0.31487701198344764</v>
       </c>
       <c r="P21" s="42">
@@ -3846,11 +4048,26 @@
         <v>0.30539089101670513</v>
       </c>
       <c r="Q21" s="42">
-        <f t="shared" ref="Q21" si="28">Q5/M5-1</f>
+        <f t="shared" ref="Q21" si="40">Q5/M5-1</f>
         <v>0.34383095750229553</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="Y21" s="89">
+      <c r="R21" s="70"/>
+      <c r="U21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="V21" s="42">
+        <f t="shared" ref="V21:W21" si="41">V5/U5-1</f>
+        <v>0.26374777416989637</v>
+      </c>
+      <c r="W21" s="42">
+        <f t="shared" ref="V21:X21" si="42">W5/V5-1</f>
+        <v>0.28282974795614657</v>
+      </c>
+      <c r="X21" s="42">
+        <f>X5/W5-1</f>
+        <v>0.26780792448785107</v>
+      </c>
+      <c r="Y21" s="74">
         <f>Y5/X5-1</f>
         <v>0.38473642574946632</v>
       </c>
@@ -3884,14 +4101,14 @@
       <c r="AI21" s="42">
         <v>0.35</v>
       </c>
-      <c r="AK21" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL21" s="41">
+      <c r="AK21" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL21" s="93">
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="36" t="s">
         <v>92</v>
       </c>
@@ -3901,7 +4118,7 @@
         <v>-0.16487284339176189</v>
       </c>
       <c r="O22" s="44">
-        <f t="shared" ref="O22:O23" si="29">O3/K3-1</f>
+        <f t="shared" ref="O22:O23" si="43">O3/K3-1</f>
         <v>0.25068495095325316</v>
       </c>
       <c r="P22" s="44">
@@ -3909,71 +4126,101 @@
         <v>0.27887768735576346</v>
       </c>
       <c r="Q22" s="44">
-        <f t="shared" ref="Q22:Q23" si="30">Q3/M3-1</f>
+        <f t="shared" ref="Q22:Q23" si="44">Q3/M3-1</f>
         <v>0.26896377025747431</v>
       </c>
       <c r="R22" s="48"/>
+      <c r="U22" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V22" s="44">
+        <f t="shared" ref="V22:W22" si="45">V3/U3-1</f>
+        <v>0.21926534100447137</v>
+      </c>
+      <c r="W22" s="44">
+        <f t="shared" ref="V22:X22" si="46">W3/V3-1</f>
+        <v>0.25227173733459507</v>
+      </c>
+      <c r="X22" s="44">
+        <f>X3/W3-1</f>
+        <v>0.21644177911044471</v>
+      </c>
       <c r="Y22" s="48"/>
-      <c r="AK22" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL22" s="44">
+      <c r="AK22" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL22" s="95">
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="36" t="s">
         <v>93</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="44">
-        <f t="shared" ref="N23:P23" si="31">N4/J4-1</f>
+        <f t="shared" ref="N23:P23" si="47">N4/J4-1</f>
         <v>0.38722512686452393</v>
       </c>
       <c r="O23" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0.48194262279940125</v>
       </c>
       <c r="P23" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>0.3718894304771676</v>
       </c>
       <c r="Q23" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0.53138125887649923</v>
       </c>
       <c r="R23" s="48"/>
+      <c r="U23" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" s="44">
+        <f t="shared" ref="V23:W23" si="48">V4/U4-1</f>
+        <v>0.42141875737020307</v>
+      </c>
+      <c r="W23" s="44">
+        <f t="shared" ref="V23:X23" si="49">W4/V4-1</f>
+        <v>0.37574018540788212</v>
+      </c>
+      <c r="X23" s="44">
+        <f>X4/W4-1</f>
+        <v>0.40996829928133982</v>
+      </c>
       <c r="Y23" s="48"/>
-      <c r="AK23" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL23" s="39">
+      <c r="AK23" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL23" s="96">
         <f>NPV(AL22,Y17:BU17)</f>
-        <v>12420.186517227328</v>
-      </c>
-    </row>
-    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12176.120593498938</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K24" s="42">
-        <f t="shared" ref="K24:L24" si="32">K5/J5-1</f>
+        <f t="shared" ref="K24:L24" si="50">K5/J5-1</f>
         <v>-0.13761828955514288</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>0.12191632610155922</v>
       </c>
       <c r="M24" s="42">
-        <f t="shared" ref="M24" si="33">M5/L5-1</f>
+        <f t="shared" ref="M24" si="51">M5/L5-1</f>
         <v>6.0303023378047937E-2</v>
       </c>
       <c r="N24" s="42">
-        <f t="shared" ref="N24" si="34">N5/M5-1</f>
+        <f t="shared" ref="N24" si="52">N5/M5-1</f>
         <v>-6.2119324623150396E-2</v>
       </c>
       <c r="O24" s="42">
-        <f t="shared" ref="O24" si="35">O5/N5-1</f>
+        <f t="shared" ref="O24" si="53">O5/N5-1</f>
         <v>0.17854746343839922</v>
       </c>
       <c r="P24" s="42">
@@ -3981,46 +4228,85 @@
         <v>0.11382231131008558</v>
       </c>
       <c r="Q24" s="42">
-        <f t="shared" ref="Q24" si="36">Q5/P5-1</f>
+        <f t="shared" ref="Q24" si="54">Q5/P5-1</f>
         <v>9.1525945947838583E-2</v>
       </c>
-      <c r="R24" s="85"/>
+      <c r="R24" s="70"/>
+      <c r="U24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="W24" s="34" t="s">
+        <v>151</v>
+      </c>
       <c r="X24" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="Y24" s="92" t="s">
+      <c r="Y24" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AK24" s="93" t="s">
+      <c r="Z24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK24" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="40">
+      <c r="AL24" s="97">
         <f>Main!C11</f>
         <v>377.61800000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="44">
-        <f t="shared" ref="K25:L25" si="37">K3/J3-1</f>
+        <f t="shared" ref="K25:L25" si="55">K3/J3-1</f>
         <v>-0.19084977830871386</v>
       </c>
       <c r="L25" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0.1103090441917578</v>
       </c>
       <c r="M25" s="44">
-        <f t="shared" ref="M25" si="38">M3/L3-1</f>
+        <f t="shared" ref="M25" si="56">M3/L3-1</f>
         <v>5.9938501665313559E-2</v>
       </c>
       <c r="N25" s="44">
-        <f t="shared" ref="N25" si="39">N3/M3-1</f>
+        <f t="shared" ref="N25" si="57">N3/M3-1</f>
         <v>-0.1230013932196643</v>
       </c>
       <c r="O25" s="44">
-        <f t="shared" ref="O25" si="40">O3/N3-1</f>
+        <f t="shared" ref="O25" si="58">O3/N3-1</f>
         <v>0.21178193921971822</v>
       </c>
       <c r="P25" s="44">
@@ -4028,46 +4314,85 @@
         <v>0.13533744977412532</v>
       </c>
       <c r="Q25" s="44">
-        <f t="shared" ref="Q25:Q26" si="41">Q3/P3-1</f>
+        <f t="shared" ref="Q25:Q26" si="59">Q3/P3-1</f>
         <v>5.1721810938210711E-2</v>
       </c>
       <c r="R25" s="48"/>
+      <c r="U25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="X25" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="Y25" s="92" t="s">
+      <c r="Y25" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AK25" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL25" s="40">
+      <c r="Z25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK25" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL25" s="97">
         <f>AL23-AL24</f>
-        <v>12042.568517227328</v>
-      </c>
-    </row>
-    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11798.502593498937</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
       <c r="K26" s="44">
-        <f t="shared" ref="K26:L26" si="42">K4/J4-1</f>
+        <f t="shared" ref="K26:L26" si="60">K4/J4-1</f>
         <v>4.053898200830397E-2</v>
       </c>
       <c r="L26" s="44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.15212532096872522</v>
       </c>
       <c r="M26" s="44">
-        <f t="shared" ref="M26" si="43">M4/L4-1</f>
+        <f t="shared" ref="M26" si="61">M4/L4-1</f>
         <v>6.1217290918419875E-2</v>
       </c>
       <c r="N26" s="44">
-        <f t="shared" ref="N26" si="44">N4/M4-1</f>
+        <f t="shared" ref="N26" si="62">N4/M4-1</f>
         <v>9.0396760644244845E-2</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" ref="O26" si="45">O4/N4-1</f>
+        <f t="shared" ref="O26" si="63">O4/N4-1</f>
         <v>0.1115853067106376</v>
       </c>
       <c r="P26" s="44">
@@ -4075,34 +4400,73 @@
         <v>6.6565281344269644E-2</v>
       </c>
       <c r="Q26" s="44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>0.18459129052616818</v>
       </c>
       <c r="R26" s="48"/>
+      <c r="U26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="X26" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="Y26" s="92" t="s">
+      <c r="Y26" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AK26" s="94" t="s">
+      <c r="Z26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK26" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL26" s="99">
+        <f>AL25/Q19</f>
+        <v>165.92603531999575</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73" x14ac:dyDescent="0.15">
+      <c r="AK27" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="AL26" s="95">
-        <f>AL25/Q19</f>
-        <v>169.35841080663405</v>
-      </c>
-    </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="AK27" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL27" s="40">
+      <c r="AL27" s="97">
         <f>Main!C6</f>
         <v>188.83</v>
       </c>
     </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -4114,46 +4478,58 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41">
-        <f t="shared" ref="J28:M28" si="46">J9/J5</f>
+        <f t="shared" ref="J28:M28" si="64">J9/J5</f>
         <v>0.62486070575749542</v>
       </c>
       <c r="K28" s="41">
-        <f t="shared" ref="K28" si="47">K9/K5</f>
+        <f t="shared" ref="K28" si="65">K9/K5</f>
         <v>0.63251785723442333</v>
       </c>
       <c r="L28" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.63040288854864135</v>
       </c>
       <c r="M28" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.62316316721913545</v>
       </c>
       <c r="N28" s="41">
-        <f t="shared" ref="N28:O28" si="48">N9/N5</f>
+        <f t="shared" ref="N28:O28" si="66">N9/N5</f>
         <v>0.62074750204524354</v>
       </c>
       <c r="O28" s="41">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>0.60734480902872556</v>
       </c>
       <c r="P28" s="41">
-        <f t="shared" ref="P28:Q28" si="49">P9/P5</f>
+        <f t="shared" ref="P28:Q28" si="67">P9/P5</f>
         <v>0.60908642113629285</v>
       </c>
       <c r="Q28" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>0.61990223060490002</v>
       </c>
-      <c r="R28" s="75">
+      <c r="R28" s="60">
         <v>0.62</v>
       </c>
+      <c r="U28" s="41">
+        <f t="shared" ref="U28:V28" si="68">U9/U5</f>
+        <v>0.61557414513840614</v>
+      </c>
+      <c r="V28" s="41">
+        <f t="shared" ref="V28:X28" si="69">V9/V5</f>
+        <v>0.57884564668650873</v>
+      </c>
+      <c r="W28" s="41">
+        <f t="shared" si="69"/>
+        <v>0.61134972973687329</v>
+      </c>
       <c r="X28" s="41">
-        <f t="shared" ref="X28:Y28" si="50">X9/X5</f>
+        <f t="shared" ref="X28:Y28" si="70">X9/X5</f>
         <v>0.62650208888080705</v>
       </c>
-      <c r="Y28" s="75">
-        <f t="shared" si="50"/>
+      <c r="Y28" s="60">
+        <f t="shared" si="70"/>
         <v>0.61465297760591753</v>
       </c>
       <c r="Z28" s="41">
@@ -4186,40 +4562,40 @@
       <c r="AI28" s="41">
         <v>0.63</v>
       </c>
-      <c r="AK28" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL28" s="41">
+      <c r="AK28" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL28" s="101">
         <f>AL26/AL27-1</f>
-        <v>-0.10311703221609891</v>
-      </c>
-    </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
+        <v>-0.12129409881906617</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J29" s="41">
-        <f t="shared" ref="J29:M29" si="51">J13/J5</f>
+        <f t="shared" ref="J29:M29" si="71">J13/J5</f>
         <v>2.553727779251791E-2</v>
       </c>
       <c r="K29" s="41">
-        <f t="shared" ref="K29" si="52">K13/K5</f>
+        <f t="shared" ref="K29" si="72">K13/K5</f>
         <v>-0.2577287341233418</v>
       </c>
       <c r="L29" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>-0.42818620169565136</v>
       </c>
       <c r="M29" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>1.2457487208445292E-2</v>
       </c>
       <c r="N29" s="41">
-        <f t="shared" ref="N29:O29" si="53">N13/N5</f>
+        <f t="shared" ref="N29:O29" si="73">N13/N5</f>
         <v>-0.12439676805559401</v>
       </c>
       <c r="O29" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>6.7052482977545028E-2</v>
       </c>
       <c r="P29" s="41">
@@ -4227,88 +4603,100 @@
         <v>7.4965075119129837E-2</v>
       </c>
       <c r="Q29" s="41">
-        <f t="shared" ref="Q29:R29" si="54">Q13/Q5</f>
+        <f t="shared" ref="Q29:R29" si="74">Q13/Q5</f>
         <v>0.10298825355889579</v>
       </c>
-      <c r="R29" s="75">
-        <f t="shared" si="54"/>
-        <v>0.13639999999999997</v>
+      <c r="R29" s="60">
+        <f t="shared" si="74"/>
+        <v>0.13020000000000007</v>
+      </c>
+      <c r="U29" s="41">
+        <f t="shared" ref="U29:V29" si="75">U13/U5</f>
+        <v>5.9135663749678574E-2</v>
+      </c>
+      <c r="V29" s="41">
+        <f t="shared" ref="V29:X29" si="76">V13/V5</f>
+        <v>-1.2044606864333248E-2</v>
+      </c>
+      <c r="W29" s="41">
+        <f t="shared" si="76"/>
+        <v>-2.077817572022457E-2</v>
       </c>
       <c r="X29" s="41">
         <f>X13/X5</f>
         <v>-0.19472631433862925</v>
       </c>
-      <c r="Y29" s="75">
-        <f t="shared" ref="Y29" si="55">Y13/Y5</f>
-        <v>9.8137134127283004E-2</v>
+      <c r="Y29" s="60">
+        <f t="shared" ref="Y29" si="77">Y13/Y5</f>
+        <v>9.6364798323978554E-2</v>
       </c>
       <c r="Z29" s="41">
         <f>Z13/Z5</f>
-        <v>8.8999999999999996E-2</v>
+        <v>2.6999999999999975E-2</v>
       </c>
       <c r="AA29" s="41">
-        <f t="shared" ref="AA29:AI29" si="56">AA13/AA5</f>
+        <f t="shared" ref="AA29:AI29" si="78">AA13/AA5</f>
         <v>2.0500000000000032E-2</v>
       </c>
       <c r="AB29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>2.0499999999999952E-2</v>
       </c>
       <c r="AC29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>2.0499999999999904E-2</v>
       </c>
       <c r="AD29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>2.0500000000000049E-2</v>
       </c>
       <c r="AE29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>2.0499999999999977E-2</v>
       </c>
       <c r="AF29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.0500000000000015E-2</v>
       </c>
       <c r="AG29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.0500000000000057E-2</v>
       </c>
       <c r="AH29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.0499999999999994E-2</v>
       </c>
       <c r="AI29" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>4.0500000000000015E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J30" s="41">
-        <f t="shared" ref="J30:M30" si="57">J17/J5</f>
+        <f t="shared" ref="J30:M30" si="79">J17/J5</f>
         <v>0.11423896701158574</v>
       </c>
       <c r="K30" s="41">
-        <f t="shared" ref="K30" si="58">K17/K5</f>
+        <f t="shared" ref="K30" si="80">K17/K5</f>
         <v>-0.24570426471266901</v>
       </c>
       <c r="L30" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>-0.21534769990173466</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0.20916508972408179</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="59">N17/N5</f>
+        <f t="shared" ref="N30:O30" si="81">N17/N5</f>
         <v>-6.2083482705053032E-2</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="81"/>
         <v>0.21382777097486202</v>
       </c>
       <c r="P30" s="41">
@@ -4316,88 +4704,100 @@
         <v>0.17843025352487471</v>
       </c>
       <c r="Q30" s="41">
-        <f t="shared" ref="Q30:R30" si="60">Q17/Q5</f>
+        <f t="shared" ref="Q30:R30" si="82">Q17/Q5</f>
         <v>3.8912090943500309E-2</v>
       </c>
-      <c r="R30" s="75">
-        <f t="shared" si="60"/>
-        <v>0.13967507097954565</v>
+      <c r="R30" s="60">
+        <f t="shared" si="82"/>
+        <v>0.13601707097954571</v>
+      </c>
+      <c r="U30" s="41">
+        <f t="shared" ref="U30:V30" si="83">U17/U5</f>
+        <v>6.9524457944904111E-2</v>
+      </c>
+      <c r="V30" s="41">
+        <f t="shared" ref="V30:X30" si="84">V17/V5</f>
+        <v>1.661454997551241E-3</v>
+      </c>
+      <c r="W30" s="41">
+        <f t="shared" si="84"/>
+        <v>-2.5315600665490328E-3</v>
       </c>
       <c r="X30" s="41">
         <f>X17/X5</f>
         <v>-6.9515080827583717E-2</v>
       </c>
-      <c r="Y30" s="75">
-        <f t="shared" ref="Y30" si="61">Y17/Y5</f>
-        <v>0.13856295339115768</v>
+      <c r="Y30" s="60">
+        <f t="shared" ref="Y30" si="85">Y17/Y5</f>
+        <v>0.13751727526720806</v>
       </c>
       <c r="Z30" s="41">
         <f>Z17/Z5</f>
-        <v>7.8144512466667843E-2</v>
+        <v>4.0262103925556708E-2</v>
       </c>
       <c r="AA30" s="41">
-        <f t="shared" ref="AA30:AI30" si="62">AA17/AA5</f>
-        <v>3.3618180739180201E-2</v>
+        <f t="shared" ref="AA30:AI30" si="86">AA17/AA5</f>
+        <v>3.4207973383727226E-2</v>
       </c>
       <c r="AB30" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>2.5715470982967552E-2</v>
       </c>
       <c r="AC30" s="41">
-        <f t="shared" si="62"/>
-        <v>2.1890482532147561E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0696456212212239E-2</v>
       </c>
       <c r="AD30" s="41">
-        <f t="shared" si="62"/>
-        <v>1.8837508109649622E-2</v>
+        <f t="shared" si="86"/>
+        <v>1.7810007667305096E-2</v>
       </c>
       <c r="AE30" s="41">
-        <f t="shared" si="62"/>
-        <v>1.6966855545008448E-2</v>
+        <f t="shared" si="86"/>
+        <v>1.3573484436006754E-2</v>
       </c>
       <c r="AF30" s="41">
-        <f t="shared" si="62"/>
-        <v>2.6457856816299322E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0685233510924925E-2</v>
       </c>
       <c r="AG30" s="41">
-        <f t="shared" si="62"/>
-        <v>2.5385757818110467E-2</v>
+        <f t="shared" si="86"/>
+        <v>1.9385487788375264E-2</v>
       </c>
       <c r="AH30" s="41">
-        <f t="shared" si="62"/>
-        <v>2.4574692694306829E-2</v>
+        <f t="shared" si="86"/>
+        <v>1.8319316372119636E-2</v>
       </c>
       <c r="AI30" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>2.3980169535095935E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:73" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J31" s="41">
-        <f t="shared" ref="J31:M31" si="63">J16/J15</f>
+        <f t="shared" ref="J31:M31" si="87">J16/J15</f>
         <v>-1.8577433628318583</v>
       </c>
       <c r="K31" s="41">
-        <f t="shared" ref="K31" si="64">K16/K15</f>
+        <f t="shared" ref="K31" si="88">K16/K15</f>
         <v>3.5428870503452302E-2</v>
       </c>
       <c r="L31" s="41">
-        <f t="shared" si="63"/>
+        <f t="shared" si="87"/>
         <v>9.1177378288712238E-2</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" si="63"/>
+        <f t="shared" si="87"/>
         <v>19.380303030303139</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="65">N16/N15</f>
+        <f t="shared" ref="N31:O31" si="89">N16/N15</f>
         <v>0.63701832643628697</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>0.24363731670644073</v>
       </c>
       <c r="P31" s="41">
@@ -4405,84 +4805,99 @@
         <v>0.2553443312827855</v>
       </c>
       <c r="Q31" s="41">
-        <f t="shared" ref="Q31:R31" si="66">Q16/Q15</f>
+        <f t="shared" ref="Q31" si="90">Q16/Q15</f>
         <v>0.41840061367341075</v>
       </c>
-      <c r="R31" s="75">
+      <c r="R31" s="60">
         <v>0.41</v>
+      </c>
+      <c r="U31" s="41">
+        <f t="shared" ref="U31:V31" si="91">U16/U15</f>
+        <v>-3.9175918018787392E-2</v>
+      </c>
+      <c r="V31" s="41">
+        <f t="shared" ref="V31:X31" si="92">V16/V15</f>
+        <v>0.57391304347824645</v>
+      </c>
+      <c r="W31" s="41">
+        <f t="shared" si="92"/>
+        <v>0.72595771737401593</v>
       </c>
       <c r="X31" s="41">
         <f>X16/X15</f>
         <v>0.57546949602121988</v>
       </c>
-      <c r="Y31" s="75">
+      <c r="Y31" s="60">
         <v>0.41</v>
       </c>
       <c r="Z31" s="41">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AA31" s="41">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AB31" s="41">
         <v>0.43</v>
       </c>
       <c r="AC31" s="41">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AD31" s="41">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AE31" s="41">
-        <v>0.45</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AF31" s="41">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AG31" s="41">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AH31" s="41">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="AI31" s="41">
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:73" x14ac:dyDescent="0.15">
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="O32" s="41"/>
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
       <c r="X32" s="41"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" ref="J33:O33" si="67">J11/J5</f>
+        <f t="shared" ref="J33:O33" si="93">J11/J5</f>
         <v>0.16807287521004688</v>
       </c>
       <c r="K33" s="41">
-        <f t="shared" ref="K33" si="68">K11/K5</f>
+        <f t="shared" ref="K33" si="94">K11/K5</f>
         <v>0.24109445746311897</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.24658698781964852</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.18268969649423031</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.23290038514923386</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.1888108070164492</v>
       </c>
       <c r="P33" s="41">
@@ -4490,19 +4905,31 @@
         <v>0.20148592676103677</v>
       </c>
       <c r="Q33" s="41">
-        <f t="shared" ref="Q33" si="69">Q11/Q5</f>
+        <f t="shared" ref="Q33" si="95">Q11/Q5</f>
         <v>0.18965915433322428</v>
       </c>
-      <c r="R33" s="75">
-        <v>0.2</v>
+      <c r="R33" s="60">
+        <v>0.21</v>
+      </c>
+      <c r="U33" s="41">
+        <f t="shared" ref="U33:V33" si="96">U11/U5</f>
+        <v>0.18296085395697839</v>
+      </c>
+      <c r="V33" s="41">
+        <f t="shared" ref="V33:X33" si="97">V11/V5</f>
+        <v>0.18973175601853595</v>
+      </c>
+      <c r="W33" s="41">
+        <f t="shared" si="97"/>
+        <v>0.18090228677406708</v>
       </c>
       <c r="X33" s="41">
         <f>X11/X5</f>
         <v>0.22472813277104781</v>
       </c>
-      <c r="Y33" s="75">
+      <c r="Y33" s="60">
         <f>Y11/Y5</f>
-        <v>0.1735331975994549</v>
+        <v>0.17530553340275937</v>
       </c>
       <c r="Z33" s="41">
         <v>0.19</v>
@@ -4535,12 +4962,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.15">
       <c r="L34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
         <v>103</v>
       </c>
@@ -4548,7 +4975,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -4578,11 +5005,11 @@
       <c r="P36" s="40">
         <v>32.79</v>
       </c>
-      <c r="Q36" s="79">
+      <c r="Q36" s="64">
         <v>40.502000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -4612,11 +5039,11 @@
       <c r="P37" s="40">
         <v>8.8309999999999995</v>
       </c>
-      <c r="Q37" s="79">
+      <c r="Q37" s="64">
         <v>6.9560000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -4646,11 +5073,11 @@
       <c r="P38" s="40">
         <v>2.7450000000000001</v>
       </c>
-      <c r="Q38" s="79">
+      <c r="Q38" s="64">
         <v>5.12</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -4680,11 +5107,11 @@
       <c r="P39" s="40">
         <v>5.157</v>
       </c>
-      <c r="Q39" s="79">
+      <c r="Q39" s="64">
         <v>7.18</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
@@ -4714,11 +5141,11 @@
       <c r="P40" s="40">
         <v>1536.3320000000001</v>
       </c>
-      <c r="Q40" s="79">
+      <c r="Q40" s="64">
         <v>1327.1690000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
@@ -4748,11 +5175,11 @@
       <c r="P41" s="40">
         <v>59.850999999999999</v>
       </c>
-      <c r="Q41" s="79">
+      <c r="Q41" s="64">
         <v>71.069999999999993</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
@@ -4782,11 +5209,11 @@
       <c r="P42" s="40">
         <v>1.1359999999999999</v>
       </c>
-      <c r="Q42" s="79">
+      <c r="Q42" s="64">
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -4816,11 +5243,11 @@
       <c r="P43" s="40">
         <v>6.1459999999999999</v>
       </c>
-      <c r="Q43" s="79">
+      <c r="Q43" s="64">
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
@@ -4850,21 +5277,21 @@
       <c r="P44" s="40">
         <v>5.3140000000000001</v>
       </c>
-      <c r="Q44" s="79">
+      <c r="Q44" s="64">
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
       <c r="L45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B47" s="45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -4880,13 +5307,13 @@
       <c r="P48" s="39">
         <v>212.815</v>
       </c>
-      <c r="Q48" s="78">
+      <c r="Q48" s="63">
         <v>147.71100000000001</v>
       </c>
-      <c r="R48" s="85"/>
-      <c r="Y48" s="85"/>
-    </row>
-    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="70"/>
+      <c r="Y48" s="70"/>
+    </row>
+    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
@@ -4902,13 +5329,13 @@
       <c r="P49" s="39">
         <v>45.9</v>
       </c>
-      <c r="Q49" s="78">
+      <c r="Q49" s="63">
         <v>35.28</v>
       </c>
-      <c r="R49" s="85"/>
-      <c r="Y49" s="85"/>
-    </row>
-    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="70"/>
+      <c r="Y49" s="70"/>
+    </row>
+    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
@@ -4924,13 +5351,13 @@
       <c r="P50" s="39">
         <v>118.514</v>
       </c>
-      <c r="Q50" s="78">
+      <c r="Q50" s="63">
         <v>194.62700000000001</v>
       </c>
-      <c r="R50" s="85"/>
-      <c r="Y50" s="85"/>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R50" s="70"/>
+      <c r="Y50" s="70"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
@@ -4946,11 +5373,11 @@
       <c r="P51" s="40">
         <v>379.67200000000003</v>
       </c>
-      <c r="Q51" s="79">
+      <c r="Q51" s="64">
         <v>418.30799999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
@@ -4966,11 +5393,11 @@
       <c r="P52" s="40">
         <v>196.75399999999999</v>
       </c>
-      <c r="Q52" s="79">
+      <c r="Q52" s="64">
         <v>168.673</v>
       </c>
     </row>
-    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
@@ -4986,13 +5413,13 @@
       <c r="P53" s="39">
         <v>154.297</v>
       </c>
-      <c r="Q53" s="78">
+      <c r="Q53" s="63">
         <v>173.04599999999999</v>
       </c>
-      <c r="R53" s="85"/>
-      <c r="Y53" s="85"/>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R53" s="70"/>
+      <c r="Y53" s="70"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
@@ -5008,11 +5435,11 @@
       <c r="P54" s="40">
         <v>61.838999999999999</v>
       </c>
-      <c r="Q54" s="79">
+      <c r="Q54" s="64">
         <v>68.055999999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -5037,7 +5464,7 @@
         <v>1205.701</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
@@ -5053,11 +5480,11 @@
       <c r="P56" s="40">
         <v>157.916</v>
       </c>
-      <c r="Q56" s="79">
+      <c r="Q56" s="64">
         <v>164.16</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5073,11 +5500,11 @@
       <c r="P57" s="40">
         <v>100.548</v>
       </c>
-      <c r="Q57" s="79">
+      <c r="Q57" s="64">
         <v>96.355000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -5097,12 +5524,12 @@
         <f>13.934+45.004</f>
         <v>58.937999999999995</v>
       </c>
-      <c r="Q58" s="79">
+      <c r="Q58" s="64">
         <f>13.039+44.819</f>
         <v>57.858000000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
@@ -5118,13 +5545,13 @@
       <c r="P59" s="39">
         <v>24.925000000000001</v>
       </c>
-      <c r="Q59" s="78">
+      <c r="Q59" s="63">
         <v>28.536000000000001</v>
       </c>
-      <c r="R59" s="85"/>
-      <c r="Y59" s="85"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R59" s="70"/>
+      <c r="Y59" s="70"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
@@ -5140,11 +5567,11 @@
       <c r="P60" s="40">
         <v>8.9920000000000009</v>
       </c>
-      <c r="Q60" s="79">
+      <c r="Q60" s="64">
         <v>8.4619999999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -5160,11 +5587,11 @@
       <c r="P61" s="40">
         <v>28.24</v>
       </c>
-      <c r="Q61" s="79">
+      <c r="Q61" s="64">
         <v>48.387999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
@@ -5180,11 +5607,11 @@
       <c r="P62" s="40">
         <v>281.69099999999997</v>
       </c>
-      <c r="Q62" s="79">
+      <c r="Q62" s="64">
         <v>290.32900000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -5200,11 +5627,11 @@
       <c r="P63" s="40">
         <v>100.982</v>
       </c>
-      <c r="Q63" s="79">
+      <c r="Q63" s="64">
         <v>110.643</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
@@ -5229,13 +5656,13 @@
         <v>2010.432</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K65" s="40"/>
       <c r="N65" s="40"/>
       <c r="P65" s="52"/>
-      <c r="Q65" s="79"/>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q65" s="64"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -5251,11 +5678,11 @@
       <c r="P66" s="52">
         <v>60.689</v>
       </c>
-      <c r="Q66" s="79">
+      <c r="Q66" s="64">
         <v>50.192999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -5271,11 +5698,11 @@
       <c r="P67" s="52">
         <v>100.98</v>
       </c>
-      <c r="Q67" s="79">
+      <c r="Q67" s="64">
         <v>112.76600000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
@@ -5291,11 +5718,11 @@
       <c r="P68" s="52">
         <v>253.185</v>
       </c>
-      <c r="Q68" s="79">
+      <c r="Q68" s="64">
         <v>246.46600000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
@@ -5311,13 +5738,13 @@
       <c r="P69" s="51">
         <v>11.33</v>
       </c>
-      <c r="Q69" s="78">
+      <c r="Q69" s="63">
         <v>15.317</v>
       </c>
-      <c r="R69" s="85"/>
-      <c r="Y69" s="85"/>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R69" s="70"/>
+      <c r="Y69" s="70"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -5333,11 +5760,11 @@
       <c r="P70" s="52">
         <v>6.7869999999999999</v>
       </c>
-      <c r="Q70" s="79">
+      <c r="Q70" s="64">
         <v>6.8010000000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -5362,7 +5789,7 @@
         <v>431.54300000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
@@ -5378,11 +5805,11 @@
       <c r="P72" s="52">
         <v>269.47699999999998</v>
       </c>
-      <c r="Q72" s="79">
+      <c r="Q72" s="64">
         <v>313.82299999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
@@ -5398,11 +5825,11 @@
       <c r="P73" s="52">
         <v>7.6920000000000002</v>
       </c>
-      <c r="Q73" s="79">
+      <c r="Q73" s="64">
         <v>7.3170000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
@@ -5418,11 +5845,11 @@
       <c r="P74" s="52">
         <v>5.5170000000000003</v>
       </c>
-      <c r="Q74" s="79">
+      <c r="Q74" s="64">
         <v>5.3689999999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>140</v>
       </c>
@@ -5438,11 +5865,11 @@
       <c r="P75" s="52">
         <v>1E-3</v>
       </c>
-      <c r="Q75" s="79">
+      <c r="Q75" s="64">
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>128</v>
       </c>
@@ -5458,11 +5885,11 @@
       <c r="P76" s="52">
         <v>18.21</v>
       </c>
-      <c r="Q76" s="79">
+      <c r="Q76" s="64">
         <v>16.311</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>129</v>
       </c>
@@ -5478,11 +5905,11 @@
       <c r="P77" s="52">
         <v>4.5039999999999996</v>
       </c>
-      <c r="Q77" s="79">
+      <c r="Q77" s="64">
         <v>4.7729999999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>130</v>
       </c>
@@ -5507,10 +5934,10 @@
         <v>779.14599999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.15">
       <c r="N79" s="40"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>131</v>
       </c>
@@ -5526,11 +5953,11 @@
       <c r="P80" s="40">
         <v>1193.6510000000001</v>
       </c>
-      <c r="Q80" s="79">
+      <c r="Q80" s="64">
         <v>1231.3130000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>132</v>
       </c>
@@ -5555,10 +5982,10 @@
         <v>2010.4590000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.15">
       <c r="N82" s="40"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
@@ -5579,11 +6006,11 @@
         <v>1193.6509999999998</v>
       </c>
       <c r="Q83" s="40">
-        <f t="shared" ref="Q83" si="70">Q64-Q78</f>
+        <f t="shared" ref="Q83" si="98">Q64-Q78</f>
         <v>1231.2860000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>134</v>
       </c>
@@ -5604,16 +6031,16 @@
         <v>16.802519707207203</v>
       </c>
       <c r="Q84" s="40">
-        <f t="shared" ref="Q84" si="71">Q83/Q19</f>
+        <f t="shared" ref="Q84" si="99">Q83/Q19</f>
         <v>17.315960453963747</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -5625,11 +6052,11 @@
         <f>N53/J53-1</f>
         <v>0.20820827497276517</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="85"/>
-      <c r="Y87" s="85"/>
-    </row>
-    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q87" s="66"/>
+      <c r="R87" s="70"/>
+      <c r="Y87" s="70"/>
+    </row>
+    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="35" t="s">
         <v>5</v>
       </c>
@@ -5638,7 +6065,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K89" s="38">
-        <f t="shared" ref="K89" si="72">K48+K49+K50</f>
+        <f t="shared" ref="K89" si="100">K48+K49+K50</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N89" s="38">
@@ -5650,13 +6077,13 @@
         <v>377.22899999999998</v>
       </c>
       <c r="Q89" s="38">
-        <f t="shared" ref="Q89" si="73">Q48+Q49+Q50</f>
+        <f t="shared" ref="Q89" si="101">Q48+Q49+Q50</f>
         <v>377.61800000000005</v>
       </c>
       <c r="R89" s="48"/>
       <c r="Y89" s="48"/>
     </row>
-    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="35" t="s">
         <v>6</v>
       </c>
@@ -5678,7 +6105,7 @@
       <c r="R90" s="48"/>
       <c r="Y90" s="48"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
@@ -5687,7 +6114,7 @@
         <v>561.96499999999992</v>
       </c>
       <c r="K91" s="40">
-        <f t="shared" ref="K91" si="74">K89-K90</f>
+        <f t="shared" ref="K91" si="102">K89-K90</f>
         <v>595.72399999999993</v>
       </c>
       <c r="N91" s="40">
@@ -5699,11 +6126,11 @@
         <v>377.22899999999998</v>
       </c>
       <c r="Q91" s="40">
-        <f t="shared" ref="Q91" si="75">Q89-Q90</f>
+        <f t="shared" ref="Q91" si="103">Q89-Q90</f>
         <v>377.61800000000005</v>
       </c>
     </row>
-    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="43" t="s">
         <v>138</v>
       </c>
@@ -5728,38 +6155,38 @@
       <c r="P93" s="43">
         <v>93.17</v>
       </c>
-      <c r="Q93" s="83">
+      <c r="Q93" s="68">
         <v>115.75</v>
       </c>
-      <c r="R93" s="86"/>
-      <c r="Y93" s="86"/>
-    </row>
-    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R93" s="71"/>
+      <c r="Y93" s="71"/>
+    </row>
+    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="40" t="s">
         <v>139</v>
       </c>
       <c r="J94" s="40">
-        <f t="shared" ref="J94:O94" si="76">J93*J19</f>
+        <f t="shared" ref="J94:O94" si="104">J93*J19</f>
         <v>7797.68667</v>
       </c>
       <c r="K94" s="40">
-        <f t="shared" ref="K94" si="77">K93*K19</f>
+        <f t="shared" ref="K94" si="105">K93*K19</f>
         <v>9120.0071200000002</v>
       </c>
       <c r="L94" s="40">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>11521.3488</v>
       </c>
       <c r="M94" s="40">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>11584.923839999999</v>
       </c>
       <c r="N94" s="40">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>10881.67</v>
       </c>
       <c r="O94" s="40">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>9771.9434999999994</v>
       </c>
       <c r="P94" s="40">
@@ -5767,13 +6194,13 @@
         <v>6618.796800000001</v>
       </c>
       <c r="Q94" s="40">
-        <f t="shared" ref="Q94" si="78">Q93*Q19</f>
+        <f t="shared" ref="Q94" si="106">Q93*Q19</f>
         <v>8230.6352499999994</v>
       </c>
       <c r="R94" s="47"/>
       <c r="Y94" s="47"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -5782,7 +6209,7 @@
         <v>7235.7216699999999</v>
       </c>
       <c r="K95" s="40">
-        <f t="shared" ref="K95" si="79">K94-K91</f>
+        <f t="shared" ref="K95" si="107">K94-K91</f>
         <v>8524.2831200000001</v>
       </c>
       <c r="N95" s="40">
@@ -5794,11 +6221,11 @@
         <v>6241.5678000000007</v>
       </c>
       <c r="Q95" s="40">
-        <f t="shared" ref="Q95" si="80">Q94-Q91</f>
+        <f t="shared" ref="Q95" si="108">Q94-Q91</f>
         <v>7853.017249999999</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="59">
         <f>AVERAGE(C97:AG97)</f>
         <v>10.162747205497784</v>
@@ -5807,15 +6234,15 @@
         <v>22</v>
       </c>
       <c r="M97" s="56">
-        <f t="shared" ref="M97:O97" si="81">M94/SUM(J5:M5)</f>
+        <f t="shared" ref="M97:O97" si="109">M94/SUM(J5:M5)</f>
         <v>13.2863316065385</v>
       </c>
       <c r="N97" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>12.603555093290217</v>
       </c>
       <c r="O97" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>10.566685013213839</v>
       </c>
       <c r="P97" s="56">
@@ -5823,11 +6250,11 @@
         <v>6.6748252834291053</v>
       </c>
       <c r="Q97" s="56">
-        <f t="shared" ref="Q97" si="82">Q94/SUM(N5:Q5)</f>
+        <f t="shared" ref="Q97" si="110">Q94/SUM(N5:Q5)</f>
         <v>7.682339031017265</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A98" s="59">
         <f>AVERAGE(C98:AG98)</f>
         <v>62.447808359934214</v>
@@ -5847,7 +6274,7 @@
         <v>78.962167745508339</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="59">
         <f>AVERAGE(C99:AG99)</f>
         <v>7.925631151755125</v>
@@ -5860,7 +6287,7 @@
         <v>7.9873462056532354</v>
       </c>
       <c r="K99" s="56">
-        <f t="shared" ref="K99" si="83">K93/K84</f>
+        <f t="shared" ref="K99" si="111">K93/K84</f>
         <v>9.021099781990257</v>
       </c>
       <c r="N99" s="56">
@@ -5872,11 +6299,11 @@
         <v>5.545001679720456</v>
       </c>
       <c r="Q99" s="56">
-        <f t="shared" ref="Q99" si="84">Q93/Q84</f>
+        <f t="shared" ref="Q99" si="112">Q93/Q84</f>
         <v>6.6845844507287495</v>
       </c>
-      <c r="R99" s="87"/>
-      <c r="Y99" s="87"/>
+      <c r="R99" s="72"/>
+      <c r="Y99" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5885,14 +6312,13 @@
     <hyperlink ref="K1" r:id="rId3" xr:uid="{DF1C6BB7-7CFF-5D44-9BEE-5CB961E150F1}"/>
     <hyperlink ref="X1" r:id="rId4" xr:uid="{24C18D69-9B16-5F49-888B-0E1F34CAFFCF}"/>
     <hyperlink ref="Q1" r:id="rId5" xr:uid="{1E775E75-414E-4EF3-BED5-DF18BB35E228}"/>
+    <hyperlink ref="W1" r:id="rId6" xr:uid="{0155C928-42DB-9C49-916E-988EB162F485}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="X3:X4 X16 X6:X14 R14" formulaRange="1"/>
-    <ignoredError sqref="X15 X5" formula="1" formulaRange="1"/>
-    <ignoredError sqref="Y5 Y9 R16 Y15" formula="1"/>
+    <ignoredError sqref="X3:X4 X16 X6:X7 R14 X10:X11 X14" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A9C6A-8C08-7747-ABA7-D33D73713413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47853D44-48CD-4B22-9F97-FE462422B611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Financial Model'!$U$5:$AI$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Financial Model'!$U$5:$AI$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1062,6 +1048,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,6 +1071,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1085,30 +1093,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1597,60 +1587,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900DF94E-F891-4352-9E7E-03CAB35A1375}">
-  <dimension ref="A2:AA37"/>
+  <dimension ref="A2:AA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B5" s="77" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="R5" s="77" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="R5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="79"/>
-      <c r="X5" s="77" t="s">
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="91"/>
+      <c r="X5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="79"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="91"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1671,7 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1705,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1735,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1767,7 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1803,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1831,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1857,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1885,7 +1875,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1903,12 +1893,12 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B15" s="77" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1926,17 +1916,17 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="97"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1954,17 +1944,17 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="97"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1982,14 +1972,14 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="97"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2005,14 +1995,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="99"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2030,7 +2020,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2048,7 +2038,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2066,12 +2056,12 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="77" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2087,14 +2077,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="97"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2112,14 +2102,14 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="96">
         <v>1993</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="97"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2137,10 +2127,10 @@
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
       <c r="G25" s="54">
         <v>43221</v>
       </c>
@@ -2162,10 +2152,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2181,7 +2171,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
@@ -2206,14 +2196,14 @@
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="88"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2235,7 +2225,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R29" s="31" t="s">
         <v>51</v>
       </c>
@@ -2243,71 +2233,72 @@
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="77" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="88">
+      <c r="C32" s="92">
         <f>C8/SUM('Financial Model'!N5:Q5)</f>
         <v>12.532665911248298</v>
       </c>
-      <c r="D32" s="89"/>
+      <c r="D32" s="93"/>
       <c r="R32" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="92">
         <f>C6/'Financial Model'!Q84</f>
         <v>10.904968309556024</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="93"/>
       <c r="R33" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="100">
+        <f>C6/SUM('Financial Model'!N18:Q18)</f>
+        <v>128.8157765475969</v>
+      </c>
+      <c r="D34" s="101"/>
       <c r="R34" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="R35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="R36" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="R37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
@@ -2322,6 +2313,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{79BCDA43-1DBD-4865-999E-0DD05314FB66}"/>
@@ -2337,29 +2333,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC786C6-03D5-4DEA-B3BA-C40A632BF30C}">
   <dimension ref="A1:BU99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.1640625" style="1"/>
-    <col min="17" max="17" width="9.1640625" style="65"/>
-    <col min="18" max="18" width="9.1640625" style="48"/>
-    <col min="19" max="24" width="9.1640625" style="1"/>
-    <col min="25" max="25" width="9.1640625" style="48"/>
-    <col min="26" max="36" width="9.1640625" style="1"/>
+    <col min="3" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="65"/>
+    <col min="18" max="18" width="9.140625" style="48"/>
+    <col min="19" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="48"/>
+    <col min="26" max="36" width="9.140625" style="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="1"/>
+    <col min="38" max="38" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="34" t="s">
         <v>152</v>
       </c>
@@ -2454,7 +2450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2506,7 +2502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>813.88283999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>381.67228</v>
       </c>
     </row>
-    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
@@ -2707,7 +2703,7 @@
         <v>26819.545924902563</v>
       </c>
     </row>
-    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
@@ -2751,7 +2747,7 @@
       </c>
       <c r="Y6" s="47"/>
     </row>
-    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="36" t="s">
         <v>68</v>
       </c>
@@ -2795,7 +2791,7 @@
       </c>
       <c r="Y7" s="47"/>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2896,7 +2892,7 @@
         <v>9923.2319922139486</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>16896.313932688616</v>
       </c>
     </row>
-    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>70</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>10982.604056247601</v>
       </c>
     </row>
-    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>71</v>
       </c>
@@ -3177,7 +3173,7 @@
         <v>4827.5182664824615</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>15810.122322730062</v>
       </c>
     </row>
-    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>1086.1916099585542</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>83.148859375000001</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
@@ -3569,7 +3565,7 @@
         <v>1169.3404693335542</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>526.20321120009942</v>
       </c>
     </row>
-    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>4106.7383561055067</v>
       </c>
     </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
@@ -3973,7 +3969,7 @@
         <v>2.3121420188470889</v>
       </c>
     </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -4030,7 +4026,7 @@
         <v>71.106999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
@@ -4056,11 +4052,11 @@
         <v>151</v>
       </c>
       <c r="V21" s="42">
-        <f t="shared" ref="V21:W21" si="41">V5/U5-1</f>
+        <f t="shared" ref="V21" si="41">V5/U5-1</f>
         <v>0.26374777416989637</v>
       </c>
       <c r="W21" s="42">
-        <f t="shared" ref="V21:X21" si="42">W5/V5-1</f>
+        <f t="shared" ref="W21" si="42">W5/V5-1</f>
         <v>0.28282974795614657</v>
       </c>
       <c r="X21" s="42">
@@ -4101,14 +4097,14 @@
       <c r="AI21" s="42">
         <v>0.35</v>
       </c>
-      <c r="AK21" s="92" t="s">
+      <c r="AK21" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="AL21" s="93">
+      <c r="AL21" s="78">
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36" t="s">
         <v>92</v>
       </c>
@@ -4134,11 +4130,11 @@
         <v>151</v>
       </c>
       <c r="V22" s="44">
-        <f t="shared" ref="V22:W22" si="45">V3/U3-1</f>
+        <f t="shared" ref="V22" si="45">V3/U3-1</f>
         <v>0.21926534100447137</v>
       </c>
       <c r="W22" s="44">
-        <f t="shared" ref="V22:X22" si="46">W3/V3-1</f>
+        <f t="shared" ref="W22" si="46">W3/V3-1</f>
         <v>0.25227173733459507</v>
       </c>
       <c r="X22" s="44">
@@ -4146,14 +4142,14 @@
         <v>0.21644177911044471</v>
       </c>
       <c r="Y22" s="48"/>
-      <c r="AK22" s="94" t="s">
+      <c r="AK22" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="AL22" s="95">
+      <c r="AL22" s="80">
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>93</v>
       </c>
@@ -4179,11 +4175,11 @@
         <v>151</v>
       </c>
       <c r="V23" s="44">
-        <f t="shared" ref="V23:W23" si="48">V4/U4-1</f>
+        <f t="shared" ref="V23" si="48">V4/U4-1</f>
         <v>0.42141875737020307</v>
       </c>
       <c r="W23" s="44">
-        <f t="shared" ref="V23:X23" si="49">W4/V4-1</f>
+        <f t="shared" ref="W23" si="49">W4/V4-1</f>
         <v>0.37574018540788212</v>
       </c>
       <c r="X23" s="44">
@@ -4191,15 +4187,15 @@
         <v>0.40996829928133982</v>
       </c>
       <c r="Y23" s="48"/>
-      <c r="AK23" s="94" t="s">
+      <c r="AK23" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="AL23" s="96">
+      <c r="AL23" s="81">
         <f>NPV(AL22,Y17:BU17)</f>
         <v>12176.120593498938</v>
       </c>
     </row>
-    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
@@ -4277,15 +4273,15 @@
       <c r="AI24" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="AK24" s="94" t="s">
+      <c r="AK24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="97">
+      <c r="AL24" s="82">
         <f>Main!C11</f>
         <v>377.61800000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
@@ -4363,15 +4359,15 @@
       <c r="AI25" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="AK25" s="94" t="s">
+      <c r="AK25" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="AL25" s="97">
+      <c r="AL25" s="82">
         <f>AL23-AL24</f>
         <v>11798.502593498937</v>
       </c>
     </row>
-    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
@@ -4449,24 +4445,24 @@
       <c r="AI26" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="AK26" s="98" t="s">
+      <c r="AK26" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="AL26" s="99">
+      <c r="AL26" s="84">
         <f>AL25/Q19</f>
         <v>165.92603531999575</v>
       </c>
     </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.15">
-      <c r="AK27" s="94" t="s">
+    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
+      <c r="AK27" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="AL27" s="97">
+      <c r="AL27" s="82">
         <f>Main!C6</f>
         <v>188.83</v>
       </c>
     </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -4513,11 +4509,11 @@
         <v>0.62</v>
       </c>
       <c r="U28" s="41">
-        <f t="shared" ref="U28:V28" si="68">U9/U5</f>
+        <f t="shared" ref="U28" si="68">U9/U5</f>
         <v>0.61557414513840614</v>
       </c>
       <c r="V28" s="41">
-        <f t="shared" ref="V28:X28" si="69">V9/V5</f>
+        <f t="shared" ref="V28:W28" si="69">V9/V5</f>
         <v>0.57884564668650873</v>
       </c>
       <c r="W28" s="41">
@@ -4562,15 +4558,15 @@
       <c r="AI28" s="41">
         <v>0.63</v>
       </c>
-      <c r="AK28" s="100" t="s">
+      <c r="AK28" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="AL28" s="101">
+      <c r="AL28" s="86">
         <f>AL26/AL27-1</f>
         <v>-0.12129409881906617</v>
       </c>
     </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
@@ -4611,11 +4607,11 @@
         <v>0.13020000000000007</v>
       </c>
       <c r="U29" s="41">
-        <f t="shared" ref="U29:V29" si="75">U13/U5</f>
+        <f t="shared" ref="U29" si="75">U13/U5</f>
         <v>5.9135663749678574E-2</v>
       </c>
       <c r="V29" s="41">
-        <f t="shared" ref="V29:X29" si="76">V13/V5</f>
+        <f t="shared" ref="V29:W29" si="76">V13/V5</f>
         <v>-1.2044606864333248E-2</v>
       </c>
       <c r="W29" s="41">
@@ -4671,7 +4667,7 @@
         <v>4.0500000000000015E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
@@ -4712,11 +4708,11 @@
         <v>0.13601707097954571</v>
       </c>
       <c r="U30" s="41">
-        <f t="shared" ref="U30:V30" si="83">U17/U5</f>
+        <f t="shared" ref="U30" si="83">U17/U5</f>
         <v>6.9524457944904111E-2</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" ref="V30:X30" si="84">V17/V5</f>
+        <f t="shared" ref="V30:W30" si="84">V17/V5</f>
         <v>1.661454997551241E-3</v>
       </c>
       <c r="W30" s="41">
@@ -4772,7 +4768,7 @@
         <v>2.3980169535095935E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
@@ -4812,11 +4808,11 @@
         <v>0.41</v>
       </c>
       <c r="U31" s="41">
-        <f t="shared" ref="U31:V31" si="91">U16/U15</f>
+        <f t="shared" ref="U31" si="91">U16/U15</f>
         <v>-3.9175918018787392E-2</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" ref="V31:X31" si="92">V16/V15</f>
+        <f t="shared" ref="V31:W31" si="92">V16/V15</f>
         <v>0.57391304347824645</v>
       </c>
       <c r="W31" s="41">
@@ -4861,7 +4857,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="O32" s="41"/>
@@ -4872,7 +4868,7 @@
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
@@ -4912,11 +4908,11 @@
         <v>0.21</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" ref="U33:V33" si="96">U11/U5</f>
+        <f t="shared" ref="U33" si="96">U11/U5</f>
         <v>0.18296085395697839</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" ref="V33:X33" si="97">V11/V5</f>
+        <f t="shared" ref="V33:W33" si="97">V11/V5</f>
         <v>0.18973175601853595</v>
       </c>
       <c r="W33" s="41">
@@ -4962,12 +4958,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="L34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>103</v>
       </c>
@@ -4975,7 +4971,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -5009,7 +5005,7 @@
         <v>40.502000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>6.9560000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>1327.1690000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
@@ -5179,7 +5175,7 @@
         <v>71.069999999999993</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
@@ -5281,17 +5277,17 @@
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="L45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -5313,7 +5309,7 @@
       <c r="R48" s="70"/>
       <c r="Y48" s="70"/>
     </row>
-    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
@@ -5335,7 +5331,7 @@
       <c r="R49" s="70"/>
       <c r="Y49" s="70"/>
     </row>
-    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
@@ -5357,7 +5353,7 @@
       <c r="R50" s="70"/>
       <c r="Y50" s="70"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>418.30799999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>168.673</v>
       </c>
     </row>
-    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
@@ -5419,7 +5415,7 @@
       <c r="R53" s="70"/>
       <c r="Y53" s="70"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>68.055999999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>1205.701</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>164.16</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>96.355000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>57.858000000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
@@ -5551,7 +5547,7 @@
       <c r="R59" s="70"/>
       <c r="Y59" s="70"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>8.4619999999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>48.387999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>290.32900000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>110.643</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
@@ -5656,13 +5652,13 @@
         <v>2010.432</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="K65" s="40"/>
       <c r="N65" s="40"/>
       <c r="P65" s="52"/>
       <c r="Q65" s="64"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>50.192999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>112.76600000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>246.46600000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
@@ -5744,7 +5740,7 @@
       <c r="R69" s="70"/>
       <c r="Y69" s="70"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -5764,7 +5760,7 @@
         <v>6.8010000000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -5789,7 +5785,7 @@
         <v>431.54300000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>313.82299999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>7.3170000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>5.3689999999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>140</v>
       </c>
@@ -5869,7 +5865,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>128</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>16.311</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>129</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>4.7729999999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>130</v>
       </c>
@@ -5934,10 +5930,10 @@
         <v>779.14599999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="N79" s="40"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>131</v>
       </c>
@@ -5957,7 +5953,7 @@
         <v>1231.3130000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>132</v>
       </c>
@@ -5982,10 +5978,10 @@
         <v>2010.4590000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="N82" s="40"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>1231.2860000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>134</v>
       </c>
@@ -6035,12 +6031,12 @@
         <v>17.315960453963747</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>136</v>
       </c>
@@ -6056,7 +6052,7 @@
       <c r="R87" s="70"/>
       <c r="Y87" s="70"/>
     </row>
-    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="35" t="s">
         <v>5</v>
       </c>
@@ -6083,7 +6079,7 @@
       <c r="R89" s="48"/>
       <c r="Y89" s="48"/>
     </row>
-    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>6</v>
       </c>
@@ -6105,7 +6101,7 @@
       <c r="R90" s="48"/>
       <c r="Y90" s="48"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
@@ -6130,7 +6126,7 @@
         <v>377.61800000000005</v>
       </c>
     </row>
-    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="43" t="s">
         <v>138</v>
       </c>
@@ -6161,7 +6157,7 @@
       <c r="R93" s="71"/>
       <c r="Y93" s="71"/>
     </row>
-    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="40" t="s">
         <v>139</v>
       </c>
@@ -6200,7 +6196,7 @@
       <c r="R94" s="47"/>
       <c r="Y94" s="47"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>7853.017249999999</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="59">
         <f>AVERAGE(C97:AG97)</f>
         <v>10.162747205497784</v>
@@ -6254,7 +6250,7 @@
         <v>7.682339031017265</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="59">
         <f>AVERAGE(C98:AG98)</f>
         <v>62.447808359934214</v>
@@ -6274,7 +6270,7 @@
         <v>78.962167745508339</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="59">
         <f>AVERAGE(C99:AG99)</f>
         <v>7.925631151755125</v>

--- a/$AXON.xlsx
+++ b/$AXON.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47853D44-48CD-4B22-9F97-FE462422B611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CB98F-3989-47A2-AA99-FEECF6F1032D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{309C4E68-998D-4D03-B9D9-E68F5F237DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Projections" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
   <si>
     <t>$AXON</t>
   </si>
@@ -663,18 +664,25 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Convertible Notes, net</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +794,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ariall"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,9 +1038,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1044,10 +1060,6 @@
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1058,12 +1070,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,12 +1077,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1093,12 +1093,58 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,16 +1233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1211,7 +1257,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11191875" y="9525"/>
+          <a:off x="11791950" y="0"/>
           <a:ext cx="0" cy="17164050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1238,15 +1284,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1262,8 +1308,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639675" y="0"/>
-          <a:ext cx="0" cy="14325600"/>
+          <a:off x="16049625" y="0"/>
+          <a:ext cx="0" cy="14973300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1590,62 +1636,62 @@
   <dimension ref="A2:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="1:27">
+      <c r="B5" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="G5" s="89" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="G5" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
-      <c r="R5" s="89" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="R5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="91"/>
-      <c r="X5" s="89" t="s">
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="X5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="91"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="86"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="20">
-        <v>188.83</v>
+        <v>209</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1671,16 +1717,16 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="20">
-        <f>'Financial Model'!Q19</f>
-        <v>71.106999999999999</v>
+        <f>'Financial Model'!R19</f>
+        <v>71.27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="8"/>
@@ -1705,13 +1751,13 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="20">
         <f>C6*C7</f>
-        <v>13427.134810000001</v>
+        <v>14895.429999999998</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1735,13 +1781,13 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="20">
-        <f>'Financial Model'!Q89</f>
-        <v>377.61800000000005</v>
+        <f>'Financial Model'!R90</f>
+        <v>974.69299999999998</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>56</v>
@@ -1767,13 +1813,13 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="20">
-        <f>'Financial Model'!Q90</f>
-        <v>0</v>
+        <f>'Financial Model'!R91</f>
+        <v>673.96699999999998</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>56</v>
@@ -1803,13 +1849,13 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="20">
         <f>C9-C10</f>
-        <v>377.61800000000005</v>
+        <v>300.726</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>56</v>
@@ -1831,13 +1877,13 @@
       <c r="T11" s="8"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="21">
         <f>C8-C11</f>
-        <v>13049.516810000001</v>
+        <v>14594.703999999998</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1857,7 +1903,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1875,7 +1921,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="G14" s="18"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1893,12 +1939,12 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+    <row r="15" spans="1:27">
+      <c r="B15" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="G15" s="18"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1916,17 +1962,17 @@
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="90"/>
       <c r="G16" s="18"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1944,17 +1990,17 @@
       <c r="T16" s="8"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="97"/>
+      <c r="D17" s="90"/>
       <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1972,14 +2018,14 @@
       <c r="T17" s="8"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="90"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1995,14 +2041,14 @@
       <c r="T18" s="8"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="92"/>
       <c r="G19" s="18"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2020,7 +2066,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="G20" s="18"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2038,7 +2084,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="G21" s="18"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2056,12 +2102,12 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+    <row r="22" spans="1:21">
+      <c r="B22" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="G22" s="18"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2077,14 +2123,14 @@
       <c r="T22" s="8"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="97"/>
+      <c r="D23" s="90"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2102,14 +2148,14 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="96">
+      <c r="C24" s="89">
         <v>1993</v>
       </c>
-      <c r="D24" s="97"/>
+      <c r="D24" s="90"/>
       <c r="G24" s="18"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2127,10 +2173,10 @@
       <c r="T24" s="8"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="B25" s="18"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
       <c r="G25" s="54">
         <v>43221</v>
       </c>
@@ -2152,10 +2198,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="B26" s="18"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="G26" s="18"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2171,14 +2217,16 @@
       <c r="T26" s="8"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="58"/>
+        <v>97</v>
+      </c>
+      <c r="D27" s="99">
+        <v>46784</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2196,14 +2244,14 @@
       <c r="T27" s="8"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="94"/>
       <c r="G28" s="19">
         <v>2007</v>
       </c>
@@ -2225,7 +2273,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="R29" s="31" t="s">
         <v>51</v>
       </c>
@@ -2233,72 +2281,77 @@
       <c r="T29" s="10"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="89" t="s">
+    <row r="31" spans="1:21">
+      <c r="B31" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="92">
-        <f>C8/SUM('Financial Model'!N5:Q5)</f>
-        <v>12.532665911248298</v>
-      </c>
-      <c r="D32" s="93"/>
+      <c r="C32" s="95">
+        <f>C8/SUM('Financial Model'!O5:R5)</f>
+        <v>12.517851815435296</v>
+      </c>
+      <c r="D32" s="96"/>
       <c r="R32" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24">
       <c r="B33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="92">
-        <f>C6/'Financial Model'!Q84</f>
-        <v>10.904968309556024</v>
-      </c>
-      <c r="D33" s="93"/>
+      <c r="C33" s="95">
+        <f>C6/'Financial Model'!R85</f>
+        <v>11.742452371323546</v>
+      </c>
+      <c r="D33" s="96"/>
       <c r="R33" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="100">
-        <f>C6/SUM('Financial Model'!N18:Q18)</f>
-        <v>128.8157765475969</v>
-      </c>
-      <c r="D34" s="101"/>
+      <c r="C34" s="97">
+        <f>C6/SUM('Financial Model'!O18:R18)</f>
+        <v>100.95920121048887</v>
+      </c>
+      <c r="D34" s="98"/>
       <c r="R34" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24">
       <c r="R35" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24">
       <c r="R36" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24">
       <c r="R37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24">
       <c r="X41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="X5:AA5"/>
@@ -2313,11 +2366,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{79BCDA43-1DBD-4865-999E-0DD05314FB66}"/>
@@ -2331,31 +2379,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC786C6-03D5-4DEA-B3BA-C40A632BF30C}">
-  <dimension ref="A1:BU99"/>
+  <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="65"/>
-    <col min="18" max="18" width="9.140625" style="48"/>
-    <col min="19" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="9.140625" style="48"/>
-    <col min="26" max="36" width="9.140625" style="1"/>
+    <col min="17" max="18" width="9.140625" style="64"/>
+    <col min="19" max="19" width="9.140625" style="48"/>
+    <col min="20" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="102"/>
+    <col min="26" max="26" width="9.140625" style="48"/>
+    <col min="27" max="36" width="9.140625" style="1"/>
     <col min="37" max="37" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:35" s="34" customFormat="1">
       <c r="C1" s="34" t="s">
         <v>152</v>
       </c>
@@ -2398,11 +2447,14 @@
       <c r="P1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="60" t="s">
         <v>97</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>177</v>
       </c>
       <c r="U1" s="34" t="s">
         <v>89</v>
@@ -2416,10 +2468,10 @@
       <c r="X1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="69" t="s">
+      <c r="Y1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="68" t="s">
         <v>158</v>
       </c>
       <c r="AA1" s="34" t="s">
@@ -2450,7 +2502,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="2:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:35" s="32" customFormat="1">
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2480,10 +2532,13 @@
       <c r="P2" s="37">
         <v>44742</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="66">
         <v>44834</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="108">
+        <v>44926</v>
+      </c>
+      <c r="S2" s="46" t="s">
         <v>58</v>
       </c>
       <c r="U2" s="37">
@@ -2498,11 +2553,15 @@
       <c r="X2" s="37">
         <v>44561</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="66">
+        <f>R2</f>
+        <v>44926</v>
+      </c>
+      <c r="Z2" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:35" s="35" customFormat="1">
       <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
@@ -2527,13 +2586,13 @@
       <c r="P3" s="38">
         <v>200.05099999999999</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="61">
         <v>210.398</v>
       </c>
-      <c r="R3" s="47">
-        <f>Q3*1.08</f>
-        <v>227.22984000000002</v>
-      </c>
+      <c r="R3" s="63">
+        <v>214.73500000000001</v>
+      </c>
+      <c r="S3" s="48"/>
       <c r="U3" s="38">
         <v>327.63499999999999</v>
       </c>
@@ -2547,12 +2606,13 @@
         <f>SUM(K3:N3)</f>
         <v>608.52499999999998</v>
       </c>
-      <c r="Y3" s="47">
+      <c r="Y3" s="61">
         <f>SUM(O3:R3)</f>
-        <v>813.88283999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>801.38800000000003</v>
+      </c>
+      <c r="Z3" s="48"/>
+    </row>
+    <row r="4" spans="2:35" s="35" customFormat="1">
       <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
@@ -2577,13 +2637,13 @@
       <c r="P4" s="38">
         <v>85.561999999999998</v>
       </c>
-      <c r="Q4" s="62">
+      <c r="Q4" s="61">
         <v>101.35599999999999</v>
       </c>
-      <c r="R4" s="47">
-        <f>Q4*1.13</f>
-        <v>114.53227999999999</v>
-      </c>
+      <c r="R4" s="63">
+        <v>121.407</v>
+      </c>
+      <c r="S4" s="48"/>
       <c r="U4" s="38">
         <v>92.433000000000007</v>
       </c>
@@ -2597,12 +2657,13 @@
         <f>SUM(K4:N4)</f>
         <v>254.85599999999999</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Y4" s="61">
         <f>SUM(O4:R4)</f>
-        <v>381.67228</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>388.54699999999997</v>
+      </c>
+      <c r="Z4" s="48"/>
+    </row>
+    <row r="5" spans="2:35" s="2" customFormat="1">
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
@@ -2638,10 +2699,11 @@
         <f t="shared" si="0"/>
         <v>311.75400000000002</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="62">
         <f t="shared" si="0"/>
-        <v>341.76211999999998</v>
-      </c>
+        <v>336.142</v>
+      </c>
+      <c r="S5" s="69"/>
       <c r="U5" s="39">
         <f t="shared" ref="U5:W5" si="1">U3+U4</f>
         <v>420.06799999999998</v>
@@ -2658,52 +2720,52 @@
         <f>X3+X4</f>
         <v>863.38099999999997</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="101">
         <f>Y3+Y4</f>
-        <v>1195.55512</v>
-      </c>
-      <c r="Z5" s="39">
+        <v>1189.9349999999999</v>
+      </c>
+      <c r="Z5" s="72">
         <f>Y5*(1+Z21)</f>
-        <v>1673.7771679999998</v>
+        <v>1665.9089999999999</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" ref="AA5:AI5" si="2">Z5*(1+AA21)</f>
-        <v>2343.2880351999997</v>
+        <v>2332.2725999999998</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="2"/>
-        <v>3233.7374885759996</v>
+        <v>3218.5361879999996</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="2"/>
-        <v>4397.8829844633592</v>
+        <v>4377.209215679999</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="2"/>
-        <v>5981.1208588701684</v>
+        <v>5953.0045333247981</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="2"/>
-        <v>8074.5131594747281</v>
+        <v>8036.5561199884778</v>
       </c>
       <c r="AF5" s="39">
         <f t="shared" si="2"/>
-        <v>10900.592765290883</v>
+        <v>10849.350761984446</v>
       </c>
       <c r="AG5" s="39">
         <f t="shared" si="2"/>
-        <v>14715.800233142692</v>
+        <v>14646.623528679003</v>
       </c>
       <c r="AH5" s="39">
         <f t="shared" si="2"/>
-        <v>19866.330314742638</v>
+        <v>19772.941763716655</v>
       </c>
       <c r="AI5" s="39">
         <f t="shared" si="2"/>
-        <v>26819.545924902563</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>26693.471381017487</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" s="35" customFormat="1">
       <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
@@ -2728,10 +2790,13 @@
       <c r="P6" s="38">
         <v>87.501999999999995</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="61">
         <v>93.724000000000004</v>
       </c>
-      <c r="R6" s="48"/>
+      <c r="R6" s="63">
+        <v>102.64100000000001</v>
+      </c>
+      <c r="S6" s="48"/>
       <c r="U6" s="38">
         <v>139.33699999999999</v>
       </c>
@@ -2745,9 +2810,13 @@
         <f>SUM(K6:N6)</f>
         <v>260.09799999999996</v>
       </c>
-      <c r="Y6" s="47"/>
-    </row>
-    <row r="7" spans="2:35" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="61">
+        <f>SUM(O6:R6)</f>
+        <v>363.21899999999999</v>
+      </c>
+      <c r="Z6" s="48"/>
+    </row>
+    <row r="7" spans="2:35" s="35" customFormat="1">
       <c r="B7" s="36" t="s">
         <v>68</v>
       </c>
@@ -2772,10 +2841,13 @@
       <c r="P7" s="38">
         <v>24.148</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="61">
         <v>24.773</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="63">
+        <v>27.821999999999999</v>
+      </c>
+      <c r="S7" s="48"/>
       <c r="U7" s="38">
         <v>22.148</v>
       </c>
@@ -2789,9 +2861,13 @@
         <f>SUM(K7:N7)</f>
         <v>62.373000000000005</v>
       </c>
-      <c r="Y7" s="47"/>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Y7" s="61">
+        <f>SUM(O7:R7)</f>
+        <v>98.078000000000003</v>
+      </c>
+      <c r="Z7" s="48"/>
+    </row>
+    <row r="8" spans="2:35">
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2824,12 +2900,12 @@
         <v>111.64999999999999</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" ref="Q8" si="5">Q6+Q7</f>
+        <f t="shared" ref="Q8:R8" si="5">Q6+Q7</f>
         <v>118.497</v>
       </c>
-      <c r="R8" s="47">
-        <f>R5*(1-R28)</f>
-        <v>129.8696056</v>
+      <c r="R8" s="40">
+        <f t="shared" si="5"/>
+        <v>130.46299999999999</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" ref="U8" si="6">U6+U7</f>
@@ -2847,52 +2923,52 @@
         <f>X6+X7</f>
         <v>322.47099999999995</v>
       </c>
-      <c r="Y8" s="47">
-        <f>SUM(O8:R8)</f>
-        <v>460.7036056</v>
-      </c>
-      <c r="Z8" s="40">
+      <c r="Y8" s="63">
+        <f>Y6+Y7</f>
+        <v>461.29700000000003</v>
+      </c>
+      <c r="Z8" s="47">
         <f>Z5*(1-Z28)</f>
-        <v>636.03532383999993</v>
+        <v>633.04541999999992</v>
       </c>
       <c r="AA8" s="40">
         <f t="shared" ref="AA8:AI8" si="8">AA5*(1-AA28)</f>
-        <v>867.01657302399985</v>
+        <v>862.94086199999992</v>
       </c>
       <c r="AB8" s="40">
         <f t="shared" si="8"/>
-        <v>1196.4828707731199</v>
+        <v>1190.8583895599998</v>
       </c>
       <c r="AC8" s="40">
         <f t="shared" si="8"/>
-        <v>1627.2167042514429</v>
+        <v>1619.5674098015995</v>
       </c>
       <c r="AD8" s="40">
         <f t="shared" si="8"/>
-        <v>2213.0147177819622</v>
+        <v>2202.6116773301751</v>
       </c>
       <c r="AE8" s="40">
         <f t="shared" si="8"/>
-        <v>2987.5698690056493</v>
+        <v>2973.5257643957366</v>
       </c>
       <c r="AF8" s="40">
         <f t="shared" si="8"/>
-        <v>4033.2193231576266</v>
+        <v>4014.259781934245</v>
       </c>
       <c r="AG8" s="40">
         <f t="shared" si="8"/>
-        <v>5444.8460862627962</v>
+        <v>5419.2507056112308</v>
       </c>
       <c r="AH8" s="40">
         <f t="shared" si="8"/>
-        <v>7350.5422164547763</v>
+        <v>7315.9884525751622</v>
       </c>
       <c r="AI8" s="40">
         <f t="shared" si="8"/>
-        <v>9923.2319922139486</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9876.5844109764694</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2928,10 +3004,11 @@
         <f t="shared" ref="Q9:R9" si="11">Q5-Q8</f>
         <v>193.25700000000001</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="62">
         <f t="shared" si="11"/>
-        <v>211.89251439999998</v>
-      </c>
+        <v>205.679</v>
+      </c>
+      <c r="S9" s="69"/>
       <c r="U9" s="39">
         <f t="shared" ref="U9" si="12">U5-U8</f>
         <v>258.58299999999997</v>
@@ -2948,52 +3025,52 @@
         <f>X5-X8</f>
         <v>540.91000000000008</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="101">
         <f>Y5-Y8</f>
-        <v>734.85151440000004</v>
-      </c>
-      <c r="Z9" s="39">
+        <v>728.63799999999992</v>
+      </c>
+      <c r="Z9" s="72">
         <f>Z5-Z8</f>
-        <v>1037.7418441599998</v>
+        <v>1032.86358</v>
       </c>
       <c r="AA9" s="39">
         <f t="shared" ref="AA9:AI9" si="14">AA5-AA8</f>
-        <v>1476.2714621759999</v>
+        <v>1469.3317379999999</v>
       </c>
       <c r="AB9" s="39">
         <f t="shared" si="14"/>
-        <v>2037.2546178028797</v>
+        <v>2027.6777984399998</v>
       </c>
       <c r="AC9" s="39">
         <f t="shared" si="14"/>
-        <v>2770.6662802119163</v>
+        <v>2757.6418058783993</v>
       </c>
       <c r="AD9" s="39">
         <f t="shared" si="14"/>
-        <v>3768.1061410882062</v>
+        <v>3750.392855994623</v>
       </c>
       <c r="AE9" s="39">
         <f t="shared" si="14"/>
-        <v>5086.9432904690784</v>
+        <v>5063.0303555927412</v>
       </c>
       <c r="AF9" s="39">
         <f t="shared" si="14"/>
-        <v>6867.3734421332565</v>
+        <v>6835.0909800502013</v>
       </c>
       <c r="AG9" s="39">
         <f t="shared" si="14"/>
-        <v>9270.9541468798961</v>
+        <v>9227.3728230677734</v>
       </c>
       <c r="AH9" s="39">
         <f t="shared" si="14"/>
-        <v>12515.788098287861</v>
+        <v>12456.953311141493</v>
       </c>
       <c r="AI9" s="39">
         <f t="shared" si="14"/>
-        <v>16896.313932688616</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16816.886970041018</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" s="40" customFormat="1">
       <c r="B10" s="40" t="s">
         <v>70</v>
       </c>
@@ -3018,13 +3095,13 @@
       <c r="P10" s="40">
         <v>95.004999999999995</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="63">
         <v>102.023</v>
       </c>
-      <c r="R10" s="47">
-        <f>R9*0.58</f>
-        <v>122.89765835199998</v>
-      </c>
+      <c r="R10" s="63">
+        <v>114.41800000000001</v>
+      </c>
+      <c r="S10" s="47"/>
       <c r="U10" s="40">
         <v>156.886</v>
       </c>
@@ -3038,52 +3115,52 @@
         <f>SUM(K10:N10)</f>
         <v>515.00700000000006</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="Y10" s="61">
         <f>SUM(O10:R10)</f>
-        <v>410.05465835200005</v>
-      </c>
-      <c r="Z10" s="40">
+        <v>401.57500000000005</v>
+      </c>
+      <c r="Z10" s="47">
         <f t="shared" ref="Z10:AI10" si="15">Z9*0.65</f>
-        <v>674.53219870399994</v>
+        <v>671.36132699999996</v>
       </c>
       <c r="AA10" s="40">
         <f t="shared" si="15"/>
-        <v>959.57645041439991</v>
+        <v>955.06562969999993</v>
       </c>
       <c r="AB10" s="40">
         <f t="shared" si="15"/>
-        <v>1324.2155015718718</v>
+        <v>1317.990568986</v>
       </c>
       <c r="AC10" s="40">
         <f t="shared" si="15"/>
-        <v>1800.9330821377457</v>
+        <v>1792.4671738209595</v>
       </c>
       <c r="AD10" s="40">
         <f t="shared" si="15"/>
-        <v>2449.268991707334</v>
+        <v>2437.7553563965052</v>
       </c>
       <c r="AE10" s="40">
         <f t="shared" si="15"/>
-        <v>3306.5131388049012</v>
+        <v>3290.969731135282</v>
       </c>
       <c r="AF10" s="40">
         <f t="shared" si="15"/>
-        <v>4463.7927373866169</v>
+        <v>4442.809137032631</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" si="15"/>
-        <v>6026.1201954719327</v>
+        <v>5997.7923349940529</v>
       </c>
       <c r="AH10" s="40">
         <f t="shared" si="15"/>
-        <v>8135.2622638871098</v>
+        <v>8097.019652241971</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" si="15"/>
-        <v>10982.604056247601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10930.976530526663</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" s="40" customFormat="1">
       <c r="B11" s="40" t="s">
         <v>71</v>
       </c>
@@ -3108,13 +3185,13 @@
       <c r="P11" s="40">
         <v>57.546999999999997</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="63">
         <v>59.127000000000002</v>
       </c>
-      <c r="R11" s="47">
-        <f>R9*R33</f>
-        <v>44.497428023999994</v>
-      </c>
+      <c r="R11" s="63">
+        <v>68.72</v>
+      </c>
+      <c r="S11" s="47"/>
       <c r="U11" s="40">
         <v>76.855999999999995</v>
       </c>
@@ -3128,52 +3205,52 @@
         <f t="shared" ref="X11:X16" si="16">SUM(K11:N11)</f>
         <v>194.02600000000001</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="Y11" s="61">
         <f>SUM(O11:R11)</f>
-        <v>209.58742802399999</v>
-      </c>
-      <c r="Z11" s="40">
+        <v>233.81</v>
+      </c>
+      <c r="Z11" s="47">
         <f>Z5*Z33</f>
-        <v>318.01766191999997</v>
+        <v>316.52270999999996</v>
       </c>
       <c r="AA11" s="40">
         <f t="shared" ref="AA11:AI11" si="17">AA5*AA33</f>
-        <v>468.65760703999996</v>
+        <v>466.45452</v>
       </c>
       <c r="AB11" s="40">
         <f t="shared" si="17"/>
-        <v>646.74749771519998</v>
+        <v>643.70723759999998</v>
       </c>
       <c r="AC11" s="40">
         <f t="shared" si="17"/>
-        <v>879.57659689267189</v>
+        <v>875.44184313599987</v>
       </c>
       <c r="AD11" s="40">
         <f t="shared" si="17"/>
-        <v>1196.2241717740337</v>
+        <v>1190.6009066649597</v>
       </c>
       <c r="AE11" s="40">
         <f t="shared" si="17"/>
-        <v>1614.9026318949457</v>
+        <v>1607.3112239976956</v>
       </c>
       <c r="AF11" s="40">
         <f t="shared" si="17"/>
-        <v>1962.106697752359</v>
+        <v>1952.8831371572003</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" si="17"/>
-        <v>2648.8440419656845</v>
+        <v>2636.3922351622205</v>
       </c>
       <c r="AH11" s="40">
         <f t="shared" si="17"/>
-        <v>3575.9394566536748</v>
+        <v>3559.1295174689976</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" si="17"/>
-        <v>4827.5182664824615</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
+        <v>4804.8248485831473</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3209,9 +3286,9 @@
         <f t="shared" ref="Q12:R12" si="19">Q10+Q11</f>
         <v>161.15</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="63">
         <f t="shared" si="19"/>
-        <v>167.39508637599997</v>
+        <v>183.13800000000001</v>
       </c>
       <c r="U12" s="40">
         <f t="shared" ref="U12:V12" si="20">U10+U11</f>
@@ -3229,52 +3306,52 @@
         <f>X10+X11</f>
         <v>709.03300000000013</v>
       </c>
-      <c r="Y12" s="47">
+      <c r="Y12" s="63">
         <f>Y10+Y11</f>
-        <v>619.64208637600007</v>
-      </c>
-      <c r="Z12" s="40">
+        <v>635.38499999999999</v>
+      </c>
+      <c r="Z12" s="47">
         <f t="shared" ref="Z12:AI12" si="22">Z10+Z11</f>
-        <v>992.54986062399985</v>
+        <v>987.88403699999992</v>
       </c>
       <c r="AA12" s="40">
         <f t="shared" si="22"/>
-        <v>1428.2340574543998</v>
+        <v>1421.5201496999998</v>
       </c>
       <c r="AB12" s="40">
         <f t="shared" si="22"/>
-        <v>1970.9629992870719</v>
+        <v>1961.6978065859998</v>
       </c>
       <c r="AC12" s="40">
         <f t="shared" si="22"/>
-        <v>2680.5096790304178</v>
+        <v>2667.9090169569595</v>
       </c>
       <c r="AD12" s="40">
         <f t="shared" si="22"/>
-        <v>3645.4931634813674</v>
+        <v>3628.3562630614651</v>
       </c>
       <c r="AE12" s="40">
         <f t="shared" si="22"/>
-        <v>4921.4157706998467</v>
+        <v>4898.2809551329774</v>
       </c>
       <c r="AF12" s="40">
         <f t="shared" si="22"/>
-        <v>6425.8994351389756</v>
+        <v>6395.6922741898316</v>
       </c>
       <c r="AG12" s="40">
         <f t="shared" si="22"/>
-        <v>8674.9642374376162</v>
+        <v>8634.1845701562743</v>
       </c>
       <c r="AH12" s="40">
         <f t="shared" si="22"/>
-        <v>11711.201720540785</v>
+        <v>11656.149169710969</v>
       </c>
       <c r="AI12" s="40">
         <f t="shared" si="22"/>
-        <v>15810.122322730062</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15735.801379109809</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3309,10 +3386,11 @@
         <f t="shared" ref="Q13:R13" si="24">Q9-Q12</f>
         <v>32.106999999999999</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="62">
         <f t="shared" si="24"/>
-        <v>44.497428024000016</v>
-      </c>
+        <v>22.540999999999997</v>
+      </c>
+      <c r="S13" s="69"/>
       <c r="U13" s="39">
         <f t="shared" ref="U13:V13" si="25">U9-U12</f>
         <v>24.84099999999998</v>
@@ -3329,52 +3407,52 @@
         <f>X9-X12</f>
         <v>-168.12300000000005</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13" s="101">
         <f>Y9-Y12</f>
-        <v>115.20942802399998</v>
-      </c>
-      <c r="Z13" s="39">
+        <v>93.252999999999929</v>
+      </c>
+      <c r="Z13" s="72">
         <f>Z9-Z12</f>
-        <v>45.191983535999952</v>
+        <v>44.979543000000035</v>
       </c>
       <c r="AA13" s="39">
         <f t="shared" ref="AA13:AI13" si="27">AA9-AA12</f>
-        <v>48.037404721600069</v>
+        <v>47.811588300000039</v>
       </c>
       <c r="AB13" s="39">
         <f t="shared" si="27"/>
-        <v>66.291618515807841</v>
+        <v>65.979991853999991</v>
       </c>
       <c r="AC13" s="39">
         <f t="shared" si="27"/>
-        <v>90.156601181498445</v>
+        <v>89.732788921439806</v>
       </c>
       <c r="AD13" s="39">
         <f t="shared" si="27"/>
-        <v>122.61297760683874</v>
+        <v>122.03659293315786</v>
       </c>
       <c r="AE13" s="39">
         <f t="shared" si="27"/>
-        <v>165.52751976923173</v>
+        <v>164.74940045976382</v>
       </c>
       <c r="AF13" s="39">
         <f t="shared" si="27"/>
-        <v>441.4740069942809</v>
+        <v>439.39870586036977</v>
       </c>
       <c r="AG13" s="39">
         <f t="shared" si="27"/>
-        <v>595.9899094422799</v>
+        <v>593.18825291149915</v>
       </c>
       <c r="AH13" s="39">
         <f t="shared" si="27"/>
-        <v>804.58637774707677</v>
+        <v>800.8041414305244</v>
       </c>
       <c r="AI13" s="39">
         <f t="shared" si="27"/>
-        <v>1086.1916099585542</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+        <v>1081.0855909312086</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35">
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
@@ -3399,12 +3477,11 @@
       <c r="P14" s="40">
         <v>47.026000000000003</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="63">
         <v>-11.249000000000001</v>
       </c>
-      <c r="R14" s="47">
-        <f>AVERAGE(N14:Q14)</f>
-        <v>20.231999999999999</v>
+      <c r="R14" s="63">
+        <v>12.189</v>
       </c>
       <c r="U14" s="40">
         <v>3.2629999999999999</v>
@@ -3419,52 +3496,52 @@
         <f t="shared" si="16"/>
         <v>26.748000000000001</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Y14" s="61">
         <f>SUM(O14:R14)</f>
-        <v>111.30800000000001</v>
-      </c>
-      <c r="Z14" s="40">
+        <v>103.26500000000001</v>
+      </c>
+      <c r="Z14" s="47">
         <f>AVERAGE(X14:Y14)</f>
-        <v>69.028000000000006</v>
+        <v>65.006500000000003</v>
       </c>
       <c r="AA14" s="40">
         <f t="shared" ref="AA14:AI14" si="28">AVERAGE(Y14:Z14)</f>
-        <v>90.168000000000006</v>
+        <v>84.135750000000002</v>
       </c>
       <c r="AB14" s="40">
         <f t="shared" si="28"/>
-        <v>79.598000000000013</v>
+        <v>74.571124999999995</v>
       </c>
       <c r="AC14" s="40">
         <f t="shared" si="28"/>
-        <v>84.88300000000001</v>
+        <v>79.353437499999998</v>
       </c>
       <c r="AD14" s="40">
         <f t="shared" si="28"/>
-        <v>82.240500000000011</v>
+        <v>76.96228124999999</v>
       </c>
       <c r="AE14" s="40">
         <f t="shared" si="28"/>
-        <v>83.561750000000018</v>
+        <v>78.157859374999987</v>
       </c>
       <c r="AF14" s="40">
         <f t="shared" si="28"/>
-        <v>82.901125000000008</v>
+        <v>77.560070312499988</v>
       </c>
       <c r="AG14" s="40">
         <f t="shared" si="28"/>
-        <v>83.231437500000013</v>
+        <v>77.858964843749987</v>
       </c>
       <c r="AH14" s="40">
         <f t="shared" si="28"/>
-        <v>83.066281250000003</v>
+        <v>77.709517578124988</v>
       </c>
       <c r="AI14" s="40">
         <f t="shared" si="28"/>
-        <v>83.148859375000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
+        <v>77.784241210937495</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35">
       <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
@@ -3500,9 +3577,9 @@
         <f t="shared" si="29"/>
         <v>20.857999999999997</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="63">
         <f>R13+R14</f>
-        <v>64.729428024000015</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="U15" s="40">
         <f t="shared" ref="U15:W15" si="30">U13+U14</f>
@@ -3520,52 +3597,52 @@
         <f>X13+X14</f>
         <v>-141.37500000000006</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Y15" s="61">
         <f>Y13+Y14</f>
-        <v>226.51742802399997</v>
-      </c>
-      <c r="Z15" s="40">
+        <v>196.51799999999994</v>
+      </c>
+      <c r="Z15" s="47">
         <f>Z13+Z14</f>
-        <v>114.21998353599996</v>
+        <v>109.98604300000004</v>
       </c>
       <c r="AA15" s="40">
         <f t="shared" ref="AA15:AI15" si="31">AA13+AA14</f>
-        <v>138.20540472160008</v>
+        <v>131.94733830000004</v>
       </c>
       <c r="AB15" s="40">
         <f t="shared" si="31"/>
-        <v>145.88961851580785</v>
+        <v>140.55111685399999</v>
       </c>
       <c r="AC15" s="40">
         <f t="shared" si="31"/>
-        <v>175.03960118149845</v>
+        <v>169.08622642143979</v>
       </c>
       <c r="AD15" s="40">
         <f t="shared" si="31"/>
-        <v>204.85347760683874</v>
+        <v>198.99887418315785</v>
       </c>
       <c r="AE15" s="40">
         <f t="shared" si="31"/>
-        <v>249.08926976923175</v>
+        <v>242.90725983476381</v>
       </c>
       <c r="AF15" s="40">
         <f t="shared" si="31"/>
-        <v>524.37513199428088</v>
+        <v>516.95877617286976</v>
       </c>
       <c r="AG15" s="40">
         <f t="shared" si="31"/>
-        <v>679.22134694227987</v>
+        <v>671.04721775524911</v>
       </c>
       <c r="AH15" s="40">
         <f t="shared" si="31"/>
-        <v>887.65265899707674</v>
+        <v>878.51365900864937</v>
       </c>
       <c r="AI15" s="40">
         <f t="shared" si="31"/>
-        <v>1169.3404693335542</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
+        <v>1158.8698321421462</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3590,13 +3667,13 @@
       <c r="P16" s="40">
         <v>17.475000000000001</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="63">
         <v>8.7270000000000003</v>
       </c>
-      <c r="R16" s="47">
-        <f>R13*R31</f>
-        <v>18.243945489840005</v>
-      </c>
+      <c r="R16" s="63">
+        <v>5.5549999999999997</v>
+      </c>
+      <c r="S16" s="47"/>
       <c r="U16" s="40">
         <v>-1.101</v>
       </c>
@@ -3610,52 +3687,52 @@
         <f t="shared" si="16"/>
         <v>-81.356999999999999</v>
       </c>
-      <c r="Y16" s="47">
+      <c r="Y16" s="112">
         <f>SUM(O16:R16)</f>
-        <v>62.107945489840006</v>
-      </c>
-      <c r="Z16" s="40">
+        <v>49.419000000000004</v>
+      </c>
+      <c r="Z16" s="47">
         <f>Z15*Z31</f>
-        <v>46.830193249759979</v>
+        <v>45.094277630000015</v>
       </c>
       <c r="AA16" s="40">
         <f t="shared" ref="AA16:AI16" si="32">AA15*AA31</f>
-        <v>58.04626998307203</v>
+        <v>55.417882086000013</v>
       </c>
       <c r="AB16" s="40">
         <f t="shared" si="32"/>
-        <v>62.732535961797375</v>
+        <v>60.436980247219992</v>
       </c>
       <c r="AC16" s="40">
         <f t="shared" si="32"/>
-        <v>84.019008567119258</v>
+        <v>81.16138868229109</v>
       </c>
       <c r="AD16" s="40">
         <f t="shared" si="32"/>
-        <v>98.329669251282596</v>
+        <v>95.519459607915763</v>
       </c>
       <c r="AE16" s="40">
         <f t="shared" si="32"/>
-        <v>139.4899910707698</v>
+        <v>136.02806550746774</v>
       </c>
       <c r="AF16" s="40">
         <f t="shared" si="32"/>
-        <v>298.8938252367401</v>
+        <v>294.66650241853574</v>
       </c>
       <c r="AG16" s="40">
         <f t="shared" si="32"/>
-        <v>393.94838122652232</v>
+        <v>389.20738629804447</v>
       </c>
       <c r="AH16" s="40">
         <f t="shared" si="32"/>
-        <v>523.7150688082753</v>
+        <v>518.32305881510308</v>
       </c>
       <c r="AI16" s="40">
         <f t="shared" si="32"/>
-        <v>526.20321120009942</v>
-      </c>
-    </row>
-    <row r="17" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>521.49142446396581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:73" s="2" customFormat="1">
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3691,10 +3768,11 @@
         <f t="shared" si="33"/>
         <v>12.130999999999997</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="62">
         <f>R15-R16</f>
-        <v>46.485482534160013</v>
-      </c>
+        <v>29.174999999999997</v>
+      </c>
+      <c r="S17" s="69"/>
       <c r="U17" s="39">
         <f t="shared" ref="U17:W17" si="34">U15-U16</f>
         <v>29.204999999999977</v>
@@ -3711,204 +3789,204 @@
         <f>X15-X16</f>
         <v>-60.018000000000058</v>
       </c>
-      <c r="Y17" s="73">
+      <c r="Y17" s="101">
         <f>Y15-Y16</f>
-        <v>164.40948253415996</v>
-      </c>
-      <c r="Z17" s="39">
+        <v>147.09899999999993</v>
+      </c>
+      <c r="Z17" s="72">
         <f>Z15-Z16</f>
-        <v>67.389790286239986</v>
+        <v>64.89176537000003</v>
       </c>
       <c r="AA17" s="39">
         <f t="shared" ref="AA17:AI17" si="35">AA15-AA16</f>
-        <v>80.159134738528053</v>
+        <v>76.529456214000021</v>
       </c>
       <c r="AB17" s="39">
         <f t="shared" si="35"/>
-        <v>83.157082554010486</v>
+        <v>80.114136606779994</v>
       </c>
       <c r="AC17" s="39">
         <f t="shared" si="35"/>
-        <v>91.020592614379197</v>
+        <v>87.9248377391487</v>
       </c>
       <c r="AD17" s="39">
         <f t="shared" si="35"/>
-        <v>106.52380835555614</v>
+        <v>103.47941457524209</v>
       </c>
       <c r="AE17" s="39">
         <f t="shared" si="35"/>
-        <v>109.59927869846194</v>
+        <v>106.87919432729606</v>
       </c>
       <c r="AF17" s="39">
         <f t="shared" si="35"/>
-        <v>225.48130675754078</v>
+        <v>222.29227375433402</v>
       </c>
       <c r="AG17" s="39">
         <f t="shared" si="35"/>
-        <v>285.27296571575755</v>
+        <v>281.83983145720464</v>
       </c>
       <c r="AH17" s="39">
         <f t="shared" si="35"/>
-        <v>363.93759018880144</v>
+        <v>360.19060019354629</v>
       </c>
       <c r="AI17" s="39">
         <f t="shared" si="35"/>
-        <v>643.13725813345479</v>
+        <v>637.37840767818034</v>
       </c>
       <c r="AJ17" s="39">
         <f>AI17*(1+$AL$21)</f>
-        <v>675.29412104012761</v>
+        <v>669.24732806208942</v>
       </c>
       <c r="AK17" s="39">
         <f t="shared" ref="AK17:BU17" si="36">AJ17*(1+$AL$21)</f>
-        <v>709.05882709213404</v>
+        <v>702.70969446519393</v>
       </c>
       <c r="AL17" s="39">
         <f t="shared" si="36"/>
-        <v>744.5117684467408</v>
+        <v>737.8451791884537</v>
       </c>
       <c r="AM17" s="39">
         <f t="shared" si="36"/>
-        <v>781.73735686907787</v>
+        <v>774.73743814787645</v>
       </c>
       <c r="AN17" s="39">
         <f t="shared" si="36"/>
-        <v>820.82422471253176</v>
+        <v>813.47431005527028</v>
       </c>
       <c r="AO17" s="39">
         <f t="shared" si="36"/>
-        <v>861.86543594815839</v>
+        <v>854.14802555803385</v>
       </c>
       <c r="AP17" s="39">
         <f t="shared" si="36"/>
-        <v>904.95870774556636</v>
+        <v>896.85542683593553</v>
       </c>
       <c r="AQ17" s="39">
         <f t="shared" si="36"/>
-        <v>950.20664313284476</v>
+        <v>941.69819817773237</v>
       </c>
       <c r="AR17" s="39">
         <f t="shared" si="36"/>
-        <v>997.7169752894871</v>
+        <v>988.783108086619</v>
       </c>
       <c r="AS17" s="39">
         <f t="shared" si="36"/>
-        <v>1047.6028240539615</v>
+        <v>1038.2222634909499</v>
       </c>
       <c r="AT17" s="39">
         <f t="shared" si="36"/>
-        <v>1099.9829652566596</v>
+        <v>1090.1333766654975</v>
       </c>
       <c r="AU17" s="39">
         <f t="shared" si="36"/>
-        <v>1154.9821135194925</v>
+        <v>1144.6400454987725</v>
       </c>
       <c r="AV17" s="39">
         <f t="shared" si="36"/>
-        <v>1212.7312191954672</v>
+        <v>1201.8720477737111</v>
       </c>
       <c r="AW17" s="39">
         <f t="shared" si="36"/>
-        <v>1273.3677801552406</v>
+        <v>1261.9656501623967</v>
       </c>
       <c r="AX17" s="39">
         <f t="shared" si="36"/>
-        <v>1337.0361691630026</v>
+        <v>1325.0639326705166</v>
       </c>
       <c r="AY17" s="39">
         <f t="shared" si="36"/>
-        <v>1403.8879776211527</v>
+        <v>1391.3171293040425</v>
       </c>
       <c r="AZ17" s="39">
         <f t="shared" si="36"/>
-        <v>1474.0823765022103</v>
+        <v>1460.8829857692447</v>
       </c>
       <c r="BA17" s="39">
         <f t="shared" si="36"/>
-        <v>1547.7864953273208</v>
+        <v>1533.9271350577069</v>
       </c>
       <c r="BB17" s="39">
         <f t="shared" si="36"/>
-        <v>1625.175820093687</v>
+        <v>1610.6234918105922</v>
       </c>
       <c r="BC17" s="39">
         <f t="shared" si="36"/>
-        <v>1706.4346110983713</v>
+        <v>1691.1546664011219</v>
       </c>
       <c r="BD17" s="39">
         <f t="shared" si="36"/>
-        <v>1791.7563416532898</v>
+        <v>1775.7123997211779</v>
       </c>
       <c r="BE17" s="39">
         <f t="shared" si="36"/>
-        <v>1881.3441587359544</v>
+        <v>1864.4980197072368</v>
       </c>
       <c r="BF17" s="39">
         <f t="shared" si="36"/>
-        <v>1975.4113666727521</v>
+        <v>1957.7229206925988</v>
       </c>
       <c r="BG17" s="39">
         <f t="shared" si="36"/>
-        <v>2074.1819350063897</v>
+        <v>2055.6090667272288</v>
       </c>
       <c r="BH17" s="39">
         <f t="shared" si="36"/>
-        <v>2177.8910317567093</v>
+        <v>2158.3895200635902</v>
       </c>
       <c r="BI17" s="39">
         <f t="shared" si="36"/>
-        <v>2286.7855833445446</v>
+        <v>2266.3089960667699</v>
       </c>
       <c r="BJ17" s="39">
         <f t="shared" si="36"/>
-        <v>2401.1248625117719</v>
+        <v>2379.6244458701085</v>
       </c>
       <c r="BK17" s="39">
         <f t="shared" si="36"/>
-        <v>2521.1811056373604</v>
+        <v>2498.6056681636142</v>
       </c>
       <c r="BL17" s="39">
         <f t="shared" si="36"/>
-        <v>2647.2401609192284</v>
+        <v>2623.5359515717951</v>
       </c>
       <c r="BM17" s="39">
         <f t="shared" si="36"/>
-        <v>2779.6021689651898</v>
+        <v>2754.7127491503848</v>
       </c>
       <c r="BN17" s="39">
         <f t="shared" si="36"/>
-        <v>2918.5822774134494</v>
+        <v>2892.448386607904</v>
       </c>
       <c r="BO17" s="39">
         <f t="shared" si="36"/>
-        <v>3064.5113912841221</v>
+        <v>3037.0708059382991</v>
       </c>
       <c r="BP17" s="39">
         <f t="shared" si="36"/>
-        <v>3217.7369608483282</v>
+        <v>3188.9243462352142</v>
       </c>
       <c r="BQ17" s="39">
         <f t="shared" si="36"/>
-        <v>3378.6238088907448</v>
+        <v>3348.3705635469751</v>
       </c>
       <c r="BR17" s="39">
         <f t="shared" si="36"/>
-        <v>3547.5549993352824</v>
+        <v>3515.789091724324</v>
       </c>
       <c r="BS17" s="39">
         <f t="shared" si="36"/>
-        <v>3724.9327493020469</v>
+        <v>3691.5785463105403</v>
       </c>
       <c r="BT17" s="39">
         <f t="shared" si="36"/>
-        <v>3911.1793867671495</v>
+        <v>3876.1574736260677</v>
       </c>
       <c r="BU17" s="39">
         <f t="shared" si="36"/>
-        <v>4106.7383561055067</v>
-      </c>
-    </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
+        <v>4069.9653473073713</v>
+      </c>
+    </row>
+    <row r="18" spans="2:73">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
@@ -3944,9 +4022,9 @@
         <f t="shared" si="37"/>
         <v>0.17060205043104049</v>
       </c>
-      <c r="R18" s="71">
+      <c r="R18" s="67">
         <f>R17/R19</f>
-        <v>0.65373989247415887</v>
+        <v>0.40935877648379398</v>
       </c>
       <c r="U18" s="43">
         <f t="shared" ref="U18:W18" si="38">U17/U19</f>
@@ -3964,12 +4042,12 @@
         <f>X17/X19</f>
         <v>-0.86593565142115214</v>
       </c>
-      <c r="Y18" s="75">
+      <c r="Y18" s="109">
         <f>Y17/Y19</f>
-        <v>2.3121420188470889</v>
-      </c>
-    </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
+        <v>2.0691066631032582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -4001,12 +4079,11 @@
       <c r="P19" s="40">
         <v>71.040000000000006</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="63">
         <v>71.106999999999999</v>
       </c>
-      <c r="R19" s="47">
-        <f>Q19</f>
-        <v>71.106999999999999</v>
+      <c r="R19" s="63">
+        <v>71.27</v>
       </c>
       <c r="U19" s="40">
         <v>56.392000000000003</v>
@@ -4021,12 +4098,11 @@
         <f>N19</f>
         <v>69.31</v>
       </c>
-      <c r="Y19" s="47">
-        <f>Q19</f>
-        <v>71.106999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="112">
+        <v>71.093000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:73" s="2" customFormat="1">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
@@ -4047,27 +4123,31 @@
         <f t="shared" ref="Q21" si="40">Q5/M5-1</f>
         <v>0.34383095750229553</v>
       </c>
-      <c r="R21" s="70"/>
+      <c r="R21" s="42">
+        <f t="shared" ref="R21" si="41">R5/N5-1</f>
+        <v>0.5449264171929149</v>
+      </c>
+      <c r="S21" s="69"/>
       <c r="U21" s="34" t="s">
         <v>151</v>
       </c>
       <c r="V21" s="42">
-        <f t="shared" ref="V21" si="41">V5/U5-1</f>
+        <f t="shared" ref="V21" si="42">V5/U5-1</f>
         <v>0.26374777416989637</v>
       </c>
       <c r="W21" s="42">
-        <f t="shared" ref="W21" si="42">W5/V5-1</f>
+        <f t="shared" ref="W21" si="43">W5/V5-1</f>
         <v>0.28282974795614657</v>
       </c>
       <c r="X21" s="42">
         <f>X5/W5-1</f>
         <v>0.26780792448785107</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="Y21" s="110">
         <f>Y5/X5-1</f>
-        <v>0.38473642574946632</v>
-      </c>
-      <c r="Z21" s="42">
+        <v>0.37822699364475243</v>
+      </c>
+      <c r="Z21" s="73">
         <v>0.4</v>
       </c>
       <c r="AA21" s="42">
@@ -4097,14 +4177,14 @@
       <c r="AI21" s="42">
         <v>0.35</v>
       </c>
-      <c r="AK21" s="77" t="s">
+      <c r="AK21" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="AL21" s="78">
+      <c r="AL21" s="75">
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:73" s="35" customFormat="1">
       <c r="B22" s="36" t="s">
         <v>92</v>
       </c>
@@ -4114,7 +4194,7 @@
         <v>-0.16487284339176189</v>
       </c>
       <c r="O22" s="44">
-        <f t="shared" ref="O22:O23" si="43">O3/K3-1</f>
+        <f t="shared" ref="O22:O23" si="44">O3/K3-1</f>
         <v>0.25068495095325316</v>
       </c>
       <c r="P22" s="44">
@@ -4122,101 +4202,117 @@
         <v>0.27887768735576346</v>
       </c>
       <c r="Q22" s="44">
-        <f t="shared" ref="Q22:Q23" si="44">Q3/M3-1</f>
+        <f t="shared" ref="Q22:Q23" si="45">Q3/M3-1</f>
         <v>0.26896377025747431</v>
       </c>
-      <c r="R22" s="48"/>
+      <c r="R22" s="44">
+        <f t="shared" ref="R22:R23" si="46">R3/N3-1</f>
+        <v>0.47676553720883863</v>
+      </c>
+      <c r="S22" s="48"/>
       <c r="U22" s="23" t="s">
         <v>151</v>
       </c>
       <c r="V22" s="44">
-        <f t="shared" ref="V22" si="45">V3/U3-1</f>
+        <f t="shared" ref="V22" si="47">V3/U3-1</f>
         <v>0.21926534100447137</v>
       </c>
       <c r="W22" s="44">
-        <f t="shared" ref="W22" si="46">W3/V3-1</f>
+        <f t="shared" ref="W22" si="48">W3/V3-1</f>
         <v>0.25227173733459507</v>
       </c>
       <c r="X22" s="44">
         <f>X3/W3-1</f>
         <v>0.21644177911044471</v>
       </c>
-      <c r="Y22" s="48"/>
-      <c r="AK22" s="79" t="s">
+      <c r="Y22" s="44">
+        <f t="shared" ref="Y22:Y23" si="49">Y3/X3-1</f>
+        <v>0.31693521219341858</v>
+      </c>
+      <c r="Z22" s="48"/>
+      <c r="AK22" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="AL22" s="80">
+      <c r="AL22" s="77">
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:73" s="35" customFormat="1">
       <c r="B23" s="36" t="s">
         <v>93</v>
       </c>
       <c r="M23" s="44"/>
       <c r="N23" s="44">
-        <f t="shared" ref="N23:P23" si="47">N4/J4-1</f>
+        <f t="shared" ref="N23:P23" si="50">N4/J4-1</f>
         <v>0.38722512686452393</v>
       </c>
       <c r="O23" s="44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.48194262279940125</v>
       </c>
       <c r="P23" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.3718894304771676</v>
       </c>
       <c r="Q23" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.53138125887649923</v>
       </c>
-      <c r="R23" s="48"/>
+      <c r="R23" s="44">
+        <f t="shared" si="46"/>
+        <v>0.68225969599135361</v>
+      </c>
+      <c r="S23" s="48"/>
       <c r="U23" s="23" t="s">
         <v>151</v>
       </c>
       <c r="V23" s="44">
-        <f t="shared" ref="V23" si="48">V4/U4-1</f>
+        <f t="shared" ref="V23" si="51">V4/U4-1</f>
         <v>0.42141875737020307</v>
       </c>
       <c r="W23" s="44">
-        <f t="shared" ref="W23" si="49">W4/V4-1</f>
+        <f t="shared" ref="W23" si="52">W4/V4-1</f>
         <v>0.37574018540788212</v>
       </c>
       <c r="X23" s="44">
         <f>X4/W4-1</f>
         <v>0.40996829928133982</v>
       </c>
-      <c r="Y23" s="48"/>
-      <c r="AK23" s="79" t="s">
+      <c r="Y23" s="44">
+        <f t="shared" si="49"/>
+        <v>0.52457466176978373</v>
+      </c>
+      <c r="Z23" s="48"/>
+      <c r="AK23" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="AL23" s="81">
+      <c r="AL23" s="78">
         <f>NPV(AL22,Y17:BU17)</f>
-        <v>12176.120593498938</v>
-      </c>
-    </row>
-    <row r="24" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12040.337301204409</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K24" s="42">
-        <f t="shared" ref="K24:L24" si="50">K5/J5-1</f>
+        <f t="shared" ref="K24:L24" si="53">K5/J5-1</f>
         <v>-0.13761828955514288</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.12191632610155922</v>
       </c>
       <c r="M24" s="42">
-        <f t="shared" ref="M24" si="51">M5/L5-1</f>
+        <f t="shared" ref="M24" si="54">M5/L5-1</f>
         <v>6.0303023378047937E-2</v>
       </c>
       <c r="N24" s="42">
-        <f t="shared" ref="N24" si="52">N5/M5-1</f>
+        <f t="shared" ref="N24" si="55">N5/M5-1</f>
         <v>-6.2119324623150396E-2</v>
       </c>
       <c r="O24" s="42">
-        <f t="shared" ref="O24" si="53">O5/N5-1</f>
+        <f t="shared" ref="O24" si="56">O5/N5-1</f>
         <v>0.17854746343839922</v>
       </c>
       <c r="P24" s="42">
@@ -4224,10 +4320,14 @@
         <v>0.11382231131008558</v>
       </c>
       <c r="Q24" s="42">
-        <f t="shared" ref="Q24" si="54">Q5/P5-1</f>
+        <f t="shared" ref="Q24" si="57">Q5/P5-1</f>
         <v>9.1525945947838583E-2</v>
       </c>
-      <c r="R24" s="70"/>
+      <c r="R24" s="42">
+        <f t="shared" ref="R24" si="58">R5/Q5-1</f>
+        <v>7.8228346709264374E-2</v>
+      </c>
+      <c r="S24" s="69"/>
       <c r="U24" s="34" t="s">
         <v>151</v>
       </c>
@@ -4240,10 +4340,10 @@
       <c r="X24" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="Y24" s="76" t="s">
+      <c r="Y24" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="Z24" s="34" t="s">
+      <c r="Z24" s="68" t="s">
         <v>151</v>
       </c>
       <c r="AA24" s="34" t="s">
@@ -4273,36 +4373,36 @@
       <c r="AI24" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="AK24" s="79" t="s">
+      <c r="AK24" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="82">
+      <c r="AL24" s="79">
         <f>Main!C11</f>
-        <v>377.61800000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>300.726</v>
+      </c>
+    </row>
+    <row r="25" spans="2:73" s="35" customFormat="1">
       <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="44">
-        <f t="shared" ref="K25:L25" si="55">K3/J3-1</f>
+        <f t="shared" ref="K25:L25" si="59">K3/J3-1</f>
         <v>-0.19084977830871386</v>
       </c>
       <c r="L25" s="44">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.1103090441917578</v>
       </c>
       <c r="M25" s="44">
-        <f t="shared" ref="M25" si="56">M3/L3-1</f>
+        <f t="shared" ref="M25" si="60">M3/L3-1</f>
         <v>5.9938501665313559E-2</v>
       </c>
       <c r="N25" s="44">
-        <f t="shared" ref="N25" si="57">N3/M3-1</f>
+        <f t="shared" ref="N25" si="61">N3/M3-1</f>
         <v>-0.1230013932196643</v>
       </c>
       <c r="O25" s="44">
-        <f t="shared" ref="O25" si="58">O3/N3-1</f>
+        <f t="shared" ref="O25" si="62">O3/N3-1</f>
         <v>0.21178193921971822</v>
       </c>
       <c r="P25" s="44">
@@ -4310,10 +4410,14 @@
         <v>0.13533744977412532</v>
       </c>
       <c r="Q25" s="44">
-        <f t="shared" ref="Q25:Q26" si="59">Q3/P3-1</f>
+        <f t="shared" ref="Q25:Q26" si="63">Q3/P3-1</f>
         <v>5.1721810938210711E-2</v>
       </c>
-      <c r="R25" s="48"/>
+      <c r="R25" s="44">
+        <f t="shared" ref="R25:R26" si="64">R3/Q3-1</f>
+        <v>2.0613313814770162E-2</v>
+      </c>
+      <c r="S25" s="48"/>
       <c r="U25" s="23" t="s">
         <v>151</v>
       </c>
@@ -4326,10 +4430,10 @@
       <c r="X25" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="Y25" s="76" t="s">
+      <c r="Y25" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="Z25" s="23" t="s">
+      <c r="Z25" s="113" t="s">
         <v>151</v>
       </c>
       <c r="AA25" s="23" t="s">
@@ -4359,36 +4463,36 @@
       <c r="AI25" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="AK25" s="79" t="s">
+      <c r="AK25" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="AL25" s="82">
+      <c r="AL25" s="79">
         <f>AL23-AL24</f>
-        <v>11798.502593498937</v>
-      </c>
-    </row>
-    <row r="26" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11739.611301204408</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73" s="35" customFormat="1">
       <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
       <c r="K26" s="44">
-        <f t="shared" ref="K26:L26" si="60">K4/J4-1</f>
+        <f t="shared" ref="K26:L26" si="65">K4/J4-1</f>
         <v>4.053898200830397E-2</v>
       </c>
       <c r="L26" s="44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.15212532096872522</v>
       </c>
       <c r="M26" s="44">
-        <f t="shared" ref="M26" si="61">M4/L4-1</f>
+        <f t="shared" ref="M26" si="66">M4/L4-1</f>
         <v>6.1217290918419875E-2</v>
       </c>
       <c r="N26" s="44">
-        <f t="shared" ref="N26" si="62">N4/M4-1</f>
+        <f t="shared" ref="N26" si="67">N4/M4-1</f>
         <v>9.0396760644244845E-2</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" ref="O26" si="63">O4/N4-1</f>
+        <f t="shared" ref="O26" si="68">O4/N4-1</f>
         <v>0.1115853067106376</v>
       </c>
       <c r="P26" s="44">
@@ -4396,10 +4500,14 @@
         <v>6.6565281344269644E-2</v>
       </c>
       <c r="Q26" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>0.18459129052616818</v>
       </c>
-      <c r="R26" s="48"/>
+      <c r="R26" s="44">
+        <f t="shared" si="64"/>
+        <v>0.19782745964718429</v>
+      </c>
+      <c r="S26" s="48"/>
       <c r="U26" s="23" t="s">
         <v>151</v>
       </c>
@@ -4412,10 +4520,10 @@
       <c r="X26" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="Y26" s="76" t="s">
+      <c r="Y26" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="Z26" s="113" t="s">
         <v>151</v>
       </c>
       <c r="AA26" s="23" t="s">
@@ -4445,24 +4553,24 @@
       <c r="AI26" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="AK26" s="83" t="s">
+      <c r="AK26" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="AL26" s="84">
+      <c r="AL26" s="81">
         <f>AL25/Q19</f>
-        <v>165.92603531999575</v>
-      </c>
-    </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="AK27" s="79" t="s">
+        <v>165.09782864140533</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73">
+      <c r="AK27" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="AL27" s="82">
+      <c r="AL27" s="79">
         <f>Main!C6</f>
-        <v>188.83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:73">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -4474,61 +4582,62 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41">
-        <f t="shared" ref="J28:M28" si="64">J9/J5</f>
+        <f t="shared" ref="J28:M28" si="69">J9/J5</f>
         <v>0.62486070575749542</v>
       </c>
       <c r="K28" s="41">
-        <f t="shared" ref="K28" si="65">K9/K5</f>
+        <f t="shared" ref="K28" si="70">K9/K5</f>
         <v>0.63251785723442333</v>
       </c>
       <c r="L28" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.63040288854864135</v>
       </c>
       <c r="M28" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.62316316721913545</v>
       </c>
       <c r="N28" s="41">
-        <f t="shared" ref="N28:O28" si="66">N9/N5</f>
+        <f t="shared" ref="N28:O28" si="71">N9/N5</f>
         <v>0.62074750204524354</v>
       </c>
       <c r="O28" s="41">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.60734480902872556</v>
       </c>
       <c r="P28" s="41">
-        <f t="shared" ref="P28:Q28" si="67">P9/P5</f>
+        <f t="shared" ref="P28:Q28" si="72">P9/P5</f>
         <v>0.60908642113629285</v>
       </c>
       <c r="Q28" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.61990223060490002</v>
       </c>
-      <c r="R28" s="60">
-        <v>0.62</v>
+      <c r="R28" s="41">
+        <f t="shared" ref="R28" si="73">R9/R5</f>
+        <v>0.61188128826507848</v>
       </c>
       <c r="U28" s="41">
-        <f t="shared" ref="U28" si="68">U9/U5</f>
+        <f t="shared" ref="U28" si="74">U9/U5</f>
         <v>0.61557414513840614</v>
       </c>
       <c r="V28" s="41">
-        <f t="shared" ref="V28:W28" si="69">V9/V5</f>
+        <f t="shared" ref="V28:W28" si="75">V9/V5</f>
         <v>0.57884564668650873</v>
       </c>
       <c r="W28" s="41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.61134972973687329</v>
       </c>
       <c r="X28" s="41">
-        <f t="shared" ref="X28:Y28" si="70">X9/X5</f>
+        <f t="shared" ref="X28" si="76">X9/X5</f>
         <v>0.62650208888080705</v>
       </c>
-      <c r="Y28" s="60">
-        <f t="shared" si="70"/>
-        <v>0.61465297760591753</v>
-      </c>
-      <c r="Z28" s="41">
+      <c r="Y28" s="41">
+        <f t="shared" ref="Y28" si="77">Y9/Y5</f>
+        <v>0.61233428716694605</v>
+      </c>
+      <c r="Z28" s="59">
         <v>0.62</v>
       </c>
       <c r="AA28" s="41">
@@ -4558,40 +4667,40 @@
       <c r="AI28" s="41">
         <v>0.63</v>
       </c>
-      <c r="AK28" s="85" t="s">
+      <c r="AK28" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="AL28" s="86">
+      <c r="AL28" s="83">
         <f>AL26/AL27-1</f>
-        <v>-0.12129409881906617</v>
-      </c>
-    </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
+        <v>-0.21005823616552477</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J29" s="41">
-        <f t="shared" ref="J29:M29" si="71">J13/J5</f>
+        <f t="shared" ref="J29:M29" si="78">J13/J5</f>
         <v>2.553727779251791E-2</v>
       </c>
       <c r="K29" s="41">
-        <f t="shared" ref="K29" si="72">K13/K5</f>
+        <f t="shared" ref="K29" si="79">K13/K5</f>
         <v>-0.2577287341233418</v>
       </c>
       <c r="L29" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-0.42818620169565136</v>
       </c>
       <c r="M29" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>1.2457487208445292E-2</v>
       </c>
       <c r="N29" s="41">
-        <f t="shared" ref="N29:O29" si="73">N13/N5</f>
+        <f t="shared" ref="N29:O29" si="80">N13/N5</f>
         <v>-0.12439676805559401</v>
       </c>
       <c r="O29" s="41">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>6.7052482977545028E-2</v>
       </c>
       <c r="P29" s="41">
@@ -4599,100 +4708,100 @@
         <v>7.4965075119129837E-2</v>
       </c>
       <c r="Q29" s="41">
-        <f t="shared" ref="Q29:R29" si="74">Q13/Q5</f>
+        <f t="shared" ref="Q29" si="81">Q13/Q5</f>
         <v>0.10298825355889579</v>
       </c>
-      <c r="R29" s="60">
-        <f t="shared" si="74"/>
-        <v>0.13020000000000007</v>
+      <c r="R29" s="41">
+        <f t="shared" ref="R29" si="82">R13/R5</f>
+        <v>6.7057969548583632E-2</v>
       </c>
       <c r="U29" s="41">
-        <f t="shared" ref="U29" si="75">U13/U5</f>
+        <f t="shared" ref="U29" si="83">U13/U5</f>
         <v>5.9135663749678574E-2</v>
       </c>
       <c r="V29" s="41">
-        <f t="shared" ref="V29:W29" si="76">V13/V5</f>
+        <f t="shared" ref="V29:W29" si="84">V13/V5</f>
         <v>-1.2044606864333248E-2</v>
       </c>
       <c r="W29" s="41">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-2.077817572022457E-2</v>
       </c>
       <c r="X29" s="41">
         <f>X13/X5</f>
         <v>-0.19472631433862925</v>
       </c>
-      <c r="Y29" s="60">
-        <f t="shared" ref="Y29" si="77">Y13/Y5</f>
-        <v>9.6364798323978554E-2</v>
-      </c>
-      <c r="Z29" s="41">
+      <c r="Y29" s="41">
+        <f t="shared" ref="Y29" si="85">Y13/Y5</f>
+        <v>7.8368146159243937E-2</v>
+      </c>
+      <c r="Z29" s="59">
         <f>Z13/Z5</f>
-        <v>2.6999999999999975E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="AA29" s="41">
-        <f t="shared" ref="AA29:AI29" si="78">AA13/AA5</f>
-        <v>2.0500000000000032E-2</v>
+        <f t="shared" ref="AA29:AI29" si="86">AA13/AA5</f>
+        <v>2.0500000000000018E-2</v>
       </c>
       <c r="AB29" s="41">
-        <f t="shared" si="78"/>
-        <v>2.0499999999999952E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="AC29" s="41">
-        <f t="shared" si="78"/>
-        <v>2.0499999999999904E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0499999999999959E-2</v>
       </c>
       <c r="AD29" s="41">
-        <f t="shared" si="78"/>
-        <v>2.0500000000000049E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0499999999999918E-2</v>
       </c>
       <c r="AE29" s="41">
-        <f t="shared" si="78"/>
-        <v>2.0499999999999977E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.0500000000000004E-2</v>
       </c>
       <c r="AF29" s="41">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
+        <v>4.0499999999999974E-2</v>
+      </c>
+      <c r="AG29" s="41">
+        <f t="shared" si="86"/>
+        <v>4.0499999999999967E-2</v>
+      </c>
+      <c r="AH29" s="41">
+        <f t="shared" si="86"/>
+        <v>4.0499999999999994E-2</v>
+      </c>
+      <c r="AI29" s="41">
+        <f t="shared" si="86"/>
         <v>4.0500000000000015E-2</v>
       </c>
-      <c r="AG29" s="41">
-        <f t="shared" si="78"/>
-        <v>4.0500000000000057E-2</v>
-      </c>
-      <c r="AH29" s="41">
-        <f t="shared" si="78"/>
-        <v>4.0499999999999994E-2</v>
-      </c>
-      <c r="AI29" s="41">
-        <f t="shared" si="78"/>
-        <v>4.0500000000000015E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:73">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J30" s="41">
-        <f t="shared" ref="J30:M30" si="79">J17/J5</f>
+        <f t="shared" ref="J30:M30" si="87">J17/J5</f>
         <v>0.11423896701158574</v>
       </c>
       <c r="K30" s="41">
-        <f t="shared" ref="K30" si="80">K17/K5</f>
+        <f t="shared" ref="K30" si="88">K17/K5</f>
         <v>-0.24570426471266901</v>
       </c>
       <c r="L30" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>-0.21534769990173466</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0.20916508972408179</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="81">N17/N5</f>
+        <f t="shared" ref="N30:O30" si="89">N17/N5</f>
         <v>-6.2083482705053032E-2</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0.21382777097486202</v>
       </c>
       <c r="P30" s="41">
@@ -4700,100 +4809,100 @@
         <v>0.17843025352487471</v>
       </c>
       <c r="Q30" s="41">
-        <f t="shared" ref="Q30:R30" si="82">Q17/Q5</f>
+        <f t="shared" ref="Q30" si="90">Q17/Q5</f>
         <v>3.8912090943500309E-2</v>
       </c>
-      <c r="R30" s="60">
-        <f t="shared" si="82"/>
-        <v>0.13601707097954571</v>
+      <c r="R30" s="41">
+        <f t="shared" ref="R30" si="91">R17/R5</f>
+        <v>8.679367648196297E-2</v>
       </c>
       <c r="U30" s="41">
-        <f t="shared" ref="U30" si="83">U17/U5</f>
+        <f t="shared" ref="U30" si="92">U17/U5</f>
         <v>6.9524457944904111E-2</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" ref="V30:W30" si="84">V17/V5</f>
+        <f t="shared" ref="V30:W30" si="93">V17/V5</f>
         <v>1.661454997551241E-3</v>
       </c>
       <c r="W30" s="41">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>-2.5315600665490328E-3</v>
       </c>
       <c r="X30" s="41">
         <f>X17/X5</f>
         <v>-6.9515080827583717E-2</v>
       </c>
-      <c r="Y30" s="60">
-        <f t="shared" ref="Y30" si="85">Y17/Y5</f>
-        <v>0.13751727526720806</v>
-      </c>
-      <c r="Z30" s="41">
+      <c r="Y30" s="41">
+        <f t="shared" ref="Y30" si="94">Y17/Y5</f>
+        <v>0.12361935735985574</v>
+      </c>
+      <c r="Z30" s="59">
         <f>Z17/Z5</f>
-        <v>4.0262103925556708E-2</v>
+        <v>3.8952767149946388E-2</v>
       </c>
       <c r="AA30" s="41">
-        <f t="shared" ref="AA30:AI30" si="86">AA17/AA5</f>
-        <v>3.4207973383727226E-2</v>
+        <f t="shared" ref="AA30:AI30" si="95">AA17/AA5</f>
+        <v>3.2813255283280364E-2</v>
       </c>
       <c r="AB30" s="41">
-        <f t="shared" si="86"/>
-        <v>2.5715470982967552E-2</v>
+        <f t="shared" si="95"/>
+        <v>2.4891482315929147E-2</v>
       </c>
       <c r="AC30" s="41">
-        <f t="shared" si="86"/>
-        <v>2.0696456212212239E-2</v>
+        <f t="shared" si="95"/>
+        <v>2.0086962584330022E-2</v>
       </c>
       <c r="AD30" s="41">
-        <f t="shared" si="86"/>
-        <v>1.7810007667305096E-2</v>
+        <f t="shared" si="95"/>
+        <v>1.7382720607042448E-2</v>
       </c>
       <c r="AE30" s="41">
-        <f t="shared" si="86"/>
-        <v>1.3573484436006754E-2</v>
+        <f t="shared" si="95"/>
+        <v>1.3299128722745645E-2</v>
       </c>
       <c r="AF30" s="41">
-        <f t="shared" si="86"/>
-        <v>2.0685233510924925E-2</v>
+        <f t="shared" si="95"/>
+        <v>2.0488993178581195E-2</v>
       </c>
       <c r="AG30" s="41">
-        <f t="shared" si="86"/>
-        <v>1.9385487788375264E-2</v>
+        <f t="shared" si="95"/>
+        <v>1.9242648717320048E-2</v>
       </c>
       <c r="AH30" s="41">
-        <f t="shared" si="86"/>
-        <v>1.8319316372119636E-2</v>
+        <f t="shared" si="95"/>
+        <v>1.8216338494178745E-2</v>
       </c>
       <c r="AI30" s="41">
-        <f t="shared" si="86"/>
-        <v>2.3980169535095935E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.2">
+        <f t="shared" si="95"/>
+        <v>2.3877688989205011E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:73">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J31" s="41">
-        <f t="shared" ref="J31:M31" si="87">J16/J15</f>
+        <f t="shared" ref="J31:M31" si="96">J16/J15</f>
         <v>-1.8577433628318583</v>
       </c>
       <c r="K31" s="41">
-        <f t="shared" ref="K31" si="88">K16/K15</f>
+        <f t="shared" ref="K31" si="97">K16/K15</f>
         <v>3.5428870503452302E-2</v>
       </c>
       <c r="L31" s="41">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>9.1177378288712238E-2</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>19.380303030303139</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="89">N16/N15</f>
+        <f t="shared" ref="N31:O31" si="98">N16/N15</f>
         <v>0.63701832643628697</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>0.24363731670644073</v>
       </c>
       <c r="P31" s="41">
@@ -4801,32 +4910,34 @@
         <v>0.2553443312827855</v>
       </c>
       <c r="Q31" s="41">
-        <f t="shared" ref="Q31" si="90">Q16/Q15</f>
+        <f t="shared" ref="Q31:R31" si="99">Q16/Q15</f>
         <v>0.41840061367341075</v>
       </c>
-      <c r="R31" s="60">
-        <v>0.41</v>
+      <c r="R31" s="41">
+        <f t="shared" si="99"/>
+        <v>0.15994817160955946</v>
       </c>
       <c r="U31" s="41">
-        <f t="shared" ref="U31" si="91">U16/U15</f>
+        <f t="shared" ref="U31" si="100">U16/U15</f>
         <v>-3.9175918018787392E-2</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" ref="V31:W31" si="92">V16/V15</f>
+        <f t="shared" ref="V31:W31" si="101">V16/V15</f>
         <v>0.57391304347824645</v>
       </c>
       <c r="W31" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>0.72595771737401593</v>
       </c>
       <c r="X31" s="41">
         <f>X16/X15</f>
         <v>0.57546949602121988</v>
       </c>
-      <c r="Y31" s="60">
-        <v>0.41</v>
-      </c>
-      <c r="Z31" s="41">
+      <c r="Y31" s="41">
+        <f t="shared" ref="Y31" si="102">Y16/Y15</f>
+        <v>0.2514731474979392</v>
+      </c>
+      <c r="Z31" s="59">
         <v>0.41</v>
       </c>
       <c r="AA31" s="41">
@@ -4857,43 +4968,45 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:73">
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="O32" s="41"/>
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Y32" s="41"/>
+    </row>
+    <row r="33" spans="2:35">
       <c r="B33" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" ref="J33:O33" si="93">J11/J5</f>
+        <f t="shared" ref="J33:O33" si="103">J11/J5</f>
         <v>0.16807287521004688</v>
       </c>
       <c r="K33" s="41">
-        <f t="shared" ref="K33" si="94">K11/K5</f>
+        <f t="shared" ref="K33" si="104">K11/K5</f>
         <v>0.24109445746311897</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>0.24658698781964852</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>0.18268969649423031</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>0.23290038514923386</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>0.1888108070164492</v>
       </c>
       <c r="P33" s="41">
@@ -4901,33 +5014,34 @@
         <v>0.20148592676103677</v>
       </c>
       <c r="Q33" s="41">
-        <f t="shared" ref="Q33" si="95">Q11/Q5</f>
+        <f t="shared" ref="Q33:R33" si="105">Q11/Q5</f>
         <v>0.18965915433322428</v>
       </c>
-      <c r="R33" s="60">
-        <v>0.21</v>
+      <c r="R33" s="41">
+        <f t="shared" si="105"/>
+        <v>0.20443741038013696</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" ref="U33" si="96">U11/U5</f>
+        <f t="shared" ref="U33" si="106">U11/U5</f>
         <v>0.18296085395697839</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" ref="V33:W33" si="97">V11/V5</f>
+        <f t="shared" ref="V33:W33" si="107">V11/V5</f>
         <v>0.18973175601853595</v>
       </c>
       <c r="W33" s="41">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>0.18090228677406708</v>
       </c>
       <c r="X33" s="41">
         <f>X11/X5</f>
         <v>0.22472813277104781</v>
       </c>
-      <c r="Y33" s="60">
-        <f>Y11/Y5</f>
-        <v>0.17530553340275937</v>
-      </c>
-      <c r="Z33" s="41">
+      <c r="Y33" s="41">
+        <f t="shared" ref="Y33" si="108">Y11/Y5</f>
+        <v>0.19648972422863434</v>
+      </c>
+      <c r="Z33" s="59">
         <v>0.19</v>
       </c>
       <c r="AA33" s="41">
@@ -4958,12 +5072,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:35">
       <c r="L34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:35">
       <c r="B35" s="50" t="s">
         <v>103</v>
       </c>
@@ -4971,7 +5085,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:35">
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -5001,11 +5115,14 @@
       <c r="P36" s="40">
         <v>32.79</v>
       </c>
-      <c r="Q36" s="64">
+      <c r="Q36" s="63">
         <v>40.502000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R36" s="63">
+        <v>34.53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -5035,11 +5152,14 @@
       <c r="P37" s="40">
         <v>8.8309999999999995</v>
       </c>
-      <c r="Q37" s="64">
+      <c r="Q37" s="63">
         <v>6.9560000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R37" s="63">
+        <v>3.7370000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35">
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -5069,11 +5189,14 @@
       <c r="P38" s="40">
         <v>2.7450000000000001</v>
       </c>
-      <c r="Q38" s="64">
+      <c r="Q38" s="63">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R38" s="63">
+        <v>4.056</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -5103,11 +5226,14 @@
       <c r="P39" s="40">
         <v>5.157</v>
       </c>
-      <c r="Q39" s="64">
+      <c r="Q39" s="63">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R39" s="63">
+        <v>4.6849999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35">
       <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
@@ -5137,11 +5263,14 @@
       <c r="P40" s="40">
         <v>1536.3320000000001</v>
       </c>
-      <c r="Q40" s="64">
+      <c r="Q40" s="63">
         <v>1327.1690000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R40" s="63">
+        <v>1527.9290000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35">
       <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
@@ -5171,11 +5300,14 @@
       <c r="P41" s="40">
         <v>59.850999999999999</v>
       </c>
-      <c r="Q41" s="64">
+      <c r="Q41" s="63">
         <v>71.069999999999993</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R41" s="63">
+        <v>60.018000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35">
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
@@ -5205,11 +5337,14 @@
       <c r="P42" s="40">
         <v>1.1359999999999999</v>
       </c>
-      <c r="Q42" s="64">
+      <c r="Q42" s="63">
         <v>1.1879999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R42" s="63">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -5239,11 +5374,14 @@
       <c r="P43" s="40">
         <v>6.1459999999999999</v>
       </c>
-      <c r="Q43" s="64">
+      <c r="Q43" s="63">
         <v>2.3420000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R43" s="63">
+        <v>10.109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35">
       <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
@@ -5273,21 +5411,24 @@
       <c r="P44" s="40">
         <v>5.3140000000000001</v>
       </c>
-      <c r="Q44" s="64">
+      <c r="Q44" s="63">
         <v>3.8220000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="R44" s="63">
+        <v>11.644</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35">
       <c r="L45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35">
       <c r="B47" s="45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35" s="2" customFormat="1">
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
@@ -5303,13 +5444,17 @@
       <c r="P48" s="39">
         <v>212.815</v>
       </c>
-      <c r="Q48" s="63">
+      <c r="Q48" s="62">
         <v>147.71100000000001</v>
       </c>
-      <c r="R48" s="70"/>
-      <c r="Y48" s="70"/>
-    </row>
-    <row r="49" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="62">
+        <v>353.68400000000003</v>
+      </c>
+      <c r="S48" s="69"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="69"/>
+    </row>
+    <row r="49" spans="2:26" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
@@ -5325,13 +5470,17 @@
       <c r="P49" s="39">
         <v>45.9</v>
       </c>
-      <c r="Q49" s="63">
+      <c r="Q49" s="62">
         <v>35.28</v>
       </c>
-      <c r="R49" s="70"/>
-      <c r="Y49" s="70"/>
-    </row>
-    <row r="50" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="62">
+        <v>39.24</v>
+      </c>
+      <c r="S49" s="69"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="69"/>
+    </row>
+    <row r="50" spans="2:26" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
@@ -5347,13 +5496,17 @@
       <c r="P50" s="39">
         <v>118.514</v>
       </c>
-      <c r="Q50" s="63">
+      <c r="Q50" s="62">
         <v>194.62700000000001</v>
       </c>
-      <c r="R50" s="70"/>
-      <c r="Y50" s="70"/>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R50" s="62">
+        <v>581.76900000000001</v>
+      </c>
+      <c r="S50" s="69"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="69"/>
+    </row>
+    <row r="51" spans="2:26">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
@@ -5369,11 +5522,14 @@
       <c r="P51" s="40">
         <v>379.67200000000003</v>
       </c>
-      <c r="Q51" s="64">
+      <c r="Q51" s="63">
         <v>418.30799999999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R51" s="63">
+        <v>358.19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
@@ -5389,11 +5545,14 @@
       <c r="P52" s="40">
         <v>196.75399999999999</v>
       </c>
-      <c r="Q52" s="64">
+      <c r="Q52" s="63">
         <v>168.673</v>
       </c>
-    </row>
-    <row r="53" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R52" s="63">
+        <v>196.90199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" s="2" customFormat="1">
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
@@ -5409,13 +5568,17 @@
       <c r="P53" s="39">
         <v>154.297</v>
       </c>
-      <c r="Q53" s="63">
+      <c r="Q53" s="62">
         <v>173.04599999999999</v>
       </c>
-      <c r="R53" s="70"/>
-      <c r="Y53" s="70"/>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R53" s="62">
+        <v>202.471</v>
+      </c>
+      <c r="S53" s="69"/>
+      <c r="Y53" s="104"/>
+      <c r="Z53" s="69"/>
+    </row>
+    <row r="54" spans="2:26">
       <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
@@ -5431,11 +5594,14 @@
       <c r="P54" s="40">
         <v>61.838999999999999</v>
       </c>
-      <c r="Q54" s="64">
+      <c r="Q54" s="63">
         <v>68.055999999999997</v>
       </c>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R54" s="63">
+        <v>73.022000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -5459,8 +5625,12 @@
         <f>SUM(Q48:Q54)</f>
         <v>1205.701</v>
       </c>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R55" s="40">
+        <f>SUM(R48:R54)</f>
+        <v>1805.278</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
@@ -5476,11 +5646,14 @@
       <c r="P56" s="40">
         <v>157.916</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="Q56" s="63">
         <v>164.16</v>
       </c>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R56" s="63">
+        <v>169.84299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5496,11 +5669,14 @@
       <c r="P57" s="40">
         <v>100.548</v>
       </c>
-      <c r="Q57" s="64">
+      <c r="Q57" s="63">
         <v>96.355000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R57" s="63">
+        <v>156.886</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -5520,12 +5696,16 @@
         <f>13.934+45.004</f>
         <v>58.937999999999995</v>
       </c>
-      <c r="Q58" s="64">
+      <c r="Q58" s="63">
         <f>13.039+44.819</f>
         <v>57.858000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R58" s="63">
+        <f>12.158+44.983</f>
+        <v>57.140999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
@@ -5541,13 +5721,17 @@
       <c r="P59" s="39">
         <v>24.925000000000001</v>
       </c>
-      <c r="Q59" s="63">
+      <c r="Q59" s="62">
         <v>28.536000000000001</v>
       </c>
-      <c r="R59" s="70"/>
-      <c r="Y59" s="70"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R59" s="62">
+        <v>156.20699999999999</v>
+      </c>
+      <c r="S59" s="69"/>
+      <c r="Y59" s="104"/>
+      <c r="Z59" s="69"/>
+    </row>
+    <row r="60" spans="2:26">
       <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
@@ -5563,11 +5747,14 @@
       <c r="P60" s="40">
         <v>8.9920000000000009</v>
       </c>
-      <c r="Q60" s="64">
+      <c r="Q60" s="63">
         <v>8.4619999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R60" s="63">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -5583,11 +5770,14 @@
       <c r="P61" s="40">
         <v>28.24</v>
       </c>
-      <c r="Q61" s="64">
+      <c r="Q61" s="63">
         <v>48.387999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R61" s="63">
+        <v>45.17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
@@ -5603,11 +5793,14 @@
       <c r="P62" s="40">
         <v>281.69099999999997</v>
       </c>
-      <c r="Q62" s="64">
+      <c r="Q62" s="63">
         <v>290.32900000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R62" s="63">
+        <v>296.56299999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -5623,11 +5816,14 @@
       <c r="P63" s="40">
         <v>100.982</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="Q63" s="63">
         <v>110.643</v>
       </c>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R63" s="63">
+        <v>159.61600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
@@ -5651,14 +5847,18 @@
         <f>Q55+SUM(Q56:Q63)</f>
         <v>2010.432</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R64" s="40">
+        <f>R55+SUM(R56:R63)</f>
+        <v>2851.9139999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26">
       <c r="K65" s="40"/>
       <c r="N65" s="40"/>
       <c r="P65" s="52"/>
-      <c r="Q65" s="64"/>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q65" s="63"/>
+    </row>
+    <row r="66" spans="2:26">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -5674,11 +5874,14 @@
       <c r="P66" s="52">
         <v>60.689</v>
       </c>
-      <c r="Q66" s="64">
+      <c r="Q66" s="63">
         <v>50.192999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R66" s="63">
+        <v>59.917999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -5694,11 +5897,14 @@
       <c r="P67" s="52">
         <v>100.98</v>
       </c>
-      <c r="Q67" s="64">
+      <c r="Q67" s="63">
         <v>112.76600000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R67" s="63">
+        <v>155.934</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26">
       <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
@@ -5714,11 +5920,14 @@
       <c r="P68" s="52">
         <v>253.185</v>
       </c>
-      <c r="Q68" s="64">
+      <c r="Q68" s="63">
         <v>246.46600000000001</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R68" s="63">
+        <v>360.03699999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" s="2" customFormat="1">
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
@@ -5734,13 +5943,17 @@
       <c r="P69" s="51">
         <v>11.33</v>
       </c>
-      <c r="Q69" s="63">
+      <c r="Q69" s="62">
         <v>15.317</v>
       </c>
-      <c r="R69" s="70"/>
-      <c r="Y69" s="70"/>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R69" s="62">
+        <v>20.399000000000001</v>
+      </c>
+      <c r="S69" s="69"/>
+      <c r="Y69" s="104"/>
+      <c r="Z69" s="69"/>
+    </row>
+    <row r="70" spans="2:26">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
@@ -5756,11 +5969,14 @@
       <c r="P70" s="52">
         <v>6.7869999999999999</v>
       </c>
-      <c r="Q70" s="64">
+      <c r="Q70" s="63">
         <v>6.8010000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R70" s="63">
+        <v>6.3579999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26">
       <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
@@ -5784,8 +6000,12 @@
         <f>SUM(Q66:Q70)</f>
         <v>431.54300000000001</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R71" s="40">
+        <f>SUM(R66:R70)</f>
+        <v>602.64599999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26">
       <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
@@ -5801,11 +6021,14 @@
       <c r="P72" s="52">
         <v>269.47699999999998</v>
       </c>
-      <c r="Q72" s="64">
+      <c r="Q72" s="63">
         <v>313.82299999999998</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R72" s="63">
+        <v>248.00299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26">
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
@@ -5821,11 +6044,14 @@
       <c r="P73" s="52">
         <v>7.6920000000000002</v>
       </c>
-      <c r="Q73" s="64">
+      <c r="Q73" s="63">
         <v>7.3170000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R73" s="63">
+        <v>10.744999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26">
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
@@ -5841,11 +6067,14 @@
       <c r="P74" s="52">
         <v>5.5170000000000003</v>
       </c>
-      <c r="Q74" s="64">
+      <c r="Q74" s="63">
         <v>5.3689999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R74" s="63">
+        <v>6.2850000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26">
       <c r="B75" s="1" t="s">
         <v>140</v>
       </c>
@@ -5861,11 +6090,14 @@
       <c r="P75" s="52">
         <v>1E-3</v>
       </c>
-      <c r="Q75" s="64">
+      <c r="Q75" s="63">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R75" s="63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26">
       <c r="B76" s="1" t="s">
         <v>128</v>
       </c>
@@ -5881,425 +6113,537 @@
       <c r="P76" s="52">
         <v>18.21</v>
       </c>
-      <c r="Q76" s="64">
+      <c r="Q76" s="63">
         <v>16.311</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="R76" s="63">
+        <v>37.143000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" s="2" customFormat="1">
+      <c r="B77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J77" s="39">
+        <v>0</v>
+      </c>
+      <c r="K77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
+        <v>0</v>
+      </c>
+      <c r="P77" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="62">
+        <v>0</v>
+      </c>
+      <c r="R77" s="62">
+        <v>673.96699999999998</v>
+      </c>
+      <c r="S77" s="69"/>
+      <c r="Y77" s="104"/>
+      <c r="Z77" s="69"/>
+    </row>
+    <row r="78" spans="2:26">
+      <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J77" s="40">
+      <c r="J78" s="40">
         <v>27.331</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K78" s="40">
         <v>27.866</v>
       </c>
-      <c r="N77" s="40">
+      <c r="N78" s="40">
         <v>5.9320000000000004</v>
       </c>
-      <c r="P77" s="52">
+      <c r="P78" s="52">
         <v>4.5039999999999996</v>
       </c>
-      <c r="Q77" s="64">
+      <c r="Q78" s="63">
         <v>4.7729999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="R78" s="63">
+        <v>4.6130000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="40">
-        <f>J71+SUM(J72:J77)</f>
+      <c r="J79" s="40">
+        <f>J71+SUM(J72:J78)</f>
         <v>404.76800000000003</v>
       </c>
-      <c r="K78" s="40">
-        <f>K71+SUM(K72:K77)</f>
+      <c r="K79" s="40">
+        <f>K71+SUM(K72:K78)</f>
         <v>393.95400000000001</v>
       </c>
-      <c r="N78" s="40">
-        <f>N71+SUM(N72:N77)</f>
+      <c r="N79" s="40">
+        <f>N71+SUM(N72:N78)</f>
         <v>640.90100000000007</v>
       </c>
-      <c r="P78" s="52">
-        <f>P71+SUM(P72:P77)</f>
+      <c r="P79" s="52">
+        <f>P71+SUM(P72:P78)</f>
         <v>738.37199999999996</v>
       </c>
-      <c r="Q78" s="40">
-        <f>Q71+SUM(Q72:Q77)</f>
+      <c r="Q79" s="40">
+        <f>Q71+SUM(Q72:Q78)</f>
         <v>779.14599999999996</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="N79" s="40"/>
-    </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="R79" s="40">
+        <f>R71+SUM(R72:R78)</f>
+        <v>1583.403</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26">
+      <c r="N80" s="40"/>
+    </row>
+    <row r="81" spans="2:26">
+      <c r="B81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J80" s="40">
+      <c r="J81" s="40">
         <v>1381.0229999999999</v>
       </c>
-      <c r="K80" s="40">
+      <c r="K81" s="40">
         <v>1010.904</v>
       </c>
-      <c r="N80" s="40">
+      <c r="N81" s="40">
         <v>1047.8489999999999</v>
       </c>
-      <c r="P80" s="40">
+      <c r="P81" s="40">
         <v>1193.6510000000001</v>
       </c>
-      <c r="Q80" s="64">
+      <c r="Q81" s="63">
         <v>1231.3130000000001</v>
       </c>
-    </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="R81" s="63">
+        <v>1268.491</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26">
+      <c r="B82" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J81" s="40">
-        <f>J80+J78</f>
+      <c r="J82" s="40">
+        <f>J81+J79</f>
         <v>1785.7909999999999</v>
       </c>
-      <c r="K81" s="40">
-        <f>K80+K78</f>
+      <c r="K82" s="40">
+        <f>K81+K79</f>
         <v>1404.8579999999999</v>
       </c>
-      <c r="N81" s="40">
-        <f>N80+N78</f>
+      <c r="N82" s="40">
+        <f>N81+N79</f>
         <v>1688.75</v>
       </c>
-      <c r="P81" s="40">
-        <f>P80+P78</f>
+      <c r="P82" s="40">
+        <f>P81+P79</f>
         <v>1932.0230000000001</v>
       </c>
-      <c r="Q81" s="40">
-        <f>Q80+Q78</f>
+      <c r="Q82" s="40">
+        <f>Q81+Q79</f>
         <v>2010.4590000000001</v>
       </c>
-    </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="N82" s="40"/>
-    </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="R82" s="40">
+        <f>R81+R79</f>
+        <v>2851.8940000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26">
+      <c r="N83" s="40"/>
+    </row>
+    <row r="84" spans="2:26">
+      <c r="B84" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J83" s="40">
-        <f>J64-J78</f>
+      <c r="J84" s="40">
+        <f>J64-J79</f>
         <v>976.25500000000011</v>
       </c>
-      <c r="K83" s="40">
-        <f>K64-K78</f>
+      <c r="K84" s="40">
+        <f>K64-K79</f>
         <v>1010.9640000000002</v>
       </c>
-      <c r="N83" s="40">
-        <f>N64-N78</f>
+      <c r="N84" s="40">
+        <f>N64-N79</f>
         <v>1047.309</v>
       </c>
-      <c r="P83" s="40">
-        <f>P64-P78</f>
+      <c r="P84" s="40">
+        <f>P64-P79</f>
         <v>1193.6509999999998</v>
       </c>
-      <c r="Q83" s="40">
-        <f t="shared" ref="Q83" si="98">Q64-Q78</f>
+      <c r="Q84" s="40">
+        <f t="shared" ref="Q84:R84" si="109">Q64-Q79</f>
         <v>1231.2860000000001</v>
       </c>
-    </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+      <c r="R84" s="40">
+        <f t="shared" si="109"/>
+        <v>1268.5109999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26">
+      <c r="B85" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J84" s="40">
-        <f>J83/J19</f>
+      <c r="J85" s="40">
+        <f>J84/J19</f>
         <v>15.340514464400762</v>
       </c>
-      <c r="K84" s="40">
-        <f>K83/K19</f>
+      <c r="K85" s="40">
+        <f>K84/K19</f>
         <v>15.78743206946093</v>
       </c>
-      <c r="N84" s="40">
-        <f>N83/N19</f>
+      <c r="N85" s="40">
+        <f>N84/N19</f>
         <v>15.110503534843456</v>
       </c>
-      <c r="P84" s="40">
-        <f>P83/P19</f>
+      <c r="P85" s="40">
+        <f>P84/P19</f>
         <v>16.802519707207203</v>
       </c>
-      <c r="Q84" s="40">
-        <f t="shared" ref="Q84" si="99">Q83/Q19</f>
+      <c r="Q85" s="40">
+        <f t="shared" ref="Q85:R85" si="110">Q84/Q19</f>
         <v>17.315960453963747</v>
       </c>
-    </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+      <c r="R85" s="40">
+        <f t="shared" si="110"/>
+        <v>17.79866704083064</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" s="41" customFormat="1">
+      <c r="B87" s="41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="87" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
+      <c r="Q87" s="107">
+        <f>Q53/P53-1</f>
+        <v>0.12151240788868223</v>
+      </c>
+      <c r="R87" s="107">
+        <f>R53/Q53-1</f>
+        <v>0.17004149185765649</v>
+      </c>
+      <c r="S87" s="59"/>
+      <c r="Y87" s="105"/>
+      <c r="Z87" s="59"/>
+    </row>
+    <row r="88" spans="2:26" s="2" customFormat="1">
+      <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K87" s="42">
+      <c r="K88" s="42">
         <f>K53/J53-1</f>
         <v>-3.3460059138709086E-3</v>
       </c>
-      <c r="N87" s="42">
+      <c r="N88" s="42">
         <f>N53/J53-1</f>
         <v>0.20820827497276517</v>
       </c>
-      <c r="Q87" s="66"/>
-      <c r="R87" s="70"/>
-      <c r="Y87" s="70"/>
-    </row>
-    <row r="89" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="35" t="s">
+      <c r="Q88" s="65"/>
+      <c r="R88" s="42">
+        <f>R53/N53-1</f>
+        <v>0.86286434564993364</v>
+      </c>
+      <c r="S88" s="69"/>
+      <c r="Y88" s="104"/>
+      <c r="Z88" s="69"/>
+    </row>
+    <row r="90" spans="2:26" s="35" customFormat="1">
+      <c r="B90" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="38">
+      <c r="J90" s="38">
         <f>J48+J49+J50</f>
         <v>561.96499999999992</v>
       </c>
-      <c r="K89" s="38">
-        <f t="shared" ref="K89" si="100">K48+K49+K50</f>
+      <c r="K90" s="38">
+        <f t="shared" ref="K90" si="111">K48+K49+K50</f>
         <v>595.72399999999993</v>
       </c>
-      <c r="N89" s="38">
+      <c r="N90" s="38">
         <f>N48+N49+N50</f>
         <v>443.02199999999999</v>
       </c>
-      <c r="P89" s="38">
+      <c r="P90" s="38">
         <f>P48+P49+P50</f>
         <v>377.22899999999998</v>
       </c>
-      <c r="Q89" s="38">
-        <f t="shared" ref="Q89" si="101">Q48+Q49+Q50</f>
+      <c r="Q90" s="38">
+        <f t="shared" ref="Q90:R90" si="112">Q48+Q49+Q50</f>
         <v>377.61800000000005</v>
       </c>
-      <c r="R89" s="48"/>
-      <c r="Y89" s="48"/>
-    </row>
-    <row r="90" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="35" t="s">
+      <c r="R90" s="38">
+        <f t="shared" si="112"/>
+        <v>974.69299999999998</v>
+      </c>
+      <c r="S90" s="48"/>
+      <c r="Y90" s="102"/>
+      <c r="Z90" s="48"/>
+    </row>
+    <row r="91" spans="2:26" s="35" customFormat="1">
+      <c r="B91" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J90" s="35">
+      <c r="J91" s="35">
+        <f t="shared" ref="J91" si="113">+J77</f>
         <v>0</v>
       </c>
-      <c r="K90" s="35">
+      <c r="K91" s="35">
+        <f t="shared" ref="K91" si="114">+K77</f>
         <v>0</v>
       </c>
-      <c r="N90" s="35">
+      <c r="N91" s="35">
+        <f t="shared" ref="N91:R91" si="115">+N77</f>
         <v>0</v>
       </c>
-      <c r="P90" s="35">
+      <c r="P91" s="35">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="35">
+      <c r="Q91" s="35">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="R90" s="48"/>
-      <c r="Y90" s="48"/>
-    </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+      <c r="R91" s="38">
+        <f>+R77</f>
+        <v>673.96699999999998</v>
+      </c>
+      <c r="S91" s="48"/>
+      <c r="Y91" s="102"/>
+      <c r="Z91" s="48"/>
+    </row>
+    <row r="92" spans="2:26">
+      <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="40">
-        <f>J89-J90</f>
+      <c r="J92" s="40">
+        <f>J90-J91</f>
         <v>561.96499999999992</v>
       </c>
-      <c r="K91" s="40">
-        <f t="shared" ref="K91" si="102">K89-K90</f>
+      <c r="K92" s="40">
+        <f t="shared" ref="K92" si="116">K90-K91</f>
         <v>595.72399999999993</v>
       </c>
-      <c r="N91" s="40">
-        <f>N89-N90</f>
+      <c r="N92" s="40">
+        <f>N90-N91</f>
         <v>443.02199999999999</v>
       </c>
-      <c r="P91" s="40">
-        <f>P89-P90</f>
+      <c r="P92" s="40">
+        <f>P90-P91</f>
         <v>377.22899999999998</v>
       </c>
-      <c r="Q91" s="40">
-        <f t="shared" ref="Q91" si="103">Q89-Q90</f>
+      <c r="Q92" s="40">
+        <f t="shared" ref="Q92:R92" si="117">Q90-Q91</f>
         <v>377.61800000000005</v>
       </c>
-    </row>
-    <row r="93" spans="2:25" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="43" t="s">
+      <c r="R92" s="40">
+        <f t="shared" si="117"/>
+        <v>300.726</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" s="43" customFormat="1">
+      <c r="B94" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J94" s="43">
         <v>122.53</v>
       </c>
-      <c r="K93" s="43">
+      <c r="K94" s="43">
         <v>142.41999999999999</v>
       </c>
-      <c r="L93" s="43">
+      <c r="L94" s="43">
         <v>176.8</v>
       </c>
-      <c r="M93" s="43">
+      <c r="M94" s="43">
         <v>175.02</v>
       </c>
-      <c r="N93" s="43">
+      <c r="N94" s="43">
         <v>157</v>
       </c>
-      <c r="O93" s="43">
+      <c r="O94" s="43">
         <v>137.72999999999999</v>
       </c>
-      <c r="P93" s="43">
+      <c r="P94" s="43">
         <v>93.17</v>
       </c>
-      <c r="Q93" s="68">
+      <c r="Q94" s="67">
         <v>115.75</v>
       </c>
-      <c r="R93" s="71"/>
-      <c r="Y93" s="71"/>
-    </row>
-    <row r="94" spans="2:25" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="40" t="s">
+      <c r="R94" s="67">
+        <v>200.31</v>
+      </c>
+      <c r="S94" s="70"/>
+      <c r="Y94" s="103"/>
+      <c r="Z94" s="70"/>
+    </row>
+    <row r="95" spans="2:26" s="40" customFormat="1">
+      <c r="B95" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J94" s="40">
-        <f t="shared" ref="J94:O94" si="104">J93*J19</f>
+      <c r="J95" s="40">
+        <f t="shared" ref="J95:O95" si="118">J94*J19</f>
         <v>7797.68667</v>
       </c>
-      <c r="K94" s="40">
-        <f t="shared" ref="K94" si="105">K93*K19</f>
+      <c r="K95" s="40">
+        <f t="shared" ref="K95" si="119">K94*K19</f>
         <v>9120.0071200000002</v>
       </c>
-      <c r="L94" s="40">
-        <f t="shared" si="104"/>
+      <c r="L95" s="40">
+        <f t="shared" si="118"/>
         <v>11521.3488</v>
       </c>
-      <c r="M94" s="40">
-        <f t="shared" si="104"/>
+      <c r="M95" s="40">
+        <f t="shared" si="118"/>
         <v>11584.923839999999</v>
       </c>
-      <c r="N94" s="40">
-        <f t="shared" si="104"/>
+      <c r="N95" s="40">
+        <f t="shared" si="118"/>
         <v>10881.67</v>
       </c>
-      <c r="O94" s="40">
-        <f t="shared" si="104"/>
+      <c r="O95" s="40">
+        <f t="shared" si="118"/>
         <v>9771.9434999999994</v>
       </c>
-      <c r="P94" s="40">
-        <f>P93*P19</f>
+      <c r="P95" s="40">
+        <f>P94*P19</f>
         <v>6618.796800000001</v>
       </c>
-      <c r="Q94" s="40">
-        <f t="shared" ref="Q94" si="106">Q93*Q19</f>
+      <c r="Q95" s="40">
+        <f t="shared" ref="Q95:R95" si="120">Q94*Q19</f>
         <v>8230.6352499999994</v>
       </c>
-      <c r="R94" s="47"/>
-      <c r="Y94" s="47"/>
-    </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+      <c r="R95" s="40">
+        <f t="shared" si="120"/>
+        <v>14276.093699999999</v>
+      </c>
+      <c r="S95" s="47"/>
+      <c r="Y95" s="61"/>
+      <c r="Z95" s="47"/>
+    </row>
+    <row r="96" spans="2:26">
+      <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="40">
-        <f>J94-J91</f>
+      <c r="J96" s="40">
+        <f>J95-J92</f>
         <v>7235.7216699999999</v>
       </c>
-      <c r="K95" s="40">
-        <f t="shared" ref="K95" si="107">K94-K91</f>
+      <c r="K96" s="40">
+        <f t="shared" ref="K96" si="121">K95-K92</f>
         <v>8524.2831200000001</v>
       </c>
-      <c r="N95" s="40">
-        <f>N94-N91</f>
+      <c r="N96" s="40">
+        <f>N95-N92</f>
         <v>10438.647999999999</v>
       </c>
-      <c r="P95" s="40">
-        <f>P94-P91</f>
+      <c r="P96" s="40">
+        <f>P95-P92</f>
         <v>6241.5678000000007</v>
       </c>
-      <c r="Q95" s="40">
-        <f t="shared" ref="Q95" si="108">Q94-Q91</f>
+      <c r="Q96" s="40">
+        <f t="shared" ref="Q96:R96" si="122">Q95-Q92</f>
         <v>7853.017249999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="59">
-        <f>AVERAGE(C97:AG97)</f>
-        <v>10.162747205497784</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="R96" s="40">
+        <f t="shared" si="122"/>
+        <v>13975.367699999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="58">
+        <f>AVERAGE(C98:AG98)</f>
+        <v>10.468518123520758</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M97" s="56">
-        <f t="shared" ref="M97:O97" si="109">M94/SUM(J5:M5)</f>
+      <c r="M98" s="56">
+        <f t="shared" ref="M98:O98" si="123">M95/SUM(J5:M5)</f>
         <v>13.2863316065385</v>
       </c>
-      <c r="N97" s="56">
-        <f t="shared" si="109"/>
+      <c r="N98" s="56">
+        <f t="shared" si="123"/>
         <v>12.603555093290217</v>
       </c>
-      <c r="O97" s="56">
-        <f t="shared" si="109"/>
+      <c r="O98" s="56">
+        <f t="shared" si="123"/>
         <v>10.566685013213839</v>
       </c>
-      <c r="P97" s="56">
-        <f>P94/SUM(M5:P5)</f>
+      <c r="P98" s="56">
+        <f>P95/SUM(M5:P5)</f>
         <v>6.6748252834291053</v>
       </c>
-      <c r="Q97" s="56">
-        <f t="shared" ref="Q97" si="110">Q94/SUM(N5:Q5)</f>
+      <c r="Q98" s="56">
+        <f t="shared" ref="Q98" si="124">Q95/SUM(N5:Q5)</f>
         <v>7.682339031017265</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="59">
-        <f>AVERAGE(C98:AG98)</f>
-        <v>62.447808359934214</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="R98" s="56">
+        <f t="shared" ref="R98" si="125">R95/SUM(O5:R5)</f>
+        <v>11.997372713635619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="58">
+        <f>AVERAGE(C99:AG99)</f>
+        <v>73.885680205622847</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="56"/>
-      <c r="P98" s="56">
-        <f>P93/SUM(M18:P18)</f>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
+      <c r="P99" s="56">
+        <f>P94/SUM(M18:P18)</f>
         <v>45.933448974360083</v>
       </c>
-      <c r="Q98" s="56">
-        <f>Q93/SUM(N18:Q18)</f>
+      <c r="Q99" s="56">
+        <f>Q94/SUM(N18:Q18)</f>
         <v>78.962167745508339</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59">
-        <f>AVERAGE(C99:AG99)</f>
-        <v>7.925631151755125</v>
-      </c>
-      <c r="B99" s="56" t="s">
+      <c r="R99" s="56">
+        <f t="shared" ref="R99" si="126">R94/SUM(O18:R18)</f>
+        <v>96.761423897000128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" s="56" customFormat="1">
+      <c r="A100" s="58">
+        <f>AVERAGE(C100:AG100)</f>
+        <v>8.480394886829286</v>
+      </c>
+      <c r="B100" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="56">
-        <f>J93/J84</f>
+      <c r="J100" s="56">
+        <f>J94/J85</f>
         <v>7.9873462056532354</v>
       </c>
-      <c r="K99" s="56">
-        <f t="shared" ref="K99" si="111">K93/K84</f>
+      <c r="K100" s="56">
+        <f t="shared" ref="K100" si="127">K94/K85</f>
         <v>9.021099781990257</v>
       </c>
-      <c r="N99" s="56">
-        <f>N93/N84</f>
+      <c r="N100" s="56">
+        <f>N94/N85</f>
         <v>10.390123640682932</v>
       </c>
-      <c r="P99" s="56">
-        <f>P93/P84</f>
+      <c r="P100" s="56">
+        <f>P94/P85</f>
         <v>5.545001679720456</v>
       </c>
-      <c r="Q99" s="56">
-        <f t="shared" ref="Q99" si="112">Q93/Q84</f>
+      <c r="Q100" s="56">
+        <f t="shared" ref="Q100:R100" si="128">Q94/Q85</f>
         <v>6.6845844507287495</v>
       </c>
-      <c r="R99" s="72"/>
-      <c r="Y99" s="72"/>
+      <c r="R100" s="56">
+        <f t="shared" si="128"/>
+        <v>11.254213562200095</v>
+      </c>
+      <c r="S100" s="71"/>
+      <c r="Y100" s="106"/>
+      <c r="Z100" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6309,12 +6653,454 @@
     <hyperlink ref="X1" r:id="rId4" xr:uid="{24C18D69-9B16-5F49-888B-0E1F34CAFFCF}"/>
     <hyperlink ref="Q1" r:id="rId5" xr:uid="{1E775E75-414E-4EF3-BED5-DF18BB35E228}"/>
     <hyperlink ref="W1" r:id="rId6" xr:uid="{0155C928-42DB-9C49-916E-988EB162F485}"/>
+    <hyperlink ref="R1" r:id="rId7" xr:uid="{945A2DAA-0A3B-4731-AB1B-1DA9601F8A3A}"/>
+    <hyperlink ref="Y1" r:id="rId8" xr:uid="{E191DAE6-24AE-4703-989E-63A4D3D83722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="X3:X4 X16 X6:X7 R14 X10:X11 X14" formulaRange="1"/>
+    <ignoredError sqref="X3:X4 Y3:Y4 Y18:Y19" formulaRange="1"/>
+    <ignoredError sqref="Y5:Y17 X14 X10:X11 X6:X7 X16" formula="1" formulaRange="1"/>
+    <ignoredError sqref="X5 X17:X25 X8:X9 X12:X13 X15" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BE0C14-5F5B-4C9C-873E-D902FC7032E3}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="100"/>
+    <col min="3" max="3" width="9.140625" style="48"/>
+    <col min="4" max="16384" width="9.140625" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="34"/>
+      <c r="C1" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33"/>
+      <c r="C2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="115">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="47">
+        <v>227.22984000000002</v>
+      </c>
+      <c r="D3" s="116">
+        <v>214.73500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="47">
+        <v>114.53227999999999</v>
+      </c>
+      <c r="D4" s="116">
+        <v>121.407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="72">
+        <v>341.76211999999998</v>
+      </c>
+      <c r="D5" s="117">
+        <f t="shared" ref="D5" si="0">D3+D4</f>
+        <v>336.142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="116">
+        <v>102.64100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="116">
+        <v>27.821999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="47">
+        <v>129.8696056</v>
+      </c>
+      <c r="D8" s="116">
+        <f t="shared" ref="D8" si="1">D6+D7</f>
+        <v>130.46299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="72">
+        <v>211.89251439999998</v>
+      </c>
+      <c r="D9" s="117">
+        <f t="shared" ref="D9" si="2">D5-D8</f>
+        <v>205.679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="47">
+        <v>122.89765835199998</v>
+      </c>
+      <c r="D10" s="116">
+        <v>114.41800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="47">
+        <v>44.497428023999994</v>
+      </c>
+      <c r="D11" s="116">
+        <v>68.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="47">
+        <v>167.39508637599997</v>
+      </c>
+      <c r="D12" s="116">
+        <f t="shared" ref="D12" si="3">D10+D11</f>
+        <v>183.13800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="72">
+        <v>44.497428024000016</v>
+      </c>
+      <c r="D13" s="117">
+        <f t="shared" ref="D13" si="4">D9-D12</f>
+        <v>22.540999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="47">
+        <v>20.231999999999999</v>
+      </c>
+      <c r="D14" s="116">
+        <v>12.189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="47">
+        <v>64.729428024000015</v>
+      </c>
+      <c r="D15" s="116">
+        <f>D13+D14</f>
+        <v>34.729999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="47">
+        <v>18.243945489840005</v>
+      </c>
+      <c r="D16" s="116">
+        <v>5.5549999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="72">
+        <v>46.485482534160013</v>
+      </c>
+      <c r="D17" s="117">
+        <f>D15-D16</f>
+        <v>29.174999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="70">
+        <v>0.65373989247415887</v>
+      </c>
+      <c r="D18" s="118">
+        <f>D17/D19</f>
+        <v>0.40935877648379398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="47">
+        <v>71.106999999999999</v>
+      </c>
+      <c r="D19" s="116">
+        <v>71.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" s="119"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="119"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="119"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="119"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="119"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="119"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="119"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="119"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="59">
+        <v>0.62</v>
+      </c>
+      <c r="D28" s="120">
+        <f t="shared" ref="D28" si="5">D9/D5</f>
+        <v>0.61188128826507848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="59">
+        <v>0.13020000000000007</v>
+      </c>
+      <c r="D29" s="120">
+        <f t="shared" ref="D29" si="6">D13/D5</f>
+        <v>6.7057969548583632E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="59">
+        <v>0.13601707097954571</v>
+      </c>
+      <c r="D30" s="120">
+        <f t="shared" ref="D30" si="7">D17/D5</f>
+        <v>8.679367648196297E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="59">
+        <v>0.41</v>
+      </c>
+      <c r="D31" s="120">
+        <f t="shared" ref="D31" si="8">D16/D15</f>
+        <v>0.15994817160955946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" s="120"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="59">
+        <v>0.21</v>
+      </c>
+      <c r="D33" s="120">
+        <f t="shared" ref="D33" si="9">D11/D5</f>
+        <v>0.20443741038013696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="45"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
+      <c r="C48" s="69"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="C49" s="69"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="C50" s="69"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="C53" s="69"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
+      <c r="C59" s="69"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2"/>
+      <c r="C69" s="69"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
+      <c r="C87" s="69"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="43"/>
+      <c r="C93" s="70"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="40"/>
+      <c r="C94" s="47"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="56"/>
+      <c r="C99" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{04A610AF-3993-48A5-B378-069DB3D01381}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>